--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9642" uniqueCount="472">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -476,6 +476,9 @@
     <t>X2021.09.21</t>
   </si>
   <si>
+    <t>X2021.10.09</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -551,6 +554,9 @@
     <t>X2021.08.24</t>
   </si>
   <si>
+    <t>X2021.10.08</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -629,6 +635,12 @@
     <t>X2021.08.31</t>
   </si>
   <si>
+    <t>X2021.10.05</t>
+  </si>
+  <si>
+    <t>X2021.10.12</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1305,6 +1317,12 @@
   </si>
   <si>
     <t>X2021.10.04</t>
+  </si>
+  <si>
+    <t>X2021.10.10</t>
+  </si>
+  <si>
+    <t>X2021.10.11</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3531,25 +3549,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>115</v>
@@ -3561,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3596,7 +3614,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -3738,7 +3756,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3880,7 +3898,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4022,7 +4040,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4093,7 +4111,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -4164,7 +4182,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -4235,7 +4253,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -4306,7 +4324,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -4377,7 +4395,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -4448,7 +4466,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -4590,7 +4608,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -4661,7 +4679,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4732,7 +4750,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -4803,7 +4821,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -4874,7 +4892,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -4945,7 +4963,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -5068,7 +5086,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5109,7 +5127,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -5150,7 +5168,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5191,7 +5209,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -5232,7 +5250,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5273,7 +5291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -5314,7 +5332,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -5355,7 +5373,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5396,7 +5414,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5437,7 +5455,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5478,7 +5496,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -5519,7 +5537,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -5560,7 +5578,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5601,7 +5619,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5692,7 +5710,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O1" t="s">
         <v>146</v>
@@ -5724,7 +5742,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -5795,7 +5813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5866,7 +5884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5937,7 +5955,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -6008,7 +6026,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -6079,7 +6097,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -6150,7 +6168,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -6221,7 +6239,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6292,7 +6310,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -6363,7 +6381,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -6434,7 +6452,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -6505,7 +6523,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -6576,7 +6594,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -6647,7 +6665,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -6718,7 +6736,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -6789,7 +6807,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6860,7 +6878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -6931,7 +6949,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -7002,7 +7020,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -7073,7 +7091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -7194,7 +7212,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O1" t="s">
         <v>146</v>
@@ -7220,7 +7238,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -7285,7 +7303,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -7350,7 +7368,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7415,7 +7433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -7480,7 +7498,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -7545,7 +7563,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -7610,7 +7628,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -7675,7 +7693,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -7740,7 +7758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7805,7 +7823,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -7870,7 +7888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -7935,7 +7953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -8000,7 +8018,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -8065,7 +8083,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -8130,7 +8148,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -8195,7 +8213,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -8260,7 +8278,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -8325,7 +8343,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -8390,7 +8408,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -8455,7 +8473,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8602,7 +8620,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -8673,7 +8691,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -8744,7 +8762,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -8815,7 +8833,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -8886,7 +8904,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8957,7 +8975,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -9028,7 +9046,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9099,7 +9117,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -9170,7 +9188,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -9241,7 +9259,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -9312,7 +9330,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -9383,7 +9401,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -9454,7 +9472,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -9525,7 +9543,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -9596,7 +9614,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -9667,7 +9685,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -9738,7 +9756,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -9809,7 +9827,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9903,7 +9921,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -9915,7 +9933,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -9957,7 +9975,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -9983,7 +10001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -10075,7 +10093,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -10167,7 +10185,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -10259,7 +10277,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -10351,7 +10369,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -10443,7 +10461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -10535,7 +10553,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -10627,7 +10645,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -10719,7 +10737,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -10811,7 +10829,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -10903,7 +10921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -10995,7 +11013,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -11087,7 +11105,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -11179,7 +11197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -11271,7 +11289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -11363,7 +11381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -11455,7 +11473,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -11547,7 +11565,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -11703,7 +11721,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -11756,7 +11774,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -11809,7 +11827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -11862,7 +11880,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -11915,7 +11933,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -11968,7 +11986,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12021,7 +12039,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -12074,7 +12092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -12127,7 +12145,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -12180,7 +12198,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -12233,7 +12251,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -12286,7 +12304,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -12356,7 +12374,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -12368,7 +12386,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -12394,7 +12412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -12438,7 +12456,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -12482,7 +12500,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -12526,7 +12544,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -12570,7 +12588,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -12614,7 +12632,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12658,7 +12676,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -12702,7 +12720,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -12746,7 +12764,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -12790,7 +12808,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -12883,7 +12901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -12921,7 +12939,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -12959,7 +12977,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -12997,7 +13015,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13035,7 +13053,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13073,7 +13091,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13111,7 +13129,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13149,7 +13167,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -13187,7 +13205,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -13225,7 +13243,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -13298,7 +13316,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -13321,7 +13339,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -13368,7 +13386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -13415,7 +13433,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -13462,7 +13480,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13509,7 +13527,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13556,7 +13574,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13603,7 +13621,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13650,7 +13668,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -13697,7 +13715,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13744,7 +13762,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -15060,7 +15078,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -15102,7 +15120,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="T1" t="s">
         <v>146</v>
@@ -15134,7 +15152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -15220,7 +15238,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -15306,7 +15324,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -15392,7 +15410,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -15478,7 +15496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -15564,7 +15582,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -15650,7 +15668,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -15736,7 +15754,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -15822,7 +15840,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -15908,7 +15926,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -15994,7 +16012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -16080,7 +16098,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -16166,7 +16184,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -16252,7 +16270,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -16338,7 +16356,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -16424,7 +16442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -16510,7 +16528,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -16596,7 +16614,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -16682,7 +16700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -16768,7 +16786,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -16877,7 +16895,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16901,16 +16919,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O1" t="s">
         <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q1" t="s">
         <v>145</v>
@@ -16937,7 +16955,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -16961,12 +16979,24 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>423</v>
+        <v>427</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -17062,12 +17092,24 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -17164,11 +17206,23 @@
       </c>
       <c r="AG3" t="s">
         <v>53</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -17264,12 +17318,24 @@
         <v>52</v>
       </c>
       <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -17365,12 +17431,24 @@
         <v>53</v>
       </c>
       <c r="AG5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -17466,12 +17544,24 @@
         <v>54</v>
       </c>
       <c r="AG6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -17567,12 +17657,24 @@
         <v>53</v>
       </c>
       <c r="AG7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -17668,12 +17770,24 @@
         <v>53</v>
       </c>
       <c r="AG8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -17770,11 +17884,23 @@
       </c>
       <c r="AG9" t="s">
         <v>53</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -17871,11 +17997,23 @@
       </c>
       <c r="AG10" t="s">
         <v>52</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -17971,12 +18109,24 @@
         <v>53</v>
       </c>
       <c r="AG11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -18072,12 +18222,24 @@
         <v>53</v>
       </c>
       <c r="AG12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -18173,12 +18335,24 @@
         <v>53</v>
       </c>
       <c r="AG13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -18274,12 +18448,24 @@
         <v>53</v>
       </c>
       <c r="AG14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -18375,12 +18561,24 @@
         <v>53</v>
       </c>
       <c r="AG15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -18476,12 +18674,24 @@
         <v>53</v>
       </c>
       <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -18577,12 +18787,24 @@
         <v>52</v>
       </c>
       <c r="AG17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -18678,12 +18900,24 @@
         <v>52</v>
       </c>
       <c r="AG18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -18779,12 +19013,24 @@
         <v>52</v>
       </c>
       <c r="AG19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -18880,12 +19126,24 @@
         <v>52</v>
       </c>
       <c r="AG20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -18981,12 +19239,24 @@
         <v>52</v>
       </c>
       <c r="AG21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -19082,12 +19352,24 @@
         <v>52</v>
       </c>
       <c r="AG22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -19184,6 +19466,18 @@
       </c>
       <c r="AG23" t="s">
         <v>52</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -19211,7 +19505,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19285,7 +19579,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -19371,7 +19665,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19457,7 +19751,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -19543,7 +19837,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19629,7 +19923,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -19715,7 +20009,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -19801,7 +20095,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -19887,7 +20181,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -19973,7 +20267,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -20059,7 +20353,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -20145,7 +20439,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -20231,7 +20525,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -20317,7 +20611,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -20403,7 +20697,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -20489,7 +20783,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -20575,7 +20869,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -20661,7 +20955,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -20747,7 +21041,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -20833,7 +21127,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -20919,7 +21213,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -25675,10 +25969,13 @@
       <c r="P1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -25724,11 +26021,14 @@
       </c>
       <c r="P2" t="s">
         <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -25774,11 +26074,14 @@
       </c>
       <c r="P3" t="s">
         <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -25823,12 +26126,15 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -25873,12 +26179,15 @@
         <v>53</v>
       </c>
       <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -25924,11 +26233,14 @@
       </c>
       <c r="P6" t="s">
         <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -25974,11 +26286,14 @@
       </c>
       <c r="P7" t="s">
         <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -26024,11 +26339,14 @@
       </c>
       <c r="P8" t="s">
         <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -26074,11 +26392,14 @@
       </c>
       <c r="P9" t="s">
         <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -26124,11 +26445,14 @@
       </c>
       <c r="P10" t="s">
         <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -26174,11 +26498,14 @@
       </c>
       <c r="P11" t="s">
         <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -26223,12 +26550,15 @@
         <v>53</v>
       </c>
       <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -26273,12 +26603,15 @@
         <v>53</v>
       </c>
       <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -26324,11 +26657,14 @@
       </c>
       <c r="P14" t="s">
         <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -26374,11 +26710,14 @@
       </c>
       <c r="P15" t="s">
         <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -26424,11 +26763,14 @@
       </c>
       <c r="P16" t="s">
         <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -26474,11 +26816,14 @@
       </c>
       <c r="P17" t="s">
         <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -26523,12 +26868,15 @@
         <v>53</v>
       </c>
       <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -26574,11 +26922,14 @@
       </c>
       <c r="P19" t="s">
         <v>53</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -26624,11 +26975,14 @@
       </c>
       <c r="P20" t="s">
         <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -26673,12 +27027,15 @@
         <v>53</v>
       </c>
       <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -26723,12 +27080,15 @@
         <v>53</v>
       </c>
       <c r="P22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -26774,11 +27134,14 @@
       </c>
       <c r="P23" t="s">
         <v>53</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -26824,11 +27187,14 @@
       </c>
       <c r="P24" t="s">
         <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -26873,6 +27239,9 @@
         <v>53</v>
       </c>
       <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -26904,7 +27273,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -26939,10 +27308,16 @@
       <c r="Q1" t="s">
         <v>32</v>
       </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -26990,12 +27365,18 @@
         <v>52</v>
       </c>
       <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -27043,12 +27424,18 @@
         <v>53</v>
       </c>
       <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -27097,11 +27484,17 @@
       </c>
       <c r="Q4" t="s">
         <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -27149,12 +27542,18 @@
         <v>54</v>
       </c>
       <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -27203,11 +27602,17 @@
       </c>
       <c r="Q6" t="s">
         <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -27255,12 +27660,18 @@
         <v>53</v>
       </c>
       <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -27308,12 +27719,18 @@
         <v>53</v>
       </c>
       <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -27361,12 +27778,18 @@
         <v>53</v>
       </c>
       <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -27414,12 +27837,18 @@
         <v>53</v>
       </c>
       <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -27467,12 +27896,18 @@
         <v>53</v>
       </c>
       <c r="Q11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -27520,12 +27955,18 @@
         <v>53</v>
       </c>
       <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -27575,10 +28016,16 @@
       <c r="Q13" t="s">
         <v>54</v>
       </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -27626,12 +28073,18 @@
         <v>52</v>
       </c>
       <c r="Q14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -27679,12 +28132,18 @@
         <v>53</v>
       </c>
       <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -27732,12 +28191,18 @@
         <v>53</v>
       </c>
       <c r="Q16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -27785,12 +28250,18 @@
         <v>53</v>
       </c>
       <c r="Q17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -27838,12 +28309,18 @@
         <v>53</v>
       </c>
       <c r="Q18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -27892,11 +28369,17 @@
       </c>
       <c r="Q19" t="s">
         <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -27945,11 +28428,17 @@
       </c>
       <c r="Q20" t="s">
         <v>53</v>
+      </c>
+      <c r="R20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -27997,12 +28486,18 @@
         <v>53</v>
       </c>
       <c r="Q21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -28050,12 +28545,18 @@
         <v>53</v>
       </c>
       <c r="Q22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -28103,12 +28604,18 @@
         <v>53</v>
       </c>
       <c r="Q23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -28157,11 +28664,17 @@
       </c>
       <c r="Q24" t="s">
         <v>53</v>
+      </c>
+      <c r="R24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -28209,6 +28722,12 @@
         <v>53</v>
       </c>
       <c r="Q25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -28234,10 +28753,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>144</v>
@@ -28263,10 +28782,19 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -28302,12 +28830,21 @@
         <v>52</v>
       </c>
       <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -28343,12 +28880,21 @@
         <v>53</v>
       </c>
       <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -28385,11 +28931,20 @@
       </c>
       <c r="M4" t="s">
         <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -28426,11 +28981,20 @@
       </c>
       <c r="M5" t="s">
         <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -28466,12 +29030,21 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -28507,12 +29080,21 @@
         <v>53</v>
       </c>
       <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -28549,11 +29131,20 @@
       </c>
       <c r="M8" t="s">
         <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -28590,11 +29181,20 @@
       </c>
       <c r="M9" t="s">
         <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -28631,11 +29231,20 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -28672,11 +29281,20 @@
       </c>
       <c r="M11" t="s">
         <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -28713,11 +29331,20 @@
       </c>
       <c r="M12" t="s">
         <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -28754,11 +29381,20 @@
       </c>
       <c r="M13" t="s">
         <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -28796,10 +29432,19 @@
       <c r="M14" t="s">
         <v>53</v>
       </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -28836,11 +29481,20 @@
       </c>
       <c r="M15" t="s">
         <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -28877,11 +29531,20 @@
       </c>
       <c r="M16" t="s">
         <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -28918,11 +29581,20 @@
       </c>
       <c r="M17" t="s">
         <v>53</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -28959,11 +29631,20 @@
       </c>
       <c r="M18" t="s">
         <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -29000,11 +29681,20 @@
       </c>
       <c r="M19" t="s">
         <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -29041,11 +29731,20 @@
       </c>
       <c r="M20" t="s">
         <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -29082,11 +29781,20 @@
       </c>
       <c r="M21" t="s">
         <v>53</v>
+      </c>
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -29123,11 +29831,20 @@
       </c>
       <c r="M22" t="s">
         <v>53</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -29163,12 +29880,21 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -29205,6 +29931,15 @@
       </c>
       <c r="M24" t="s">
         <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -29297,7 +30032,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -29374,7 +30109,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -29451,7 +30186,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -29528,7 +30263,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -29605,7 +30340,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -29682,7 +30417,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -29759,7 +30494,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -29836,7 +30571,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -29913,7 +30648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -29990,7 +30725,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -30067,7 +30802,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -30144,7 +30879,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -30221,7 +30956,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -30298,7 +31033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -30375,7 +31110,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -30452,7 +31187,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -30529,7 +31264,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -30606,7 +31341,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -30683,7 +31418,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -30760,7 +31495,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10749" uniqueCount="478">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -326,6 +326,9 @@
     <t>X2021.09.27</t>
   </si>
   <si>
+    <t>X2021.10.18</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -402,6 +405,12 @@
   </si>
   <si>
     <t>X2021.09.29</t>
+  </si>
+  <si>
+    <t>X2021.10.19</t>
+  </si>
+  <si>
+    <t>X2021.10.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -3729,28 +3738,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3759,7 +3768,7 @@
         <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3771,13 +3780,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -3794,10 +3803,13 @@
       <c r="X1" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3868,10 +3880,13 @@
       <c r="X2" t="s">
         <v>55</v>
       </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3942,10 +3957,13 @@
       <c r="X3" t="s">
         <v>56</v>
       </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -4016,10 +4034,13 @@
       <c r="X4" t="s">
         <v>57</v>
       </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -4090,10 +4111,13 @@
       <c r="X5" t="s">
         <v>56</v>
       </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -4164,10 +4188,13 @@
       <c r="X6" t="s">
         <v>56</v>
       </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4238,10 +4265,13 @@
       <c r="X7" t="s">
         <v>57</v>
       </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4312,10 +4342,13 @@
       <c r="X8" t="s">
         <v>56</v>
       </c>
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -4386,10 +4419,13 @@
       <c r="X9" t="s">
         <v>56</v>
       </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -4460,10 +4496,13 @@
       <c r="X10" t="s">
         <v>56</v>
       </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -4534,10 +4573,13 @@
       <c r="X11" t="s">
         <v>56</v>
       </c>
+      <c r="Y11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -4608,10 +4650,13 @@
       <c r="X12" t="s">
         <v>57</v>
       </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4681,11 +4726,14 @@
       </c>
       <c r="X13" t="s">
         <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -4756,10 +4804,13 @@
       <c r="X14" t="s">
         <v>56</v>
       </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -4830,10 +4881,13 @@
       <c r="X15" t="s">
         <v>56</v>
       </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -4904,10 +4958,13 @@
       <c r="X16" t="s">
         <v>56</v>
       </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4978,10 +5035,13 @@
       <c r="X17" t="s">
         <v>56</v>
       </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -5052,10 +5112,13 @@
       <c r="X18" t="s">
         <v>56</v>
       </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -5126,10 +5189,13 @@
       <c r="X19" t="s">
         <v>56</v>
       </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -5200,10 +5266,13 @@
       <c r="X20" t="s">
         <v>56</v>
       </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -5273,6 +5342,9 @@
       </c>
       <c r="X21" t="s">
         <v>56</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5332,10 +5404,13 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -5379,10 +5454,13 @@
       <c r="O2" t="s">
         <v>56</v>
       </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -5426,10 +5504,13 @@
       <c r="O3" t="s">
         <v>55</v>
       </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -5472,11 +5553,14 @@
       </c>
       <c r="O4" t="s">
         <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -5518,12 +5602,15 @@
         <v>56</v>
       </c>
       <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5567,10 +5654,13 @@
       <c r="O6" t="s">
         <v>56</v>
       </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -5613,11 +5703,14 @@
       </c>
       <c r="O7" t="s">
         <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -5661,10 +5754,13 @@
       <c r="O8" t="s">
         <v>55</v>
       </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -5707,11 +5803,14 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -5754,11 +5853,14 @@
       </c>
       <c r="O10" t="s">
         <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -5801,11 +5903,14 @@
       </c>
       <c r="O11" t="s">
         <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -5847,12 +5952,15 @@
         <v>56</v>
       </c>
       <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -5895,11 +6003,14 @@
       </c>
       <c r="O13" t="s">
         <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -5942,11 +6053,14 @@
       </c>
       <c r="O14" t="s">
         <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -5989,6 +6103,9 @@
       </c>
       <c r="O15" t="s">
         <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6043,10 +6160,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -6078,10 +6195,13 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -6154,11 +6274,14 @@
       </c>
       <c r="Y2" t="s">
         <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -6232,10 +6355,13 @@
       <c r="Y3" t="s">
         <v>56</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6309,10 +6435,13 @@
       <c r="Y4" t="s">
         <v>56</v>
       </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -6385,11 +6514,14 @@
       </c>
       <c r="Y5" t="s">
         <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -6463,10 +6595,13 @@
       <c r="Y6" t="s">
         <v>55</v>
       </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -6539,11 +6674,14 @@
       </c>
       <c r="Y7" t="s">
         <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -6615,12 +6753,15 @@
         <v>56</v>
       </c>
       <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6693,11 +6834,14 @@
       </c>
       <c r="Y9" t="s">
         <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -6771,10 +6915,13 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -6846,12 +6993,15 @@
         <v>56</v>
       </c>
       <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -6925,10 +7075,13 @@
       <c r="Y12" t="s">
         <v>56</v>
       </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -7002,10 +7155,13 @@
       <c r="Y13" t="s">
         <v>56</v>
       </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -7079,10 +7235,13 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -7155,11 +7314,14 @@
       </c>
       <c r="Y15" t="s">
         <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -7232,11 +7394,14 @@
       </c>
       <c r="Y16" t="s">
         <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -7310,10 +7475,13 @@
       <c r="Y17" t="s">
         <v>55</v>
       </c>
+      <c r="Z17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -7387,10 +7555,13 @@
       <c r="Y18" t="s">
         <v>56</v>
       </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -7464,10 +7635,13 @@
       <c r="Y19" t="s">
         <v>57</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -7540,11 +7714,14 @@
       </c>
       <c r="Y20" t="s">
         <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -7616,6 +7793,9 @@
         <v>56</v>
       </c>
       <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7671,10 +7851,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7703,7 +7883,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -7774,7 +7954,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -7845,7 +8025,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -7916,7 +8096,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -7987,7 +8167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -8058,7 +8238,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -8129,7 +8309,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8200,7 +8380,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -8271,7 +8451,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -8342,7 +8522,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -8413,7 +8593,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -8484,7 +8664,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -8555,7 +8735,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -8626,7 +8806,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -8697,7 +8877,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -8768,7 +8948,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -8839,7 +9019,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -8910,7 +9090,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -8981,7 +9161,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -9052,7 +9232,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -9179,7 +9359,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -9211,7 +9391,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -9288,7 +9468,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -9365,7 +9545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -9442,7 +9622,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -9519,7 +9699,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -9596,7 +9776,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -9673,7 +9853,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -9750,7 +9930,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -9827,7 +10007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -9904,7 +10084,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -9981,7 +10161,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -10058,7 +10238,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -10135,7 +10315,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -10212,7 +10392,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -10289,7 +10469,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -10366,7 +10546,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -10443,7 +10623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -10520,7 +10700,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -10620,7 +10800,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -10632,7 +10812,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -10674,7 +10854,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10700,7 +10880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -10792,7 +10972,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -10884,7 +11064,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10976,7 +11156,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -11068,7 +11248,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -11160,7 +11340,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -11252,7 +11432,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -11344,7 +11524,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -11436,7 +11616,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -11528,7 +11708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -11620,7 +11800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -11712,7 +11892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -11804,7 +11984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -11896,7 +12076,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -11988,7 +12168,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12080,7 +12260,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -12172,7 +12352,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -12264,7 +12444,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -12423,7 +12603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12479,7 +12659,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -12535,7 +12715,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -12591,7 +12771,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -12647,7 +12827,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -12703,7 +12883,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -12759,7 +12939,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -12815,7 +12995,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -12871,7 +13051,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -12927,7 +13107,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -12983,7 +13163,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -13039,7 +13219,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -13112,7 +13292,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -13124,7 +13304,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -13142,7 +13322,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -13156,7 +13336,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -13206,7 +13386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13256,7 +13436,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13306,7 +13486,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13356,7 +13536,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -13406,7 +13586,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -13456,7 +13636,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -13506,7 +13686,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -13556,7 +13736,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -13606,7 +13786,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -13688,7 +13868,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -13708,7 +13888,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -13749,7 +13929,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -13790,7 +13970,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13831,7 +14011,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13872,7 +14052,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -13913,7 +14093,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -13954,7 +14134,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -13995,7 +14175,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -14036,7 +14216,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -14077,7 +14257,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -14153,7 +14333,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -14182,7 +14362,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -14235,7 +14415,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -14288,7 +14468,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -14341,7 +14521,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -14394,7 +14574,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -14447,7 +14627,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -14500,7 +14680,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -14553,7 +14733,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -14606,7 +14786,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14659,7 +14839,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16152,7 +16332,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16194,10 +16374,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -16229,10 +16409,13 @@
       <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -16321,10 +16504,13 @@
       <c r="AD2" t="s">
         <v>55</v>
       </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -16411,12 +16597,15 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -16505,10 +16694,13 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -16597,10 +16789,13 @@
       <c r="AD5" t="s">
         <v>56</v>
       </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -16689,10 +16884,13 @@
       <c r="AD6" t="s">
         <v>55</v>
       </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -16781,10 +16979,13 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -16873,10 +17074,13 @@
       <c r="AD8" t="s">
         <v>56</v>
       </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -16964,11 +17168,14 @@
       </c>
       <c r="AD9" t="s">
         <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -17057,10 +17264,13 @@
       <c r="AD10" t="s">
         <v>55</v>
       </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -17149,10 +17359,13 @@
       <c r="AD11" t="s">
         <v>55</v>
       </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -17239,12 +17452,15 @@
         <v>55</v>
       </c>
       <c r="AD12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -17333,10 +17549,13 @@
       <c r="AD13" t="s">
         <v>55</v>
       </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -17423,12 +17642,15 @@
         <v>56</v>
       </c>
       <c r="AD14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -17516,11 +17738,14 @@
       </c>
       <c r="AD15" t="s">
         <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -17607,12 +17832,15 @@
         <v>55</v>
       </c>
       <c r="AD16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -17701,10 +17929,13 @@
       <c r="AD17" t="s">
         <v>56</v>
       </c>
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -17793,10 +18024,13 @@
       <c r="AD18" t="s">
         <v>55</v>
       </c>
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -17885,10 +18119,13 @@
       <c r="AD19" t="s">
         <v>56</v>
       </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -17977,10 +18214,13 @@
       <c r="AD20" t="s">
         <v>56</v>
       </c>
+      <c r="AE20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -18068,6 +18308,9 @@
       </c>
       <c r="AD21" t="s">
         <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -18095,7 +18338,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -18119,19 +18362,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -18155,7 +18398,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -18179,19 +18422,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AH1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AI1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AJ1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AK1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -18202,10 +18445,16 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -18324,10 +18573,16 @@
       <c r="AN2" t="s">
         <v>55</v>
       </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -18446,10 +18701,16 @@
       <c r="AN3" t="s">
         <v>55</v>
       </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -18568,10 +18829,16 @@
       <c r="AN4" t="s">
         <v>55</v>
       </c>
+      <c r="AO4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -18690,10 +18957,16 @@
       <c r="AN5" t="s">
         <v>56</v>
       </c>
+      <c r="AO5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -18812,10 +19085,16 @@
       <c r="AN6" t="s">
         <v>55</v>
       </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -18932,12 +19211,18 @@
         <v>55</v>
       </c>
       <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -19056,10 +19341,16 @@
       <c r="AN8" t="s">
         <v>57</v>
       </c>
+      <c r="AO8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -19176,12 +19467,18 @@
         <v>56</v>
       </c>
       <c r="AN9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -19300,10 +19597,16 @@
       <c r="AN10" t="s">
         <v>55</v>
       </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -19422,10 +19725,16 @@
       <c r="AN11" t="s">
         <v>56</v>
       </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -19544,10 +19853,16 @@
       <c r="AN12" t="s">
         <v>55</v>
       </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -19664,12 +19979,18 @@
         <v>55</v>
       </c>
       <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -19786,12 +20107,18 @@
         <v>55</v>
       </c>
       <c r="AN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -19910,10 +20237,16 @@
       <c r="AN15" t="s">
         <v>55</v>
       </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -20032,10 +20365,16 @@
       <c r="AN16" t="s">
         <v>56</v>
       </c>
+      <c r="AO16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -20154,10 +20493,16 @@
       <c r="AN17" t="s">
         <v>56</v>
       </c>
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20276,10 +20621,16 @@
       <c r="AN18" t="s">
         <v>56</v>
       </c>
+      <c r="AO18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -20398,10 +20749,16 @@
       <c r="AN19" t="s">
         <v>56</v>
       </c>
+      <c r="AO19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -20518,12 +20875,18 @@
         <v>56</v>
       </c>
       <c r="AN20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -20642,10 +21005,16 @@
       <c r="AN21" t="s">
         <v>55</v>
       </c>
+      <c r="AO21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -20764,10 +21133,16 @@
       <c r="AN22" t="s">
         <v>56</v>
       </c>
+      <c r="AO22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -20884,6 +21259,12 @@
         <v>56</v>
       </c>
       <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20912,7 +21293,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -20954,7 +21335,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -20992,10 +21373,13 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -21085,12 +21469,15 @@
         <v>56</v>
       </c>
       <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -21182,10 +21569,13 @@
       <c r="AE3" t="s">
         <v>55</v>
       </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -21277,10 +21667,13 @@
       <c r="AE4" t="s">
         <v>56</v>
       </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -21370,12 +21763,15 @@
         <v>56</v>
       </c>
       <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -21467,10 +21863,13 @@
       <c r="AE6" t="s">
         <v>55</v>
       </c>
+      <c r="AF6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -21560,12 +21959,15 @@
         <v>55</v>
       </c>
       <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -21657,10 +22059,13 @@
       <c r="AE8" t="s">
         <v>57</v>
       </c>
+      <c r="AF8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -21752,10 +22157,13 @@
       <c r="AE9" t="s">
         <v>56</v>
       </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -21847,10 +22255,13 @@
       <c r="AE10" t="s">
         <v>55</v>
       </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -21942,10 +22353,13 @@
       <c r="AE11" t="s">
         <v>55</v>
       </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -22037,10 +22451,13 @@
       <c r="AE12" t="s">
         <v>56</v>
       </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -22131,11 +22548,14 @@
       </c>
       <c r="AE13" t="s">
         <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -22226,11 +22646,14 @@
       </c>
       <c r="AE14" t="s">
         <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -22321,11 +22744,14 @@
       </c>
       <c r="AE15" t="s">
         <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -22416,11 +22842,14 @@
       </c>
       <c r="AE16" t="s">
         <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -22511,11 +22940,14 @@
       </c>
       <c r="AE17" t="s">
         <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -22607,10 +23039,13 @@
       <c r="AE18" t="s">
         <v>55</v>
       </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22702,10 +23137,13 @@
       <c r="AE19" t="s">
         <v>55</v>
       </c>
+      <c r="AF19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -22797,10 +23235,13 @@
       <c r="AE20" t="s">
         <v>56</v>
       </c>
+      <c r="AF20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -22890,6 +23331,9 @@
         <v>56</v>
       </c>
       <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -24730,10 +25174,13 @@
       <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -24798,10 +25245,13 @@
       <c r="V2" t="s">
         <v>55</v>
       </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -24864,12 +25314,15 @@
         <v>56</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -24934,10 +25387,13 @@
       <c r="V4" t="s">
         <v>55</v>
       </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -25000,12 +25456,15 @@
         <v>56</v>
       </c>
       <c r="V5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -25068,12 +25527,15 @@
         <v>56</v>
       </c>
       <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -25138,10 +25600,13 @@
       <c r="V7" t="s">
         <v>55</v>
       </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -25205,11 +25670,14 @@
       </c>
       <c r="V8" t="s">
         <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -25273,11 +25741,14 @@
       </c>
       <c r="V9" t="s">
         <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -25342,10 +25813,13 @@
       <c r="V10" t="s">
         <v>55</v>
       </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -25410,10 +25884,13 @@
       <c r="V11" t="s">
         <v>55</v>
       </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -25476,12 +25953,15 @@
         <v>56</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -25544,12 +26024,15 @@
         <v>56</v>
       </c>
       <c r="V13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -25612,12 +26095,15 @@
         <v>56</v>
       </c>
       <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -25682,10 +26168,13 @@
       <c r="V15" t="s">
         <v>57</v>
       </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -25748,12 +26237,15 @@
         <v>56</v>
       </c>
       <c r="V16" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -25818,10 +26310,13 @@
       <c r="V17" t="s">
         <v>55</v>
       </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -25886,10 +26381,13 @@
       <c r="V18" t="s">
         <v>56</v>
       </c>
+      <c r="W18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -25952,12 +26450,15 @@
         <v>56</v>
       </c>
       <c r="V19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -26022,10 +26523,13 @@
       <c r="V20" t="s">
         <v>56</v>
       </c>
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -26088,6 +26592,9 @@
         <v>56</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26119,10 +26626,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -26143,10 +26650,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -26158,10 +26665,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -26178,10 +26685,16 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26254,11 +26767,17 @@
       </c>
       <c r="Y2" t="s">
         <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -26332,10 +26851,16 @@
       <c r="Y3" t="s">
         <v>55</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -26409,10 +26934,16 @@
       <c r="Y4" t="s">
         <v>55</v>
       </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -26486,10 +27017,16 @@
       <c r="Y5" t="s">
         <v>55</v>
       </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -26563,10 +27100,16 @@
       <c r="Y6" t="s">
         <v>55</v>
       </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -26638,12 +27181,18 @@
         <v>56</v>
       </c>
       <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -26715,12 +27264,18 @@
         <v>55</v>
       </c>
       <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -26794,10 +27349,16 @@
       <c r="Y9" t="s">
         <v>55</v>
       </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26871,10 +27432,16 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26948,10 +27515,16 @@
       <c r="Y11" t="s">
         <v>55</v>
       </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -27024,11 +27597,17 @@
       </c>
       <c r="Y12" t="s">
         <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -27102,10 +27681,16 @@
       <c r="Y13" t="s">
         <v>55</v>
       </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -27177,12 +27762,18 @@
         <v>56</v>
       </c>
       <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27256,10 +27847,16 @@
       <c r="Y15" t="s">
         <v>55</v>
       </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27331,12 +27928,18 @@
         <v>56</v>
       </c>
       <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27410,10 +28013,16 @@
       <c r="Y17" t="s">
         <v>55</v>
       </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27486,11 +28095,17 @@
       </c>
       <c r="Y18" t="s">
         <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -27563,11 +28178,17 @@
       </c>
       <c r="Y19" t="s">
         <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27641,10 +28262,16 @@
       <c r="Y20" t="s">
         <v>55</v>
       </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -27717,11 +28344,17 @@
       </c>
       <c r="Y21" t="s">
         <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -27793,12 +28426,18 @@
         <v>56</v>
       </c>
       <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -27872,10 +28511,16 @@
       <c r="Y23" t="s">
         <v>55</v>
       </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -27947,12 +28592,18 @@
         <v>55</v>
       </c>
       <c r="Y24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -28025,6 +28676,12 @@
       </c>
       <c r="Y25" t="s">
         <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -28049,7 +28706,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -28061,34 +28718,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -28096,10 +28753,13 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -28153,12 +28813,15 @@
         <v>55</v>
       </c>
       <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -28212,12 +28875,15 @@
         <v>55</v>
       </c>
       <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -28271,12 +28937,15 @@
         <v>55</v>
       </c>
       <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -28332,10 +29001,13 @@
       <c r="S5" t="s">
         <v>55</v>
       </c>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -28389,12 +29061,15 @@
         <v>55</v>
       </c>
       <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -28448,12 +29123,15 @@
         <v>55</v>
       </c>
       <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -28507,12 +29185,15 @@
         <v>55</v>
       </c>
       <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -28568,10 +29249,13 @@
       <c r="S9" t="s">
         <v>56</v>
       </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -28627,10 +29311,13 @@
       <c r="S10" t="s">
         <v>56</v>
       </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -28684,12 +29371,15 @@
         <v>55</v>
       </c>
       <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28745,10 +29435,13 @@
       <c r="S12" t="s">
         <v>56</v>
       </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -28802,12 +29495,15 @@
         <v>55</v>
       </c>
       <c r="S13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -28861,12 +29557,15 @@
         <v>55</v>
       </c>
       <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -28920,12 +29619,15 @@
         <v>55</v>
       </c>
       <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -28981,10 +29683,13 @@
       <c r="S16" t="s">
         <v>55</v>
       </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -29038,12 +29743,15 @@
         <v>55</v>
       </c>
       <c r="S17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -29097,12 +29805,15 @@
         <v>55</v>
       </c>
       <c r="S18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -29156,12 +29867,15 @@
         <v>55</v>
       </c>
       <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -29217,10 +29931,13 @@
       <c r="S20" t="s">
         <v>56</v>
       </c>
+      <c r="T20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -29274,12 +29991,15 @@
         <v>55</v>
       </c>
       <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -29335,10 +30055,13 @@
       <c r="S22" t="s">
         <v>56</v>
       </c>
+      <c r="T22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -29394,10 +30117,13 @@
       <c r="S23" t="s">
         <v>57</v>
       </c>
+      <c r="T23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -29451,12 +30177,15 @@
         <v>55</v>
       </c>
       <c r="S24" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -29510,6 +30239,9 @@
         <v>55</v>
       </c>
       <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -29535,13 +30267,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -29550,7 +30282,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -29559,13 +30291,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -29577,18 +30309,21 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -29647,10 +30382,13 @@
       <c r="T2" t="s">
         <v>56</v>
       </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -29707,12 +30445,15 @@
         <v>56</v>
       </c>
       <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -29771,10 +30512,13 @@
       <c r="T4" t="s">
         <v>56</v>
       </c>
+      <c r="U4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -29833,10 +30577,13 @@
       <c r="T5" t="s">
         <v>56</v>
       </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -29895,10 +30642,13 @@
       <c r="T6" t="s">
         <v>56</v>
       </c>
+      <c r="U6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -29957,10 +30707,13 @@
       <c r="T7" t="s">
         <v>56</v>
       </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -30019,10 +30772,13 @@
       <c r="T8" t="s">
         <v>56</v>
       </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -30079,12 +30835,15 @@
         <v>56</v>
       </c>
       <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -30143,10 +30902,13 @@
       <c r="T10" t="s">
         <v>56</v>
       </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -30203,12 +30965,15 @@
         <v>56</v>
       </c>
       <c r="T11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -30265,12 +31030,15 @@
         <v>56</v>
       </c>
       <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -30329,10 +31097,13 @@
       <c r="T13" t="s">
         <v>56</v>
       </c>
+      <c r="U13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -30390,11 +31161,14 @@
       </c>
       <c r="T14" t="s">
         <v>56</v>
+      </c>
+      <c r="U14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -30453,10 +31227,13 @@
       <c r="T15" t="s">
         <v>56</v>
       </c>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -30513,12 +31290,15 @@
         <v>56</v>
       </c>
       <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -30577,10 +31357,13 @@
       <c r="T17" t="s">
         <v>56</v>
       </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -30637,12 +31420,15 @@
         <v>56</v>
       </c>
       <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -30701,10 +31487,13 @@
       <c r="T19" t="s">
         <v>56</v>
       </c>
+      <c r="U19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -30763,10 +31552,13 @@
       <c r="T20" t="s">
         <v>56</v>
       </c>
+      <c r="U20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -30825,10 +31617,13 @@
       <c r="T21" t="s">
         <v>56</v>
       </c>
+      <c r="U21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -30885,12 +31680,15 @@
         <v>56</v>
       </c>
       <c r="T22" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -30949,10 +31747,13 @@
       <c r="T23" t="s">
         <v>56</v>
       </c>
+      <c r="U23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -31011,10 +31812,13 @@
       <c r="T24" t="s">
         <v>56</v>
       </c>
+      <c r="U24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -31071,6 +31875,9 @@
         <v>56</v>
       </c>
       <c r="T25" t="s">
+        <v>56</v>
+      </c>
+      <c r="U25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -31096,48 +31903,48 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -31187,7 +31994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -31237,7 +32044,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -31287,7 +32094,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -31337,7 +32144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -31387,7 +32194,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -31437,7 +32244,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -31487,7 +32294,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -31537,7 +32344,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -31587,7 +32394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -31637,7 +32444,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -31687,7 +32494,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -31737,7 +32544,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -31787,7 +32594,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -31837,7 +32644,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -31887,7 +32694,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -31937,7 +32744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -31987,7 +32794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -32037,7 +32844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -32087,7 +32894,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -32137,7 +32944,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -32187,7 +32994,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -32237,7 +33044,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -32384,7 +33191,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -32470,7 +33277,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -32556,7 +33363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -32642,7 +33449,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -32728,7 +33535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -32814,7 +33621,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -32900,7 +33707,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -32986,7 +33793,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -33072,7 +33879,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -33158,7 +33965,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -33244,7 +34051,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -33330,7 +34137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -33416,7 +34223,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -33502,7 +34309,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -33588,7 +34395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -33674,7 +34481,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -33760,7 +34567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -33846,7 +34653,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -33932,7 +34739,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -34018,7 +34825,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="486">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -506,6 +506,9 @@
     <t>X2021.10.09</t>
   </si>
   <si>
+    <t>X2021.10.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -737,6 +740,9 @@
     <t>Yeovil</t>
   </si>
   <si>
+    <t>X2021.10.27</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
@@ -810,6 +816,9 @@
   </si>
   <si>
     <t>X2021.08.25</t>
+  </si>
+  <si>
+    <t>X2021.10.25</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -3924,25 +3933,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>122</v>
@@ -3954,7 +3963,7 @@
         <v>98</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3995,10 +4004,13 @@
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AA1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4074,11 +4086,14 @@
       </c>
       <c r="Z2" t="s">
         <v>59</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4155,10 +4170,13 @@
       <c r="Z3" t="s">
         <v>59</v>
       </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -4234,11 +4252,14 @@
       </c>
       <c r="Z4" t="s">
         <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -4314,11 +4335,14 @@
       </c>
       <c r="Z5" t="s">
         <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -4394,11 +4418,14 @@
       </c>
       <c r="Z6" t="s">
         <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4474,11 +4501,14 @@
       </c>
       <c r="Z7" t="s">
         <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -4554,11 +4584,14 @@
       </c>
       <c r="Z8" t="s">
         <v>59</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -4634,11 +4667,14 @@
       </c>
       <c r="Z9" t="s">
         <v>59</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -4714,11 +4750,14 @@
       </c>
       <c r="Z10" t="s">
         <v>59</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -4794,11 +4833,14 @@
       </c>
       <c r="Z11" t="s">
         <v>59</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -4874,11 +4916,14 @@
       </c>
       <c r="Z12" t="s">
         <v>59</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -4954,11 +4999,14 @@
       </c>
       <c r="Z13" t="s">
         <v>59</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -5034,11 +5082,14 @@
       </c>
       <c r="Z14" t="s">
         <v>59</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -5114,11 +5165,14 @@
       </c>
       <c r="Z15" t="s">
         <v>59</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -5194,11 +5248,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -5274,11 +5331,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -5354,11 +5414,14 @@
       </c>
       <c r="Z18" t="s">
         <v>59</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -5434,11 +5497,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -5514,11 +5580,14 @@
       </c>
       <c r="Z20" t="s">
         <v>59</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -5594,6 +5663,9 @@
       </c>
       <c r="Z21" t="s">
         <v>59</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5665,7 +5737,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5721,7 +5793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -5777,7 +5849,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -5833,7 +5905,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -5889,7 +5961,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5945,7 +6017,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6001,7 +6073,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6057,7 +6129,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -6113,7 +6185,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6169,7 +6241,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -6225,7 +6297,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -6281,7 +6353,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -6337,7 +6409,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -6393,7 +6465,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -6499,7 +6571,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
         <v>155</v>
@@ -6546,10 +6618,16 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6633,12 +6711,18 @@
         <v>58</v>
       </c>
       <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6724,10 +6808,16 @@
       <c r="AC3" t="s">
         <v>58</v>
       </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6811,12 +6901,18 @@
         <v>58</v>
       </c>
       <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -6901,11 +6997,17 @@
       </c>
       <c r="AC5" t="s">
         <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -6989,12 +7091,18 @@
         <v>58</v>
       </c>
       <c r="AC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -7078,12 +7186,18 @@
         <v>58</v>
       </c>
       <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -7167,12 +7281,18 @@
         <v>58</v>
       </c>
       <c r="AC8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7256,12 +7376,18 @@
         <v>58</v>
       </c>
       <c r="AC9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -7345,12 +7471,18 @@
         <v>58</v>
       </c>
       <c r="AC10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7434,12 +7566,18 @@
         <v>59</v>
       </c>
       <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7524,11 +7662,17 @@
       </c>
       <c r="AC12" t="s">
         <v>59</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7612,12 +7756,18 @@
         <v>58</v>
       </c>
       <c r="AC13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7701,12 +7851,18 @@
         <v>59</v>
       </c>
       <c r="AC14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7791,11 +7947,17 @@
       </c>
       <c r="AC15" t="s">
         <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -7880,11 +8042,17 @@
       </c>
       <c r="AC16" t="s">
         <v>58</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -7968,12 +8136,18 @@
         <v>58</v>
       </c>
       <c r="AC17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -8057,12 +8231,18 @@
         <v>58</v>
       </c>
       <c r="AC18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8146,12 +8326,18 @@
         <v>58</v>
       </c>
       <c r="AC19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8235,12 +8421,18 @@
         <v>59</v>
       </c>
       <c r="AC20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -8324,6 +8516,12 @@
         <v>58</v>
       </c>
       <c r="AC21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8379,7 +8577,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
         <v>155</v>
@@ -8417,10 +8615,13 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
+      <c r="AA1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8495,12 +8696,15 @@
         <v>58</v>
       </c>
       <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8575,12 +8779,15 @@
         <v>59</v>
       </c>
       <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8655,12 +8862,15 @@
         <v>59</v>
       </c>
       <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8735,12 +8945,15 @@
         <v>59</v>
       </c>
       <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -8815,12 +9028,15 @@
         <v>59</v>
       </c>
       <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -8896,11 +9112,14 @@
       </c>
       <c r="Z7" t="s">
         <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -8976,11 +9195,14 @@
       </c>
       <c r="Z8" t="s">
         <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9055,12 +9277,15 @@
         <v>59</v>
       </c>
       <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9135,12 +9360,15 @@
         <v>58</v>
       </c>
       <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -9215,12 +9443,15 @@
         <v>59</v>
       </c>
       <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9295,12 +9526,15 @@
         <v>59</v>
       </c>
       <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9376,11 +9610,14 @@
       </c>
       <c r="Z13" t="s">
         <v>58</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9456,11 +9693,14 @@
       </c>
       <c r="Z14" t="s">
         <v>59</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9535,12 +9775,15 @@
         <v>59</v>
       </c>
       <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9616,11 +9859,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9696,11 +9942,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -9776,11 +10025,14 @@
       </c>
       <c r="Z18" t="s">
         <v>59</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -9856,11 +10108,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -9937,10 +10192,13 @@
       <c r="Z20" t="s">
         <v>58</v>
       </c>
+      <c r="AA20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10016,6 +10274,9 @@
       </c>
       <c r="Z21" t="s">
         <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10117,7 +10378,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10203,7 +10464,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10289,7 +10550,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10375,7 +10636,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10461,7 +10722,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10547,7 +10808,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -10633,7 +10894,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10719,7 +10980,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -10805,7 +11066,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -10891,7 +11152,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -10977,7 +11238,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11063,7 +11324,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11149,7 +11410,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11235,7 +11496,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11321,7 +11582,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11407,7 +11668,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11493,7 +11754,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11579,7 +11840,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11688,7 +11949,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -11700,7 +11961,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -11742,7 +12003,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -11774,10 +12035,13 @@
       <c r="AG1" t="s">
         <v>39</v>
       </c>
+      <c r="AH1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -11874,11 +12138,14 @@
       </c>
       <c r="AG2" t="s">
         <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -11975,11 +12242,14 @@
       </c>
       <c r="AG3" t="s">
         <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12076,11 +12346,14 @@
       </c>
       <c r="AG4" t="s">
         <v>59</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12177,11 +12450,14 @@
       </c>
       <c r="AG5" t="s">
         <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12278,11 +12554,14 @@
       </c>
       <c r="AG6" t="s">
         <v>59</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12378,12 +12657,15 @@
         <v>60</v>
       </c>
       <c r="AG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12480,11 +12762,14 @@
       </c>
       <c r="AG8" t="s">
         <v>58</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12580,12 +12865,15 @@
         <v>58</v>
       </c>
       <c r="AG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12681,12 +12969,15 @@
         <v>58</v>
       </c>
       <c r="AG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -12782,12 +13073,15 @@
         <v>59</v>
       </c>
       <c r="AG11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -12884,11 +13178,14 @@
       </c>
       <c r="AG12" t="s">
         <v>60</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -12985,11 +13282,14 @@
       </c>
       <c r="AG13" t="s">
         <v>59</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13085,12 +13385,15 @@
         <v>59</v>
       </c>
       <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13188,10 +13491,13 @@
       <c r="AG15" t="s">
         <v>58</v>
       </c>
+      <c r="AH15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13288,11 +13594,14 @@
       </c>
       <c r="AG16" t="s">
         <v>58</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -13388,12 +13697,15 @@
         <v>59</v>
       </c>
       <c r="AG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13489,12 +13801,15 @@
         <v>60</v>
       </c>
       <c r="AG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -13591,6 +13906,9 @@
       </c>
       <c r="AG19" t="s">
         <v>59</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13665,10 +13983,13 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
+      <c r="U1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13726,11 +14047,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -13788,11 +14112,14 @@
       </c>
       <c r="T3" t="s">
         <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -13850,11 +14177,14 @@
       </c>
       <c r="T4" t="s">
         <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -13912,11 +14242,14 @@
       </c>
       <c r="T5" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -13974,11 +14307,14 @@
       </c>
       <c r="T6" t="s">
         <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14036,11 +14372,14 @@
       </c>
       <c r="T7" t="s">
         <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -14098,11 +14437,14 @@
       </c>
       <c r="T8" t="s">
         <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14160,11 +14502,14 @@
       </c>
       <c r="T9" t="s">
         <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -14221,12 +14566,15 @@
         <v>58</v>
       </c>
       <c r="T10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -14284,11 +14632,14 @@
       </c>
       <c r="T11" t="s">
         <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -14346,11 +14697,14 @@
       </c>
       <c r="T12" t="s">
         <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14407,6 +14761,9 @@
         <v>58</v>
       </c>
       <c r="T13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -14429,7 +14786,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -14441,7 +14798,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14473,10 +14830,13 @@
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14524,12 +14884,15 @@
         <v>59</v>
       </c>
       <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14577,12 +14940,15 @@
         <v>59</v>
       </c>
       <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14630,12 +14996,15 @@
         <v>59</v>
       </c>
       <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -14683,12 +15052,15 @@
         <v>58</v>
       </c>
       <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -14736,12 +15108,15 @@
         <v>59</v>
       </c>
       <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14789,12 +15164,15 @@
         <v>59</v>
       </c>
       <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -14842,12 +15220,15 @@
         <v>59</v>
       </c>
       <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -14895,12 +15276,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -14948,12 +15332,15 @@
         <v>59</v>
       </c>
       <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15002,6 +15389,9 @@
       </c>
       <c r="Q11" t="s">
         <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -15064,7 +15454,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -15111,7 +15501,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15158,7 +15548,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15205,7 +15595,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15252,7 +15642,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15291,7 +15681,7 @@
         <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="O6" t="s">
         <v>58</v>
@@ -15299,7 +15689,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15346,7 +15736,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15393,7 +15783,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -15440,7 +15830,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -15487,7 +15877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15569,7 +15959,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -15598,7 +15988,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -15651,7 +16041,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15704,7 +16094,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15757,7 +16147,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15810,7 +16200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15863,7 +16253,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15916,7 +16306,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15969,7 +16359,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -16022,7 +16412,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16075,7 +16465,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17739,7 +18129,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -17781,7 +18171,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="T1" t="s">
         <v>155</v>
@@ -17828,10 +18218,19 @@
       <c r="AH1" t="s">
         <v>39</v>
       </c>
+      <c r="AI1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -17930,12 +18329,21 @@
         <v>59</v>
       </c>
       <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18034,12 +18442,21 @@
         <v>59</v>
       </c>
       <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18139,11 +18556,20 @@
       </c>
       <c r="AH4" t="s">
         <v>59</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18242,12 +18668,21 @@
         <v>58</v>
       </c>
       <c r="AH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18346,12 +18781,21 @@
         <v>58</v>
       </c>
       <c r="AH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18450,12 +18894,21 @@
         <v>59</v>
       </c>
       <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -18554,12 +19007,21 @@
         <v>58</v>
       </c>
       <c r="AH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -18658,12 +19120,21 @@
         <v>59</v>
       </c>
       <c r="AH9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -18762,12 +19233,21 @@
         <v>59</v>
       </c>
       <c r="AH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -18866,12 +19346,21 @@
         <v>58</v>
       </c>
       <c r="AH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -18970,12 +19459,21 @@
         <v>58</v>
       </c>
       <c r="AH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19075,11 +19573,20 @@
       </c>
       <c r="AH13" t="s">
         <v>59</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19180,10 +19687,19 @@
       <c r="AH14" t="s">
         <v>58</v>
       </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19283,11 +19799,20 @@
       </c>
       <c r="AH15" t="s">
         <v>58</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19386,12 +19911,21 @@
         <v>58</v>
       </c>
       <c r="AH16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -19490,12 +20024,21 @@
         <v>58</v>
       </c>
       <c r="AH17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -19595,11 +20138,20 @@
       </c>
       <c r="AH18" t="s">
         <v>59</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -19699,11 +20251,20 @@
       </c>
       <c r="AH19" t="s">
         <v>58</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19802,12 +20363,21 @@
         <v>58</v>
       </c>
       <c r="AH20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -19906,6 +20476,15 @@
         <v>59</v>
       </c>
       <c r="AH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19934,7 +20513,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19958,16 +20537,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
         <v>154</v>
@@ -19994,7 +20573,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -20018,19 +20597,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AH1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI1" t="s">
         <v>156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AK1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20048,7 +20627,7 @@
         <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20059,10 +20638,13 @@
       <c r="AT1" t="s">
         <v>39</v>
       </c>
+      <c r="AU1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20198,11 +20780,14 @@
       </c>
       <c r="AT2" t="s">
         <v>60</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20338,11 +20923,14 @@
       </c>
       <c r="AT3" t="s">
         <v>59</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -20478,11 +21066,14 @@
       </c>
       <c r="AT4" t="s">
         <v>59</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -20618,11 +21209,14 @@
       </c>
       <c r="AT5" t="s">
         <v>59</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -20757,12 +21351,15 @@
         <v>58</v>
       </c>
       <c r="AT6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -20897,12 +21494,15 @@
         <v>58</v>
       </c>
       <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21037,12 +21637,15 @@
         <v>59</v>
       </c>
       <c r="AT8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21178,11 +21781,14 @@
       </c>
       <c r="AT9" t="s">
         <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -21318,11 +21924,14 @@
       </c>
       <c r="AT10" t="s">
         <v>59</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -21457,12 +22066,15 @@
         <v>59</v>
       </c>
       <c r="AT11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -21598,11 +22210,14 @@
       </c>
       <c r="AT12" t="s">
         <v>59</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -21737,12 +22352,15 @@
         <v>60</v>
       </c>
       <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -21877,12 +22495,15 @@
         <v>59</v>
       </c>
       <c r="AT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22017,12 +22638,15 @@
         <v>59</v>
       </c>
       <c r="AT15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22158,11 +22782,14 @@
       </c>
       <c r="AT16" t="s">
         <v>59</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22298,11 +22925,14 @@
       </c>
       <c r="AT17" t="s">
         <v>59</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22438,11 +23068,14 @@
       </c>
       <c r="AT18" t="s">
         <v>59</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -22578,11 +23211,14 @@
       </c>
       <c r="AT19" t="s">
         <v>59</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -22717,12 +23353,15 @@
         <v>59</v>
       </c>
       <c r="AT20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -22857,12 +23496,15 @@
         <v>59</v>
       </c>
       <c r="AT21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -22997,12 +23639,15 @@
         <v>59</v>
       </c>
       <c r="AT22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23138,6 +23783,9 @@
       </c>
       <c r="AT23" t="s">
         <v>58</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -23165,7 +23813,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23257,10 +23905,13 @@
       <c r="AI1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -23363,11 +24014,14 @@
       </c>
       <c r="AI2" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -23471,10 +24125,13 @@
       <c r="AI3" t="s">
         <v>59</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -23576,12 +24233,15 @@
         <v>58</v>
       </c>
       <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -23684,11 +24344,14 @@
       </c>
       <c r="AI5" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -23791,11 +24454,14 @@
       </c>
       <c r="AI6" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -23898,11 +24564,14 @@
       </c>
       <c r="AI7" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24005,11 +24674,14 @@
       </c>
       <c r="AI8" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24112,11 +24784,14 @@
       </c>
       <c r="AI9" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24218,12 +24893,15 @@
         <v>59</v>
       </c>
       <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -24325,12 +25003,15 @@
         <v>59</v>
       </c>
       <c r="AI11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -24432,12 +25113,15 @@
         <v>59</v>
       </c>
       <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -24540,11 +25224,14 @@
       </c>
       <c r="AI13" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -24647,11 +25334,14 @@
       </c>
       <c r="AI14" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -24753,12 +25443,15 @@
         <v>59</v>
       </c>
       <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -24860,12 +25553,15 @@
         <v>59</v>
       </c>
       <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -24967,12 +25663,15 @@
         <v>59</v>
       </c>
       <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -25074,12 +25773,15 @@
         <v>59</v>
       </c>
       <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25182,11 +25884,14 @@
       </c>
       <c r="AI19" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25288,12 +25993,15 @@
         <v>59</v>
       </c>
       <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -25395,6 +26103,9 @@
         <v>58</v>
       </c>
       <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31330,10 +32041,13 @@
       <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -31394,11 +32108,14 @@
       </c>
       <c r="U2" t="s">
         <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -31459,11 +32176,14 @@
       </c>
       <c r="U3" t="s">
         <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -31524,11 +32244,14 @@
       </c>
       <c r="U4" t="s">
         <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -31589,11 +32312,14 @@
       </c>
       <c r="U5" t="s">
         <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -31654,11 +32380,14 @@
       </c>
       <c r="U6" t="s">
         <v>60</v>
+      </c>
+      <c r="V6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -31719,11 +32448,14 @@
       </c>
       <c r="U7" t="s">
         <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -31784,11 +32516,14 @@
       </c>
       <c r="U8" t="s">
         <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -31849,11 +32584,14 @@
       </c>
       <c r="U9" t="s">
         <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -31913,12 +32651,15 @@
         <v>59</v>
       </c>
       <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -31979,11 +32720,14 @@
       </c>
       <c r="U11" t="s">
         <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -32044,11 +32788,14 @@
       </c>
       <c r="U12" t="s">
         <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -32109,11 +32856,14 @@
       </c>
       <c r="U13" t="s">
         <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -32173,12 +32923,15 @@
         <v>59</v>
       </c>
       <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -32239,11 +32992,14 @@
       </c>
       <c r="U15" t="s">
         <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -32304,11 +33060,14 @@
       </c>
       <c r="U16" t="s">
         <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -32369,11 +33128,14 @@
       </c>
       <c r="U17" t="s">
         <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -32434,11 +33196,14 @@
       </c>
       <c r="U18" t="s">
         <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -32499,11 +33264,14 @@
       </c>
       <c r="U19" t="s">
         <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -32564,11 +33332,14 @@
       </c>
       <c r="U20" t="s">
         <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -32629,11 +33400,14 @@
       </c>
       <c r="U21" t="s">
         <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -32694,11 +33468,14 @@
       </c>
       <c r="U22" t="s">
         <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -32759,11 +33536,14 @@
       </c>
       <c r="U23" t="s">
         <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -32823,12 +33603,15 @@
         <v>59</v>
       </c>
       <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -32889,6 +33672,9 @@
       </c>
       <c r="U25" t="s">
         <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -32919,7 +33705,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -32955,7 +33741,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S1" t="s">
         <v>156</v>
@@ -32969,10 +33755,13 @@
       <c r="V1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -33036,11 +33825,14 @@
       </c>
       <c r="V2" t="s">
         <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -33104,11 +33896,14 @@
       </c>
       <c r="V3" t="s">
         <v>59</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -33173,10 +33968,13 @@
       <c r="V4" t="s">
         <v>59</v>
       </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -33240,11 +34038,14 @@
       </c>
       <c r="V5" t="s">
         <v>59</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -33308,11 +34109,14 @@
       </c>
       <c r="V6" t="s">
         <v>59</v>
+      </c>
+      <c r="W6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -33376,11 +34180,14 @@
       </c>
       <c r="V7" t="s">
         <v>59</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -33444,11 +34251,14 @@
       </c>
       <c r="V8" t="s">
         <v>59</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -33512,11 +34322,14 @@
       </c>
       <c r="V9" t="s">
         <v>59</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -33580,11 +34393,14 @@
       </c>
       <c r="V10" t="s">
         <v>59</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -33648,11 +34464,14 @@
       </c>
       <c r="V11" t="s">
         <v>59</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -33716,11 +34535,14 @@
       </c>
       <c r="V12" t="s">
         <v>59</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -33785,10 +34607,13 @@
       <c r="V13" t="s">
         <v>59</v>
       </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -33853,10 +34678,13 @@
       <c r="V14" t="s">
         <v>59</v>
       </c>
+      <c r="W14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -33920,11 +34748,14 @@
       </c>
       <c r="V15" t="s">
         <v>59</v>
+      </c>
+      <c r="W15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -33988,11 +34819,14 @@
       </c>
       <c r="V16" t="s">
         <v>59</v>
+      </c>
+      <c r="W16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -34056,11 +34890,14 @@
       </c>
       <c r="V17" t="s">
         <v>59</v>
+      </c>
+      <c r="W17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -34124,11 +34961,14 @@
       </c>
       <c r="V18" t="s">
         <v>59</v>
+      </c>
+      <c r="W18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -34192,11 +35032,14 @@
       </c>
       <c r="V19" t="s">
         <v>59</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -34260,11 +35103,14 @@
       </c>
       <c r="V20" t="s">
         <v>59</v>
+      </c>
+      <c r="W20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -34328,11 +35174,14 @@
       </c>
       <c r="V21" t="s">
         <v>59</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -34396,11 +35245,14 @@
       </c>
       <c r="V22" t="s">
         <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -34464,11 +35316,14 @@
       </c>
       <c r="V23" t="s">
         <v>59</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -34532,11 +35387,14 @@
       </c>
       <c r="V24" t="s">
         <v>59</v>
+      </c>
+      <c r="W24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -34600,6 +35458,9 @@
       </c>
       <c r="V25" t="s">
         <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -34624,10 +35485,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
         <v>153</v>
@@ -34654,21 +35515,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O1" t="s">
         <v>156</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -34716,12 +35580,15 @@
         <v>58</v>
       </c>
       <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -34769,12 +35636,15 @@
         <v>59</v>
       </c>
       <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -34823,11 +35693,14 @@
       </c>
       <c r="Q4" t="s">
         <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -34876,11 +35749,14 @@
       </c>
       <c r="Q5" t="s">
         <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -34928,12 +35804,15 @@
         <v>58</v>
       </c>
       <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -34981,12 +35860,15 @@
         <v>58</v>
       </c>
       <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -35034,12 +35916,15 @@
         <v>58</v>
       </c>
       <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -35087,12 +35972,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -35140,12 +36028,15 @@
         <v>58</v>
       </c>
       <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -35193,12 +36084,15 @@
         <v>58</v>
       </c>
       <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -35246,12 +36140,15 @@
         <v>58</v>
       </c>
       <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -35299,12 +36196,15 @@
         <v>58</v>
       </c>
       <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -35354,10 +36254,13 @@
       <c r="Q14" t="s">
         <v>59</v>
       </c>
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -35405,12 +36308,15 @@
         <v>58</v>
       </c>
       <c r="Q15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -35458,12 +36364,15 @@
         <v>58</v>
       </c>
       <c r="Q16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -35512,11 +36421,14 @@
       </c>
       <c r="Q17" t="s">
         <v>59</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -35565,11 +36477,14 @@
       </c>
       <c r="Q18" t="s">
         <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -35618,11 +36533,14 @@
       </c>
       <c r="Q19" t="s">
         <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -35670,12 +36588,15 @@
         <v>58</v>
       </c>
       <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -35723,12 +36644,15 @@
         <v>58</v>
       </c>
       <c r="Q21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -35777,11 +36701,14 @@
       </c>
       <c r="Q22" t="s">
         <v>60</v>
+      </c>
+      <c r="R22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -35830,11 +36757,14 @@
       </c>
       <c r="Q23" t="s">
         <v>59</v>
+      </c>
+      <c r="R23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -35882,6 +36812,9 @@
         <v>59</v>
       </c>
       <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -35990,10 +36923,13 @@
       <c r="AE1" t="s">
         <v>39</v>
       </c>
+      <c r="AF1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -36083,12 +37019,15 @@
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -36179,11 +37118,14 @@
       </c>
       <c r="AE3" t="s">
         <v>60</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -36273,12 +37215,15 @@
         <v>59</v>
       </c>
       <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -36368,12 +37313,15 @@
         <v>60</v>
       </c>
       <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -36464,11 +37412,14 @@
       </c>
       <c r="AE6" t="s">
         <v>59</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -36558,12 +37509,15 @@
         <v>59</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -36655,10 +37609,13 @@
       <c r="AE8" t="s">
         <v>59</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -36749,11 +37706,14 @@
       </c>
       <c r="AE9" t="s">
         <v>60</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -36843,12 +37803,15 @@
         <v>58</v>
       </c>
       <c r="AE10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -36939,11 +37902,14 @@
       </c>
       <c r="AE11" t="s">
         <v>59</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -37034,11 +38000,14 @@
       </c>
       <c r="AE12" t="s">
         <v>59</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -37129,11 +38098,14 @@
       </c>
       <c r="AE13" t="s">
         <v>59</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -37223,12 +38195,15 @@
         <v>60</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -37318,12 +38293,15 @@
         <v>58</v>
       </c>
       <c r="AE15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -37414,11 +38392,14 @@
       </c>
       <c r="AE16" t="s">
         <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -37509,11 +38490,14 @@
       </c>
       <c r="AE17" t="s">
         <v>60</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -37604,11 +38588,14 @@
       </c>
       <c r="AE18" t="s">
         <v>59</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -37698,12 +38685,15 @@
         <v>58</v>
       </c>
       <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -37794,11 +38784,14 @@
       </c>
       <c r="AE20" t="s">
         <v>59</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -37889,6 +38882,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="487">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>X2021.09.20</t>
+  </si>
+  <si>
+    <t>X2021.10.28</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -6624,10 +6627,13 @@
       <c r="AE1" t="s">
         <v>235</v>
       </c>
+      <c r="AF1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6718,11 +6724,14 @@
       </c>
       <c r="AE2" t="s">
         <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6814,10 +6823,13 @@
       <c r="AE3" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6908,11 +6920,14 @@
       </c>
       <c r="AE4" t="s">
         <v>59</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -7003,11 +7018,14 @@
       </c>
       <c r="AE5" t="s">
         <v>60</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7098,11 +7116,14 @@
       </c>
       <c r="AE6" t="s">
         <v>59</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -7192,12 +7213,15 @@
         <v>59</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -7288,11 +7312,14 @@
       </c>
       <c r="AE8" t="s">
         <v>59</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7383,11 +7410,14 @@
       </c>
       <c r="AE9" t="s">
         <v>59</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -7478,11 +7508,14 @@
       </c>
       <c r="AE10" t="s">
         <v>59</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7572,12 +7605,15 @@
         <v>59</v>
       </c>
       <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7668,11 +7704,14 @@
       </c>
       <c r="AE12" t="s">
         <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7763,11 +7802,14 @@
       </c>
       <c r="AE13" t="s">
         <v>59</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7857,12 +7899,15 @@
         <v>59</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7953,11 +7998,14 @@
       </c>
       <c r="AE15" t="s">
         <v>59</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -8048,11 +8096,14 @@
       </c>
       <c r="AE16" t="s">
         <v>59</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -8142,12 +8193,15 @@
         <v>59</v>
       </c>
       <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -8237,12 +8291,15 @@
         <v>59</v>
       </c>
       <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8333,11 +8390,14 @@
       </c>
       <c r="AE19" t="s">
         <v>59</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8427,12 +8487,15 @@
         <v>60</v>
       </c>
       <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -8523,6 +8586,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8618,10 +8684,13 @@
       <c r="AA1" t="s">
         <v>235</v>
       </c>
+      <c r="AB1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8700,11 +8769,14 @@
       </c>
       <c r="AA2" t="s">
         <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8783,11 +8855,14 @@
       </c>
       <c r="AA3" t="s">
         <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8866,11 +8941,14 @@
       </c>
       <c r="AA4" t="s">
         <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8949,11 +9027,14 @@
       </c>
       <c r="AA5" t="s">
         <v>58</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -9032,11 +9113,14 @@
       </c>
       <c r="AA6" t="s">
         <v>58</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9115,11 +9199,14 @@
       </c>
       <c r="AA7" t="s">
         <v>58</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -9198,11 +9285,14 @@
       </c>
       <c r="AA8" t="s">
         <v>59</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9281,11 +9371,14 @@
       </c>
       <c r="AA9" t="s">
         <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9364,11 +9457,14 @@
       </c>
       <c r="AA10" t="s">
         <v>58</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -9447,11 +9543,14 @@
       </c>
       <c r="AA11" t="s">
         <v>58</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9530,11 +9629,14 @@
       </c>
       <c r="AA12" t="s">
         <v>58</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9613,11 +9715,14 @@
       </c>
       <c r="AA13" t="s">
         <v>59</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9696,11 +9801,14 @@
       </c>
       <c r="AA14" t="s">
         <v>58</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9779,11 +9887,14 @@
       </c>
       <c r="AA15" t="s">
         <v>58</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9862,11 +9973,14 @@
       </c>
       <c r="AA16" t="s">
         <v>58</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9945,11 +10059,14 @@
       </c>
       <c r="AA17" t="s">
         <v>58</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -10028,11 +10145,14 @@
       </c>
       <c r="AA18" t="s">
         <v>58</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -10111,11 +10231,14 @@
       </c>
       <c r="AA19" t="s">
         <v>58</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -10195,10 +10318,13 @@
       <c r="AA20" t="s">
         <v>59</v>
       </c>
+      <c r="AB20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10277,6 +10403,9 @@
       </c>
       <c r="AA21" t="s">
         <v>59</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10378,7 +10507,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10464,7 +10593,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10550,7 +10679,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10636,7 +10765,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10722,7 +10851,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10808,7 +10937,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -10894,7 +11023,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10980,7 +11109,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -11066,7 +11195,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -11152,7 +11281,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -11238,7 +11367,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11324,7 +11453,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11410,7 +11539,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11496,7 +11625,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11582,7 +11711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11668,7 +11797,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11754,7 +11883,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11840,7 +11969,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11949,7 +12078,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -12041,7 +12170,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -12145,7 +12274,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12249,7 +12378,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12353,7 +12482,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12457,7 +12586,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12561,7 +12690,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12665,7 +12794,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12769,7 +12898,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12873,7 +13002,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12977,7 +13106,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13081,7 +13210,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -13185,7 +13314,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13289,7 +13418,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13393,7 +13522,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13497,7 +13626,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13601,7 +13730,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -13705,7 +13834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13809,7 +13938,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -13989,7 +14118,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -14054,7 +14183,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -14119,7 +14248,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -14184,7 +14313,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14249,7 +14378,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -14314,7 +14443,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14379,7 +14508,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -14444,7 +14573,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14509,7 +14638,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -14574,7 +14703,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -14639,7 +14768,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -14704,7 +14833,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14798,7 +14927,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14836,7 +14965,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14892,7 +15021,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14948,7 +15077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15004,7 +15133,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15060,7 +15189,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15116,7 +15245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15172,7 +15301,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15228,7 +15357,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -15284,7 +15413,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -15340,7 +15469,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15454,7 +15583,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -15501,7 +15630,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15548,7 +15677,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15595,7 +15724,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15642,7 +15771,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15681,7 +15810,7 @@
         <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O6" t="s">
         <v>58</v>
@@ -15689,7 +15818,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15736,7 +15865,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15783,7 +15912,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -15830,7 +15959,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -15877,7 +16006,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15988,7 +16117,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -16041,7 +16170,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -16094,7 +16223,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -16147,7 +16276,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -16200,7 +16329,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -16253,7 +16382,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -16306,7 +16435,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -16359,7 +16488,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -16412,7 +16541,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16465,7 +16594,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18227,10 +18356,13 @@
       <c r="AK1" t="s">
         <v>235</v>
       </c>
+      <c r="AL1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -18338,12 +18470,15 @@
         <v>59</v>
       </c>
       <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18451,12 +18586,15 @@
         <v>59</v>
       </c>
       <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18565,11 +18703,14 @@
       </c>
       <c r="AK4" t="s">
         <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18678,11 +18819,14 @@
       </c>
       <c r="AK5" t="s">
         <v>59</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18791,11 +18935,14 @@
       </c>
       <c r="AK6" t="s">
         <v>59</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18903,12 +19050,15 @@
         <v>59</v>
       </c>
       <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -19017,11 +19167,14 @@
       </c>
       <c r="AK8" t="s">
         <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -19129,12 +19282,15 @@
         <v>59</v>
       </c>
       <c r="AK9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -19242,12 +19398,15 @@
         <v>60</v>
       </c>
       <c r="AK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -19357,10 +19516,13 @@
       <c r="AK11" t="s">
         <v>58</v>
       </c>
+      <c r="AL11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -19469,11 +19631,14 @@
       </c>
       <c r="AK12" t="s">
         <v>58</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19582,11 +19747,14 @@
       </c>
       <c r="AK13" t="s">
         <v>58</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19696,10 +19864,13 @@
       <c r="AK14" t="s">
         <v>60</v>
       </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19808,11 +19979,14 @@
       </c>
       <c r="AK15" t="s">
         <v>59</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19921,11 +20095,14 @@
       </c>
       <c r="AK16" t="s">
         <v>59</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -20034,11 +20211,14 @@
       </c>
       <c r="AK17" t="s">
         <v>59</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -20147,11 +20327,14 @@
       </c>
       <c r="AK18" t="s">
         <v>58</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -20260,11 +20443,14 @@
       </c>
       <c r="AK19" t="s">
         <v>59</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -20373,11 +20559,14 @@
       </c>
       <c r="AK20" t="s">
         <v>59</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -20485,6 +20674,9 @@
         <v>59</v>
       </c>
       <c r="AK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20540,13 +20732,13 @@
         <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q1" t="s">
         <v>154</v>
@@ -20597,7 +20789,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AH1" t="s">
         <v>183</v>
@@ -20606,10 +20798,10 @@
         <v>156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20627,7 +20819,7 @@
         <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20644,7 +20836,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20787,7 +20979,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20930,7 +21122,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -21073,7 +21265,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -21216,7 +21408,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -21359,7 +21551,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -21502,7 +21694,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21645,7 +21837,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21788,7 +21980,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -21931,7 +22123,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -22074,7 +22266,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -22217,7 +22409,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -22360,7 +22552,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -22503,7 +22695,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22646,7 +22838,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22789,7 +22981,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22932,7 +23124,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -23075,7 +23267,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -23218,7 +23410,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -23361,7 +23553,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -23504,7 +23696,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23647,7 +23839,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23911,7 +24103,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24021,7 +24213,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -24131,7 +24323,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -24241,7 +24433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -24351,7 +24543,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -24461,7 +24653,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -24571,7 +24763,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24681,7 +24873,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24791,7 +24983,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24901,7 +25093,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -25011,7 +25203,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -25121,7 +25313,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -25231,7 +25423,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -25341,7 +25533,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -25451,7 +25643,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -25561,7 +25753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -25671,7 +25863,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -25781,7 +25973,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25891,7 +26083,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -26001,7 +26193,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14203" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14406" uniqueCount="501">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -536,6 +536,12 @@
     <t>X2021.10.26</t>
   </si>
   <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -696,6 +702,9 @@
   </si>
   <si>
     <t>X2021.10.12</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -4311,25 +4320,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
         <v>129</v>
@@ -4341,7 +4350,7 @@
         <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4383,7 +4392,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4397,7 +4406,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -4489,7 +4498,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -4581,7 +4590,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -4673,7 +4682,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -4765,7 +4774,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4857,7 +4866,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4949,7 +4958,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -5041,7 +5050,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -5133,7 +5142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -5225,7 +5234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -5317,7 +5326,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -5409,7 +5418,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -5501,7 +5510,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -5593,7 +5602,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -5685,7 +5694,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -5777,7 +5786,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -5869,7 +5878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -5961,7 +5970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6053,7 +6062,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -6145,7 +6154,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -6319,7 +6328,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -6390,7 +6399,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -6461,7 +6470,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -6532,7 +6541,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -6603,7 +6612,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -6674,7 +6683,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -6745,7 +6754,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -6816,7 +6825,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -6887,7 +6896,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -6958,7 +6967,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -7029,7 +7038,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -7100,7 +7109,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -7171,7 +7180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -7242,7 +7251,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -7363,7 +7372,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
         <v>164</v>
@@ -7414,10 +7423,10 @@
         <v>166</v>
       </c>
       <c r="AE1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AF1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7440,7 +7449,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -7556,7 +7565,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7672,7 +7681,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7788,7 +7797,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -7904,7 +7913,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -8020,7 +8029,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -8136,7 +8145,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -8252,7 +8261,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -8368,7 +8377,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -8484,7 +8493,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -8600,7 +8609,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -8716,7 +8725,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -8832,7 +8841,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -8948,7 +8957,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -9064,7 +9073,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -9180,7 +9189,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -9296,7 +9305,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -9412,7 +9421,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -9528,7 +9537,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -9644,7 +9653,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -9810,7 +9819,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
         <v>164</v>
@@ -9849,10 +9858,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AB1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AC1" t="s">
         <v>107</v>
@@ -9869,7 +9878,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -9967,7 +9976,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -10065,7 +10074,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -10163,7 +10172,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -10261,7 +10270,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -10359,7 +10368,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -10457,7 +10466,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -10555,7 +10564,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -10653,7 +10662,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -10751,7 +10760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -10849,7 +10858,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -10947,7 +10956,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -11045,7 +11054,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -11143,7 +11152,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -11241,7 +11250,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -11334,12 +11343,12 @@
         <v>64</v>
       </c>
       <c r="AF16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -11437,7 +11446,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11535,7 +11544,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11633,7 +11642,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -11731,7 +11740,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -11941,7 +11950,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -12042,7 +12051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -12143,7 +12152,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -12244,7 +12253,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -12345,7 +12354,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -12446,7 +12455,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -12547,7 +12556,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12648,7 +12657,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -12749,7 +12758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -12850,7 +12859,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -12951,7 +12960,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -13052,7 +13061,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -13153,7 +13162,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -13254,7 +13263,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -13355,7 +13364,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -13456,7 +13465,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -13557,7 +13566,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -13658,7 +13667,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -13782,7 +13791,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -13794,7 +13803,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -13836,7 +13845,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -13869,7 +13878,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -13895,7 +13904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -14020,7 +14029,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -14145,7 +14154,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14270,7 +14279,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -14395,7 +14404,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -14520,7 +14529,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -14645,7 +14654,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14770,7 +14779,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -14895,7 +14904,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -15020,7 +15029,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -15145,7 +15154,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -15270,7 +15279,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -15395,7 +15404,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -15520,7 +15529,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -15645,7 +15654,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -15770,7 +15779,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -15895,7 +15904,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -16020,7 +16029,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -16216,7 +16225,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -16233,7 +16242,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -16310,7 +16319,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -16387,7 +16396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -16464,7 +16473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -16541,7 +16550,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -16618,7 +16627,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16695,7 +16704,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -16772,7 +16781,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -16849,7 +16858,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -16926,7 +16935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17003,7 +17012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -17080,7 +17089,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -17174,7 +17183,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -17186,7 +17195,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -17226,11 +17235,14 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -17287,12 +17299,15 @@
         <v>65</v>
       </c>
       <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -17349,12 +17364,15 @@
         <v>65</v>
       </c>
       <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -17411,12 +17429,15 @@
         <v>65</v>
       </c>
       <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -17473,12 +17494,15 @@
         <v>65</v>
       </c>
       <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -17535,12 +17559,15 @@
         <v>65</v>
       </c>
       <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17597,12 +17624,15 @@
         <v>65</v>
       </c>
       <c r="T7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -17659,12 +17689,15 @@
         <v>65</v>
       </c>
       <c r="T8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -17721,12 +17754,15 @@
         <v>65</v>
       </c>
       <c r="T9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -17783,12 +17819,15 @@
         <v>65</v>
       </c>
       <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17845,6 +17884,9 @@
         <v>65</v>
       </c>
       <c r="T11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -17911,10 +17953,13 @@
       <c r="Q1" t="s">
         <v>44</v>
       </c>
+      <c r="R1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -17962,12 +18007,15 @@
         <v>65</v>
       </c>
       <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18015,12 +18063,15 @@
         <v>65</v>
       </c>
       <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -18068,12 +18119,15 @@
         <v>65</v>
       </c>
       <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18121,12 +18175,15 @@
         <v>65</v>
       </c>
       <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18165,7 +18222,7 @@
         <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O6" t="s">
         <v>64</v>
@@ -18174,12 +18231,15 @@
         <v>65</v>
       </c>
       <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18228,11 +18288,14 @@
       </c>
       <c r="Q7" t="s">
         <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18280,12 +18343,15 @@
         <v>67</v>
       </c>
       <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -18333,12 +18399,15 @@
         <v>66</v>
       </c>
       <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -18386,12 +18455,15 @@
         <v>65</v>
       </c>
       <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -18439,6 +18511,9 @@
         <v>66</v>
       </c>
       <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -18479,7 +18554,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -18513,11 +18588,20 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -18575,11 +18659,20 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18636,12 +18729,21 @@
         <v>64</v>
       </c>
       <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -18698,12 +18800,21 @@
         <v>64</v>
       </c>
       <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18760,12 +18871,21 @@
         <v>65</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18822,12 +18942,21 @@
         <v>64</v>
       </c>
       <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18884,12 +19013,21 @@
         <v>64</v>
       </c>
       <c r="T7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18946,12 +19084,21 @@
         <v>64</v>
       </c>
       <c r="T8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -19008,12 +19155,21 @@
         <v>64</v>
       </c>
       <c r="T9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -19071,11 +19227,20 @@
       </c>
       <c r="T10" t="s">
         <v>65</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -19133,6 +19298,15 @@
       </c>
       <c r="T11" t="s">
         <v>66</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21090,7 +21264,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -21132,7 +21306,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="T1" t="s">
         <v>164</v>
@@ -21180,16 +21354,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AJ1" t="s">
         <v>166</v>
       </c>
       <c r="AK1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -21212,7 +21386,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -21346,7 +21520,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -21480,7 +21654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -21614,7 +21788,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -21748,7 +21922,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -21882,7 +22056,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -22016,7 +22190,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -22150,7 +22324,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -22284,7 +22458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -22418,7 +22592,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -22552,7 +22726,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22686,7 +22860,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22820,7 +22994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22954,7 +23128,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -23088,7 +23262,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -23222,7 +23396,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -23356,7 +23530,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -23490,7 +23664,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -23624,7 +23798,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -23758,7 +23932,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -23915,7 +24089,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23939,16 +24113,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q1" t="s">
         <v>163</v>
@@ -23975,7 +24149,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -23999,19 +24173,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AH1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI1" t="s">
         <v>165</v>
       </c>
       <c r="AJ1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AK1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -24029,7 +24203,7 @@
         <v>135</v>
       </c>
       <c r="AQ1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -24041,7 +24215,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -24062,7 +24236,7 @@
         <v>137</v>
       </c>
       <c r="BB1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -24074,12 +24248,12 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -24255,7 +24429,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -24431,7 +24605,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -24607,7 +24781,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -24783,7 +24957,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -24959,7 +25133,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -25135,7 +25309,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -25311,7 +25485,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -25458,7 +25632,7 @@
         <v>64</v>
       </c>
       <c r="AX9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AY9" t="s">
         <v>64</v>
@@ -25487,7 +25661,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -25663,7 +25837,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -25839,7 +26013,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -26015,7 +26189,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -26191,7 +26365,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -26367,7 +26541,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -26543,7 +26717,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -26719,7 +26893,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -26895,7 +27069,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -27071,7 +27245,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -27247,7 +27421,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -27423,7 +27597,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -27599,7 +27773,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -27775,7 +27949,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -27974,7 +28148,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -28067,7 +28241,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -28093,7 +28267,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -28224,7 +28398,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -28355,7 +28529,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -28486,7 +28660,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -28617,7 +28791,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -28748,7 +28922,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -28879,7 +29053,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -29010,7 +29184,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -29141,7 +29315,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -29272,7 +29446,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -29403,7 +29577,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -29534,7 +29708,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -29665,7 +29839,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -29796,7 +29970,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -29927,7 +30101,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -30058,7 +30232,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -30189,7 +30363,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -30320,7 +30494,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -30451,7 +30625,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -30582,7 +30756,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -37747,10 +37921,16 @@
       <c r="X1" t="s">
         <v>136</v>
       </c>
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -37820,11 +38000,17 @@
       </c>
       <c r="X2" t="s">
         <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -37893,12 +38079,18 @@
         <v>65</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -37967,12 +38159,18 @@
         <v>65</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -38042,11 +38240,17 @@
       </c>
       <c r="X5" t="s">
         <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -38115,12 +38319,18 @@
         <v>65</v>
       </c>
       <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -38190,11 +38400,17 @@
       </c>
       <c r="X7" t="s">
         <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -38264,11 +38480,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -38338,11 +38560,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -38412,11 +38640,17 @@
       </c>
       <c r="X10" t="s">
         <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -38486,11 +38720,17 @@
       </c>
       <c r="X11" t="s">
         <v>65</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -38560,11 +38800,17 @@
       </c>
       <c r="X12" t="s">
         <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -38633,12 +38879,18 @@
         <v>65</v>
       </c>
       <c r="X13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -38707,12 +38959,18 @@
         <v>65</v>
       </c>
       <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -38782,11 +39040,17 @@
       </c>
       <c r="X15" t="s">
         <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -38856,11 +39120,17 @@
       </c>
       <c r="X16" t="s">
         <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -38930,11 +39200,17 @@
       </c>
       <c r="X17" t="s">
         <v>64</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -39004,11 +39280,17 @@
       </c>
       <c r="X18" t="s">
         <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -39077,12 +39359,18 @@
         <v>65</v>
       </c>
       <c r="X19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -39152,11 +39440,17 @@
       </c>
       <c r="X20" t="s">
         <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -39225,12 +39519,18 @@
         <v>65</v>
       </c>
       <c r="X21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -39299,12 +39599,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -39374,11 +39680,17 @@
       </c>
       <c r="X23" t="s">
         <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -39448,11 +39760,17 @@
       </c>
       <c r="X24" t="s">
         <v>65</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -39521,6 +39839,12 @@
         <v>65</v>
       </c>
       <c r="X25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -39552,7 +39876,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -39588,7 +39912,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
         <v>165</v>
@@ -39607,11 +39931,17 @@
       </c>
       <c r="X1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -39680,12 +40010,18 @@
         <v>64</v>
       </c>
       <c r="X2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -39754,12 +40090,18 @@
         <v>64</v>
       </c>
       <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -39829,11 +40171,17 @@
       </c>
       <c r="X4" t="s">
         <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -39902,12 +40250,18 @@
         <v>64</v>
       </c>
       <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -39977,11 +40331,17 @@
       </c>
       <c r="X6" t="s">
         <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -40051,11 +40411,17 @@
       </c>
       <c r="X7" t="s">
         <v>66</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -40124,12 +40490,18 @@
         <v>64</v>
       </c>
       <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -40199,11 +40571,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -40272,12 +40650,18 @@
         <v>64</v>
       </c>
       <c r="X10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -40347,11 +40731,17 @@
       </c>
       <c r="X11" t="s">
         <v>65</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -40420,12 +40810,18 @@
         <v>64</v>
       </c>
       <c r="X12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -40494,12 +40890,18 @@
         <v>64</v>
       </c>
       <c r="X13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -40569,11 +40971,17 @@
       </c>
       <c r="X14" t="s">
         <v>65</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -40642,12 +41050,18 @@
         <v>64</v>
       </c>
       <c r="X15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -40716,12 +41130,18 @@
         <v>64</v>
       </c>
       <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -40790,12 +41210,18 @@
         <v>64</v>
       </c>
       <c r="X17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -40864,12 +41290,18 @@
         <v>64</v>
       </c>
       <c r="X18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -40938,12 +41370,18 @@
         <v>64</v>
       </c>
       <c r="X19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -41012,12 +41450,18 @@
         <v>64</v>
       </c>
       <c r="X20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -41086,12 +41530,18 @@
         <v>64</v>
       </c>
       <c r="X21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -41160,12 +41610,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -41235,11 +41691,17 @@
       </c>
       <c r="X23" t="s">
         <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -41308,12 +41770,18 @@
         <v>64</v>
       </c>
       <c r="X24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -41382,6 +41850,12 @@
         <v>64</v>
       </c>
       <c r="X25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -41407,10 +41881,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
         <v>162</v>
@@ -41437,13 +41911,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s">
         <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -41456,11 +41930,17 @@
       </c>
       <c r="T1" t="s">
         <v>136</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -41518,11 +41998,17 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -41580,11 +42066,17 @@
       </c>
       <c r="T3" t="s">
         <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -41642,11 +42134,17 @@
       </c>
       <c r="T4" t="s">
         <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -41704,11 +42202,17 @@
       </c>
       <c r="T5" t="s">
         <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -41765,12 +42269,18 @@
         <v>65</v>
       </c>
       <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -41828,11 +42338,17 @@
       </c>
       <c r="T7" t="s">
         <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -41890,11 +42406,17 @@
       </c>
       <c r="T8" t="s">
         <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -41951,12 +42473,18 @@
         <v>65</v>
       </c>
       <c r="T9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -42014,11 +42542,17 @@
       </c>
       <c r="T10" t="s">
         <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -42076,11 +42610,17 @@
       </c>
       <c r="T11" t="s">
         <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -42137,12 +42677,18 @@
         <v>65</v>
       </c>
       <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -42200,11 +42746,17 @@
       </c>
       <c r="T13" t="s">
         <v>64</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -42262,11 +42814,17 @@
       </c>
       <c r="T14" t="s">
         <v>64</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -42324,11 +42882,17 @@
       </c>
       <c r="T15" t="s">
         <v>64</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -42386,11 +42950,17 @@
       </c>
       <c r="T16" t="s">
         <v>64</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -42447,12 +43017,18 @@
         <v>66</v>
       </c>
       <c r="T17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -42510,11 +43086,17 @@
       </c>
       <c r="T18" t="s">
         <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -42572,11 +43154,17 @@
       </c>
       <c r="T19" t="s">
         <v>64</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -42634,11 +43222,17 @@
       </c>
       <c r="T20" t="s">
         <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -42696,11 +43290,17 @@
       </c>
       <c r="T21" t="s">
         <v>64</v>
+      </c>
+      <c r="U21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -42757,12 +43357,18 @@
         <v>65</v>
       </c>
       <c r="T22" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -42820,11 +43426,17 @@
       </c>
       <c r="T23" t="s">
         <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -42882,6 +43494,12 @@
       </c>
       <c r="T24" t="s">
         <v>64</v>
+      </c>
+      <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -42990,7 +43608,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -43013,7 +43631,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -43129,7 +43747,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -43245,7 +43863,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -43361,7 +43979,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -43477,7 +44095,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -43593,7 +44211,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -43709,7 +44327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -43825,7 +44443,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -43941,7 +44559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -44057,7 +44675,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -44173,7 +44791,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -44289,7 +44907,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -44405,7 +45023,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -44521,7 +45139,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -44637,7 +45255,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -44753,7 +45371,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -44869,7 +45487,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -44985,7 +45603,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -45101,7 +45719,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45217,7 +45835,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15458" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="509">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -302,6 +302,9 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>X2021.11.24</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -456,6 +459,9 @@
   </si>
   <si>
     <t>X2021.11.03</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -4509,37 +4515,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4551,13 +4557,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4566,7 +4572,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -4575,19 +4581,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -4596,12 +4602,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -4699,7 +4705,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -4797,7 +4803,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -4993,7 +4999,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5189,7 +5195,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -5483,7 +5489,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -5581,7 +5587,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -5679,7 +5685,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -5777,7 +5783,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -5875,7 +5881,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -6071,7 +6077,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -6267,7 +6273,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -6365,7 +6371,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -6463,7 +6469,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -6602,7 +6608,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -6617,7 +6623,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -6632,7 +6638,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -6726,7 +6732,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -6803,7 +6809,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -6880,7 +6886,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -6957,7 +6963,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -7034,7 +7040,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7111,7 +7117,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -7188,7 +7194,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -7265,7 +7271,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -7342,7 +7348,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -7419,7 +7425,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -7496,7 +7502,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -7650,7 +7656,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -7747,7 +7753,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -7777,10 +7783,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7795,7 +7801,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -7813,7 +7819,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -7825,13 +7831,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AE1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7840,7 +7846,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7858,12 +7864,12 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -7988,7 +7994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -8113,7 +8119,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -8238,7 +8244,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -8363,7 +8369,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -8738,7 +8744,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -8863,7 +8869,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -8988,7 +8994,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -9113,7 +9119,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -9238,7 +9244,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -9363,7 +9369,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -9488,7 +9494,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -9613,7 +9619,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -9738,7 +9744,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -9863,7 +9869,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -9988,7 +9994,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -10113,7 +10119,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -10238,7 +10244,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -10413,10 +10419,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10452,13 +10458,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -10478,7 +10484,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -10582,7 +10588,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -10686,7 +10692,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -10790,7 +10796,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -10894,7 +10900,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -10998,7 +11004,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -11102,7 +11108,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -11206,7 +11212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -11310,7 +11316,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -11414,7 +11420,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -11518,7 +11524,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -11622,7 +11628,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -11726,7 +11732,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -11830,7 +11836,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -11934,7 +11940,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -12027,7 +12033,7 @@
         <v>67</v>
       </c>
       <c r="AF16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG16" t="s">
         <v>67</v>
@@ -12038,7 +12044,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -12142,7 +12148,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -12246,7 +12252,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -12350,7 +12356,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -12454,7 +12460,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -12614,7 +12620,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -12676,7 +12682,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -12783,7 +12789,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12890,7 +12896,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -12997,7 +13003,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -13104,7 +13110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -13211,7 +13217,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -13318,7 +13324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -13425,7 +13431,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -13532,7 +13538,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -13639,7 +13645,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -13746,7 +13752,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -13853,7 +13859,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -13960,7 +13966,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -14067,7 +14073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -14174,7 +14180,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -14281,7 +14287,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -14388,7 +14394,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -14495,7 +14501,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -14625,7 +14631,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -14637,7 +14643,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -14649,7 +14655,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -14679,7 +14685,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -14691,7 +14697,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -14712,7 +14718,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -14724,7 +14730,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -14738,7 +14744,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -14863,7 +14869,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -14988,7 +14994,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -15113,7 +15119,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -15238,7 +15244,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -15363,7 +15369,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -15488,7 +15494,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -15613,7 +15619,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -15738,7 +15744,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -15863,7 +15869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -15988,7 +15994,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -16113,7 +16119,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -16238,7 +16244,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -16363,7 +16369,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -16488,7 +16494,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16613,7 +16619,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -16738,7 +16744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -16863,7 +16869,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -17059,7 +17065,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -17075,11 +17081,14 @@
       </c>
       <c r="Z1" t="s">
         <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17155,11 +17164,14 @@
       </c>
       <c r="Z2" t="s">
         <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -17234,12 +17246,15 @@
         <v>68</v>
       </c>
       <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -17314,12 +17329,15 @@
         <v>68</v>
       </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -17395,11 +17413,14 @@
       </c>
       <c r="Z5" t="s">
         <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -17475,11 +17496,14 @@
       </c>
       <c r="Z6" t="s">
         <v>69</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -17555,11 +17579,14 @@
       </c>
       <c r="Z7" t="s">
         <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -17635,11 +17662,14 @@
       </c>
       <c r="Z8" t="s">
         <v>68</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -17715,11 +17745,14 @@
       </c>
       <c r="Z9" t="s">
         <v>68</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -17794,12 +17827,15 @@
         <v>68</v>
       </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -17875,11 +17911,14 @@
       </c>
       <c r="Z11" t="s">
         <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -17954,12 +17993,15 @@
         <v>67</v>
       </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -18035,6 +18077,9 @@
       </c>
       <c r="Z13" t="s">
         <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18056,7 +18101,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18068,7 +18113,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -18086,7 +18131,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -18101,7 +18146,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -18110,7 +18155,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -18121,7 +18166,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -18192,7 +18237,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18263,7 +18308,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -18334,7 +18379,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -18405,7 +18450,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -18476,7 +18521,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -18547,7 +18592,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -18618,7 +18663,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -18689,7 +18734,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -18760,7 +18805,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -18863,7 +18908,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -18893,7 +18938,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -18901,7 +18946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -18960,7 +19005,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19019,7 +19064,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -19078,7 +19123,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19137,7 +19182,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19176,7 +19221,7 @@
         <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O6" t="s">
         <v>67</v>
@@ -19196,7 +19241,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -19255,7 +19300,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -19314,7 +19359,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -19373,7 +19418,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -19432,7 +19477,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -19526,7 +19571,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -19562,21 +19607,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -19646,11 +19694,14 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19720,11 +19771,14 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -19794,11 +19848,14 @@
       </c>
       <c r="X4" t="s">
         <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19867,12 +19924,15 @@
         <v>67</v>
       </c>
       <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19942,11 +20002,14 @@
       </c>
       <c r="X6" t="s">
         <v>69</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -20016,11 +20079,14 @@
       </c>
       <c r="X7" t="s">
         <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -20090,11 +20156,14 @@
       </c>
       <c r="X8" t="s">
         <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -20164,11 +20233,14 @@
       </c>
       <c r="X9" t="s">
         <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -20238,11 +20310,14 @@
       </c>
       <c r="X10" t="s">
         <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -20312,6 +20387,9 @@
       </c>
       <c r="X11" t="s">
         <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22440,7 +22518,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -22452,7 +22530,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -22482,10 +22560,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -22500,7 +22578,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -22518,7 +22596,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22530,16 +22608,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AJ1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -22548,7 +22626,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -22569,12 +22647,12 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -22720,7 +22798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -22866,7 +22944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -23012,7 +23090,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -23158,7 +23236,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -23304,7 +23382,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -23450,7 +23528,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -23596,7 +23674,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -23742,7 +23820,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -23888,7 +23966,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -24034,7 +24112,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -24180,7 +24258,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -24326,7 +24404,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -24472,7 +24550,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -24618,7 +24696,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -24764,7 +24842,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -24910,7 +24988,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -25056,7 +25134,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -25202,7 +25280,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -25348,7 +25426,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -25517,7 +25595,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -25529,7 +25607,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -25541,19 +25619,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -25577,7 +25655,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -25589,7 +25667,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -25601,19 +25679,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AH1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AI1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AJ1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AK1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -25625,13 +25703,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AP1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -25643,7 +25721,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -25655,16 +25733,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AZ1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -25676,19 +25754,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="BG1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BH1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BI1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BJ1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -25700,12 +25778,12 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -25905,7 +25983,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -26105,7 +26183,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -26305,7 +26383,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -26505,7 +26583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -26705,7 +26783,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -26905,7 +26983,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -27105,7 +27183,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -27252,7 +27330,7 @@
         <v>67</v>
       </c>
       <c r="AX9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AY9" t="s">
         <v>67</v>
@@ -27305,7 +27383,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -27505,7 +27583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -27705,7 +27783,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -27905,7 +27983,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -28105,7 +28183,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -28305,7 +28383,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -28505,7 +28583,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -28705,7 +28783,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -28905,7 +28983,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -29105,7 +29183,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -29305,7 +29383,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -29505,7 +29583,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -29705,7 +29783,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -29905,7 +29983,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -30128,7 +30206,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30140,7 +30218,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30170,7 +30248,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -30188,7 +30266,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30209,7 +30287,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -30221,7 +30299,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -30233,7 +30311,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -30251,12 +30329,12 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -30396,7 +30474,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30536,7 +30614,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30676,7 +30754,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30816,7 +30894,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -30956,7 +31034,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -31096,7 +31174,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -31236,7 +31314,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -31376,7 +31454,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -31516,7 +31594,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -31656,7 +31734,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31796,7 +31874,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31936,7 +32014,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -32076,7 +32154,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -32216,7 +32294,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -32356,7 +32434,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -32496,7 +32574,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -32636,7 +32714,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -32776,7 +32854,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -32916,7 +32994,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -33192,10 +33270,13 @@
       <c r="AP1" t="s">
         <v>48</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -33318,12 +33399,15 @@
         <v>68</v>
       </c>
       <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -33447,11 +33531,14 @@
       </c>
       <c r="AP3" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -33574,12 +33661,15 @@
         <v>68</v>
       </c>
       <c r="AP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -33703,11 +33793,14 @@
       </c>
       <c r="AP5" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -33830,12 +33923,15 @@
         <v>68</v>
       </c>
       <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -33958,12 +34054,15 @@
         <v>67</v>
       </c>
       <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -34086,12 +34185,15 @@
         <v>68</v>
       </c>
       <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -34215,11 +34317,14 @@
       </c>
       <c r="AP9" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -34343,11 +34448,14 @@
       </c>
       <c r="AP10" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -34471,11 +34579,14 @@
       </c>
       <c r="AP11" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -34599,11 +34710,14 @@
       </c>
       <c r="AP12" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -34726,12 +34840,15 @@
         <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -34854,12 +34971,15 @@
         <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -34982,12 +35102,15 @@
         <v>68</v>
       </c>
       <c r="AP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -35111,11 +35234,14 @@
       </c>
       <c r="AP16" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -35238,12 +35364,15 @@
         <v>68</v>
       </c>
       <c r="AP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -35367,11 +35496,14 @@
       </c>
       <c r="AP18" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -35494,6 +35626,9 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -35528,7 +35663,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -35561,7 +35696,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -35576,7 +35711,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -35594,7 +35729,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -35614,7 +35749,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -35718,7 +35853,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -35822,7 +35957,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -35926,7 +36061,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -36030,7 +36165,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -36134,7 +36269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -36238,7 +36373,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -36342,7 +36477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -36446,7 +36581,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -36550,7 +36685,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -36654,7 +36789,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -36758,7 +36893,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -36862,7 +36997,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -36966,7 +37101,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -37070,7 +37205,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -37174,7 +37309,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -37278,7 +37413,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -37382,7 +37517,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -37486,7 +37621,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -37590,7 +37725,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -37720,10 +37855,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -37744,10 +37879,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -37759,10 +37894,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -37780,10 +37915,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -37798,10 +37933,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -37814,11 +37949,17 @@
       </c>
       <c r="AK1" t="s">
         <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37927,11 +38068,17 @@
       </c>
       <c r="AK2" t="s">
         <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -38039,12 +38186,18 @@
         <v>69</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -38153,11 +38306,17 @@
       </c>
       <c r="AK4" t="s">
         <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -38265,12 +38424,18 @@
         <v>68</v>
       </c>
       <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -38378,12 +38543,18 @@
         <v>67</v>
       </c>
       <c r="AK6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -38492,11 +38663,17 @@
       </c>
       <c r="AK7" t="s">
         <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38605,11 +38782,17 @@
       </c>
       <c r="AK8" t="s">
         <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -38717,12 +38900,18 @@
         <v>68</v>
       </c>
       <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38830,12 +39019,18 @@
         <v>67</v>
       </c>
       <c r="AK10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38944,11 +39139,17 @@
       </c>
       <c r="AK11" t="s">
         <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39057,11 +39258,17 @@
       </c>
       <c r="AK12" t="s">
         <v>67</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -39170,11 +39377,17 @@
       </c>
       <c r="AK13" t="s">
         <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -39282,12 +39495,18 @@
         <v>67</v>
       </c>
       <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -39395,12 +39614,18 @@
         <v>68</v>
       </c>
       <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -39509,11 +39734,17 @@
       </c>
       <c r="AK16" t="s">
         <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -39621,12 +39852,18 @@
         <v>68</v>
       </c>
       <c r="AK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39735,11 +39972,17 @@
       </c>
       <c r="AK18" t="s">
         <v>67</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -39847,12 +40090,18 @@
         <v>68</v>
       </c>
       <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39961,11 +40210,17 @@
       </c>
       <c r="AK20" t="s">
         <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -40073,12 +40328,18 @@
         <v>68</v>
       </c>
       <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -40186,12 +40447,18 @@
         <v>68</v>
       </c>
       <c r="AK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -40300,11 +40567,17 @@
       </c>
       <c r="AK23" t="s">
         <v>67</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -40413,11 +40686,17 @@
       </c>
       <c r="AK24" t="s">
         <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -40525,6 +40804,12 @@
         <v>69</v>
       </c>
       <c r="AK25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40550,7 +40835,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -40562,34 +40847,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -40598,33 +40883,36 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -40702,12 +40990,15 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -40786,11 +41077,14 @@
       </c>
       <c r="AA3" t="s">
         <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -40868,12 +41162,15 @@
         <v>67</v>
       </c>
       <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -40951,12 +41248,15 @@
         <v>69</v>
       </c>
       <c r="AA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -41034,12 +41334,15 @@
         <v>68</v>
       </c>
       <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -41117,12 +41420,15 @@
         <v>69</v>
       </c>
       <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -41200,12 +41506,15 @@
         <v>67</v>
       </c>
       <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -41283,12 +41592,15 @@
         <v>67</v>
       </c>
       <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -41367,11 +41679,14 @@
       </c>
       <c r="AA10" t="s">
         <v>68</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -41450,11 +41765,14 @@
       </c>
       <c r="AA11" t="s">
         <v>69</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -41532,12 +41850,15 @@
         <v>68</v>
       </c>
       <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -41615,12 +41936,15 @@
         <v>68</v>
       </c>
       <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -41698,12 +42022,15 @@
         <v>67</v>
       </c>
       <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -41781,12 +42108,15 @@
         <v>68</v>
       </c>
       <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -41864,12 +42194,15 @@
         <v>67</v>
       </c>
       <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -41948,11 +42281,14 @@
       </c>
       <c r="AA17" t="s">
         <v>67</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -42030,12 +42366,15 @@
         <v>68</v>
       </c>
       <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -42113,12 +42452,15 @@
         <v>68</v>
       </c>
       <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -42196,12 +42538,15 @@
         <v>67</v>
       </c>
       <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -42279,12 +42624,15 @@
         <v>68</v>
       </c>
       <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -42362,12 +42710,15 @@
         <v>67</v>
       </c>
       <c r="AA22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -42445,12 +42796,15 @@
         <v>67</v>
       </c>
       <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -42529,11 +42883,14 @@
       </c>
       <c r="AA24" t="s">
         <v>67</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -42611,6 +42968,9 @@
         <v>68</v>
       </c>
       <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -42636,13 +42996,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -42651,7 +43011,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -42660,13 +43020,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -42678,39 +43038,42 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -42788,12 +43151,15 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -42871,12 +43237,15 @@
         <v>68</v>
       </c>
       <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -42954,12 +43323,15 @@
         <v>69</v>
       </c>
       <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -43038,11 +43410,14 @@
       </c>
       <c r="AA5" t="s">
         <v>69</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -43120,12 +43495,15 @@
         <v>67</v>
       </c>
       <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -43203,12 +43581,15 @@
         <v>67</v>
       </c>
       <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -43286,12 +43667,15 @@
         <v>68</v>
       </c>
       <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -43369,12 +43753,15 @@
         <v>67</v>
       </c>
       <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -43452,12 +43839,15 @@
         <v>68</v>
       </c>
       <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -43536,11 +43926,14 @@
       </c>
       <c r="AA11" t="s">
         <v>69</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -43618,12 +44011,15 @@
         <v>68</v>
       </c>
       <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -43701,12 +44097,15 @@
         <v>68</v>
       </c>
       <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -43784,12 +44183,15 @@
         <v>67</v>
       </c>
       <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -43867,12 +44269,15 @@
         <v>68</v>
       </c>
       <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -43950,12 +44355,15 @@
         <v>68</v>
       </c>
       <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -44034,11 +44442,14 @@
       </c>
       <c r="AA17" t="s">
         <v>68</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -44116,12 +44527,15 @@
         <v>68</v>
       </c>
       <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -44200,11 +44614,14 @@
       </c>
       <c r="AA19" t="s">
         <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -44282,12 +44699,15 @@
         <v>68</v>
       </c>
       <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -44365,12 +44785,15 @@
         <v>68</v>
       </c>
       <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -44448,12 +44871,15 @@
         <v>68</v>
       </c>
       <c r="AA22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -44531,12 +44957,15 @@
         <v>67</v>
       </c>
       <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -44614,12 +45043,15 @@
         <v>68</v>
       </c>
       <c r="AA24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -44697,6 +45129,9 @@
         <v>68</v>
       </c>
       <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -44722,72 +45157,75 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -44857,11 +45295,14 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -44930,12 +45371,15 @@
         <v>67</v>
       </c>
       <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -45005,11 +45449,14 @@
       </c>
       <c r="X4" t="s">
         <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -45078,12 +45525,15 @@
         <v>67</v>
       </c>
       <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45152,12 +45602,15 @@
         <v>67</v>
       </c>
       <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -45226,12 +45679,15 @@
         <v>67</v>
       </c>
       <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -45301,11 +45757,14 @@
       </c>
       <c r="X8" t="s">
         <v>69</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -45374,12 +45833,15 @@
         <v>67</v>
       </c>
       <c r="X9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -45448,12 +45910,15 @@
         <v>67</v>
       </c>
       <c r="X10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -45523,11 +45988,14 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -45596,12 +46064,15 @@
         <v>67</v>
       </c>
       <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -45670,12 +46141,15 @@
         <v>67</v>
       </c>
       <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -45745,11 +46219,14 @@
       </c>
       <c r="X14" t="s">
         <v>68</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -45818,12 +46295,15 @@
         <v>67</v>
       </c>
       <c r="X15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -45893,11 +46373,14 @@
       </c>
       <c r="X16" t="s">
         <v>69</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -45966,12 +46449,15 @@
         <v>68</v>
       </c>
       <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -46040,12 +46526,15 @@
         <v>67</v>
       </c>
       <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -46114,12 +46603,15 @@
         <v>67</v>
       </c>
       <c r="X19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -46188,12 +46680,15 @@
         <v>67</v>
       </c>
       <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -46263,11 +46758,14 @@
       </c>
       <c r="X21" t="s">
         <v>69</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -46336,12 +46834,15 @@
         <v>67</v>
       </c>
       <c r="X22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -46410,12 +46911,15 @@
         <v>67</v>
       </c>
       <c r="X23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -46484,6 +46988,9 @@
         <v>67</v>
       </c>
       <c r="X24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -46593,7 +47100,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -46625,7 +47132,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -46750,7 +47257,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -46875,7 +47382,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -47000,7 +47507,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -47125,7 +47632,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -47250,7 +47757,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -47375,7 +47882,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -47500,7 +48007,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -47625,7 +48132,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -47750,7 +48257,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -47875,7 +48382,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -48000,7 +48507,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -48125,7 +48632,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -48250,7 +48757,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -48375,7 +48882,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -48500,7 +49007,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -48625,7 +49132,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -48750,7 +49257,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -48875,7 +49382,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -49000,7 +49507,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16736" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17066" uniqueCount="516">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>X2021.11.01</t>
+  </si>
+  <si>
+    <t>X2021.11.30</t>
+  </si>
+  <si>
+    <t>X2021.12.01</t>
+  </si>
+  <si>
+    <t>X2021.12.02</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -4698,28 +4707,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -4728,7 +4737,7 @@
         <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4740,13 +4749,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4770,7 +4779,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4785,12 +4794,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -4888,7 +4897,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -4986,7 +4995,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -5084,7 +5093,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -5182,7 +5191,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -5280,7 +5289,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -5378,7 +5387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -5476,7 +5485,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -5574,7 +5583,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -5672,7 +5681,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -5770,7 +5779,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -5868,7 +5877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -5966,7 +5975,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -6064,7 +6073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -6162,7 +6171,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -6260,7 +6269,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -6358,7 +6367,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -6456,7 +6465,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6554,7 +6563,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -6652,7 +6661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -6836,7 +6845,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -6847,7 +6856,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6933,7 +6942,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -7019,7 +7028,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7105,7 +7114,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7191,7 +7200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -7277,7 +7286,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7363,7 +7372,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7449,7 +7458,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7535,7 +7544,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7621,7 +7630,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7707,7 +7716,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -7793,7 +7802,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -7879,7 +7888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -7965,7 +7974,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -8101,10 +8110,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -8149,13 +8158,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AE1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8182,7 +8191,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8192,11 +8201,20 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -8325,12 +8343,21 @@
         <v>71</v>
       </c>
       <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -8460,11 +8487,20 @@
       </c>
       <c r="AR3" t="s">
         <v>71</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -8593,12 +8629,21 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -8728,11 +8773,20 @@
       </c>
       <c r="AR5" t="s">
         <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -8861,12 +8915,21 @@
         <v>71</v>
       </c>
       <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -8996,11 +9059,20 @@
       </c>
       <c r="AR7" t="s">
         <v>71</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -9129,12 +9201,21 @@
         <v>71</v>
       </c>
       <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -9263,12 +9344,21 @@
         <v>71</v>
       </c>
       <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -9398,11 +9488,20 @@
       </c>
       <c r="AR10" t="s">
         <v>71</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -9532,11 +9631,20 @@
       </c>
       <c r="AR11" t="s">
         <v>72</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -9666,11 +9774,20 @@
       </c>
       <c r="AR12" t="s">
         <v>71</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -9800,11 +9917,20 @@
       </c>
       <c r="AR13" t="s">
         <v>71</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -9933,12 +10059,21 @@
         <v>70</v>
       </c>
       <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -10067,12 +10202,21 @@
         <v>71</v>
       </c>
       <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -10202,11 +10346,20 @@
       </c>
       <c r="AR16" t="s">
         <v>71</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -10336,11 +10489,20 @@
       </c>
       <c r="AR17" t="s">
         <v>71</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10470,11 +10632,20 @@
       </c>
       <c r="AR18" t="s">
         <v>71</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -10604,11 +10775,20 @@
       </c>
       <c r="AR19" t="s">
         <v>71</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -10737,12 +10917,21 @@
         <v>71</v>
       </c>
       <c r="AR20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -10871,6 +11060,15 @@
         <v>71</v>
       </c>
       <c r="AR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10926,10 +11124,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10965,10 +11163,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AB1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AC1" t="s">
         <v>114</v>
@@ -10998,12 +11196,18 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -11114,12 +11318,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -11230,12 +11440,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -11346,12 +11562,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11463,11 +11685,17 @@
       </c>
       <c r="AL5" t="s">
         <v>70</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -11579,11 +11807,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11695,11 +11929,17 @@
       </c>
       <c r="AL7" t="s">
         <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -11810,12 +12050,18 @@
         <v>70</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11926,12 +12172,18 @@
         <v>70</v>
       </c>
       <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -12043,11 +12295,17 @@
       </c>
       <c r="AL10" t="s">
         <v>71</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -12158,12 +12416,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12274,12 +12538,18 @@
         <v>70</v>
       </c>
       <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12390,12 +12660,18 @@
         <v>70</v>
       </c>
       <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -12507,11 +12783,17 @@
       </c>
       <c r="AL14" t="s">
         <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -12622,12 +12904,18 @@
         <v>70</v>
       </c>
       <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12720,7 +13008,7 @@
         <v>70</v>
       </c>
       <c r="AF16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG16" t="s">
         <v>70</v>
@@ -12738,12 +13026,18 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12854,12 +13148,18 @@
         <v>70</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12970,12 +13270,18 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -13086,12 +13392,18 @@
         <v>70</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -13203,11 +13515,17 @@
       </c>
       <c r="AL20" t="s">
         <v>72</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -13318,6 +13636,12 @@
         <v>70</v>
       </c>
       <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13379,7 +13703,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -13446,11 +13770,17 @@
       </c>
       <c r="AL1" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -13561,12 +13891,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -13677,12 +14013,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -13793,12 +14135,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -13910,11 +14258,17 @@
       </c>
       <c r="AL5" t="s">
         <v>71</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -14026,11 +14380,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -14141,12 +14501,18 @@
         <v>71</v>
       </c>
       <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -14257,12 +14623,18 @@
         <v>71</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -14374,11 +14746,17 @@
       </c>
       <c r="AL9" t="s">
         <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -14490,11 +14868,17 @@
       </c>
       <c r="AL10" t="s">
         <v>71</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -14605,12 +14989,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -14722,11 +15112,17 @@
       </c>
       <c r="AL12" t="s">
         <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -14838,11 +15234,17 @@
       </c>
       <c r="AL13" t="s">
         <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -14954,11 +15356,17 @@
       </c>
       <c r="AL14" t="s">
         <v>71</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -15070,11 +15478,17 @@
       </c>
       <c r="AL15" t="s">
         <v>71</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15186,11 +15600,17 @@
       </c>
       <c r="AL16" t="s">
         <v>71</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -15301,12 +15721,18 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -15418,11 +15844,17 @@
       </c>
       <c r="AL18" t="s">
         <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -15533,6 +15965,12 @@
         <v>71</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15561,7 +15999,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -15573,7 +16011,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -15615,7 +16053,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -15648,7 +16086,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -15681,12 +16119,15 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -15818,12 +16259,15 @@
         <v>70</v>
       </c>
       <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -15955,12 +16399,15 @@
         <v>70</v>
       </c>
       <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -16092,12 +16539,15 @@
         <v>70</v>
       </c>
       <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -16229,12 +16679,15 @@
         <v>70</v>
       </c>
       <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -16367,11 +16820,14 @@
       </c>
       <c r="AS6" t="s">
         <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -16503,12 +16959,15 @@
         <v>70</v>
       </c>
       <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -16640,12 +17099,15 @@
         <v>70</v>
       </c>
       <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -16777,12 +17239,15 @@
         <v>72</v>
       </c>
       <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -16914,12 +17379,15 @@
         <v>71</v>
       </c>
       <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17051,12 +17519,15 @@
         <v>70</v>
       </c>
       <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -17188,12 +17659,15 @@
         <v>71</v>
       </c>
       <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -17325,12 +17799,15 @@
         <v>70</v>
       </c>
       <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -17462,12 +17939,15 @@
         <v>71</v>
       </c>
       <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -17600,11 +18080,14 @@
       </c>
       <c r="AS15" t="s">
         <v>71</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -17737,11 +18220,14 @@
       </c>
       <c r="AS16" t="s">
         <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -17873,12 +18359,15 @@
         <v>71</v>
       </c>
       <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -18010,12 +18499,15 @@
         <v>71</v>
       </c>
       <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -18148,6 +18640,9 @@
       </c>
       <c r="AS19" t="s">
         <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18223,7 +18718,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -18248,11 +18743,20 @@
       </c>
       <c r="AC1" t="s">
         <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18337,11 +18841,20 @@
       </c>
       <c r="AC2" t="s">
         <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -18425,12 +18938,21 @@
         <v>70</v>
       </c>
       <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -18514,12 +19036,21 @@
         <v>71</v>
       </c>
       <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -18603,12 +19134,21 @@
         <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -18693,11 +19233,20 @@
       </c>
       <c r="AC6" t="s">
         <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -18781,12 +19330,21 @@
         <v>71</v>
       </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -18871,11 +19429,20 @@
       </c>
       <c r="AC8" t="s">
         <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -18959,12 +19526,21 @@
         <v>71</v>
       </c>
       <c r="AC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -19049,11 +19625,20 @@
       </c>
       <c r="AC10" t="s">
         <v>71</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -19137,12 +19722,21 @@
         <v>72</v>
       </c>
       <c r="AC11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -19226,12 +19820,21 @@
         <v>72</v>
       </c>
       <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -19315,6 +19918,15 @@
         <v>72</v>
       </c>
       <c r="AC13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19337,7 +19949,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -19349,7 +19961,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -19367,7 +19979,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -19382,7 +19994,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -19391,7 +20003,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -19402,7 +20014,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19473,7 +20085,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19544,7 +20156,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -19615,7 +20227,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -19686,7 +20298,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -19757,7 +20369,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -19828,7 +20440,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -19899,7 +20511,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -19970,7 +20582,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -20041,7 +20653,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20144,7 +20756,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -20174,7 +20786,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -20182,7 +20794,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -20241,7 +20853,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -20300,7 +20912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -20359,7 +20971,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -20418,7 +21030,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -20457,7 +21069,7 @@
         <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O6" t="s">
         <v>70</v>
@@ -20477,7 +21089,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -20536,7 +21148,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -20595,7 +21207,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -20654,7 +21266,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -20713,7 +21325,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20807,7 +21419,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -20843,24 +21455,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="W1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -20937,7 +21549,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -21014,7 +21626,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -21091,7 +21703,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -21168,7 +21780,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -21245,7 +21857,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -21322,7 +21934,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -21399,7 +22011,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -21476,7 +22088,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -21553,7 +22165,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -23925,7 +24537,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23967,10 +24579,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -24015,16 +24627,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AJ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AK1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -24054,7 +24666,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -24066,12 +24678,15 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -24224,12 +24839,15 @@
         <v>70</v>
       </c>
       <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -24383,11 +25001,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -24540,12 +25161,15 @@
         <v>71</v>
       </c>
       <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -24698,12 +25322,15 @@
         <v>70</v>
       </c>
       <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -24856,12 +25483,15 @@
         <v>71</v>
       </c>
       <c r="AZ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -25014,12 +25644,15 @@
         <v>71</v>
       </c>
       <c r="AZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -25172,12 +25805,15 @@
         <v>70</v>
       </c>
       <c r="AZ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -25331,11 +25967,14 @@
       </c>
       <c r="AZ9" t="s">
         <v>71</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -25488,12 +26127,15 @@
         <v>71</v>
       </c>
       <c r="AZ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -25646,12 +26288,15 @@
         <v>70</v>
       </c>
       <c r="AZ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -25804,12 +26449,15 @@
         <v>70</v>
       </c>
       <c r="AZ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -25962,12 +26610,15 @@
         <v>71</v>
       </c>
       <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -26120,12 +26771,15 @@
         <v>70</v>
       </c>
       <c r="AZ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -26279,11 +26933,14 @@
       </c>
       <c r="AZ15" t="s">
         <v>71</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -26437,11 +27094,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>70</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -26594,12 +27254,15 @@
         <v>71</v>
       </c>
       <c r="AZ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -26752,12 +27415,15 @@
         <v>71</v>
       </c>
       <c r="AZ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -26910,12 +27576,15 @@
         <v>70</v>
       </c>
       <c r="AZ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -27068,12 +27737,15 @@
         <v>70</v>
       </c>
       <c r="AZ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -27226,6 +27898,9 @@
         <v>70</v>
       </c>
       <c r="AZ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27254,7 +27929,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -27278,19 +27953,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -27314,7 +27989,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -27338,19 +28013,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AH1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AI1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AJ1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AK1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -27362,13 +28037,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AP1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AQ1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -27380,7 +28055,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -27395,13 +28070,13 @@
         <v>114</v>
       </c>
       <c r="AZ1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BA1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BB1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -27413,19 +28088,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="BG1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BH1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BI1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="BJ1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -27437,7 +28112,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -27449,12 +28124,12 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -27666,7 +28341,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -27878,7 +28553,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -28090,7 +28765,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -28302,7 +28977,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -28514,7 +29189,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -28726,7 +29401,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -28938,7 +29613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -29085,7 +29760,7 @@
         <v>70</v>
       </c>
       <c r="AX9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AY9" t="s">
         <v>70</v>
@@ -29150,7 +29825,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -29362,7 +30037,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -29574,7 +30249,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -29786,7 +30461,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -29998,7 +30673,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -30210,7 +30885,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -30422,7 +31097,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -30634,7 +31309,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -30846,7 +31521,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -31058,7 +31733,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -31270,7 +31945,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -31482,7 +32157,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -31694,7 +32369,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -31906,7 +32581,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -32141,7 +32816,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -32183,7 +32858,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -32234,7 +32909,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -32264,7 +32939,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -32276,12 +32951,12 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -32433,7 +33108,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -32585,7 +33260,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -32737,7 +33412,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -32889,7 +33564,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -33041,7 +33716,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -33193,7 +33868,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -33345,7 +34020,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -33497,7 +34172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -33649,7 +34324,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -33801,7 +34476,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -33953,7 +34628,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -34105,7 +34780,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -34257,7 +34932,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -34409,7 +35084,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -34561,7 +35236,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -34713,7 +35388,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -34865,7 +35540,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -35017,7 +35692,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -35169,7 +35844,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -38110,10 +38785,19 @@
       <c r="AJ1" t="s">
         <v>51</v>
       </c>
+      <c r="AK1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -38219,11 +38903,20 @@
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -38328,12 +39021,21 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -38438,12 +39140,21 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -38548,12 +39259,21 @@
         <v>71</v>
       </c>
       <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38658,12 +39378,21 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -38769,11 +39498,20 @@
       </c>
       <c r="AJ7" t="s">
         <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -38878,12 +39616,21 @@
         <v>71</v>
       </c>
       <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -38989,11 +39736,20 @@
       </c>
       <c r="AJ9" t="s">
         <v>71</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -39098,12 +39854,21 @@
         <v>71</v>
       </c>
       <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -39209,11 +39974,20 @@
       </c>
       <c r="AJ11" t="s">
         <v>71</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -39318,12 +40092,21 @@
         <v>71</v>
       </c>
       <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -39429,11 +40212,20 @@
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -39538,12 +40330,21 @@
         <v>70</v>
       </c>
       <c r="AJ14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -39648,12 +40449,21 @@
         <v>71</v>
       </c>
       <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -39758,12 +40568,21 @@
         <v>71</v>
       </c>
       <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -39868,12 +40687,21 @@
         <v>71</v>
       </c>
       <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -39979,11 +40807,20 @@
       </c>
       <c r="AJ18" t="s">
         <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -40089,11 +40926,20 @@
       </c>
       <c r="AJ19" t="s">
         <v>71</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -40199,11 +41045,20 @@
       </c>
       <c r="AJ20" t="s">
         <v>71</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -40308,6 +41163,15 @@
         <v>71</v>
       </c>
       <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -40339,10 +41203,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -40363,10 +41227,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -40378,10 +41242,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -40399,10 +41263,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -40417,10 +41281,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -40435,7 +41299,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AM1" t="s">
         <v>92</v>
@@ -40450,12 +41314,12 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40586,7 +41450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -40717,7 +41581,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40848,7 +41712,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -40979,7 +41843,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -41110,7 +41974,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -41241,7 +42105,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -41372,7 +42236,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -41503,7 +42367,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41634,7 +42498,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41765,7 +42629,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -41896,7 +42760,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -42027,7 +42891,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -42158,7 +43022,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -42289,7 +43153,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -42420,7 +43284,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -42551,7 +43415,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42682,7 +43546,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -42813,7 +43677,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -42944,7 +43808,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -43075,7 +43939,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -43206,7 +44070,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -43337,7 +44201,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -43468,7 +44332,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -43619,7 +44483,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -43631,34 +44495,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -43667,31 +44531,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -43702,7 +44566,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -43794,7 +44658,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -43886,7 +44750,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -43978,7 +44842,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -44070,7 +44934,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -44162,7 +45026,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -44254,7 +45118,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -44346,7 +45210,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -44438,7 +45302,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -44530,7 +45394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -44622,7 +45486,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44714,7 +45578,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -44806,7 +45670,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44898,7 +45762,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -44990,7 +45854,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -45082,7 +45946,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45174,7 +46038,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -45266,7 +46130,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -45358,7 +46222,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -45450,7 +46314,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -45542,7 +46406,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -45634,7 +46498,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -45726,7 +46590,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -45818,7 +46682,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -45930,13 +46794,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -45945,7 +46809,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -45954,13 +46818,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -45972,37 +46836,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -46013,7 +46877,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -46105,7 +46969,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -46197,7 +47061,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -46289,7 +47153,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -46381,7 +47245,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -46473,7 +47337,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -46565,7 +47429,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -46657,7 +47521,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -46749,7 +47613,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -46841,7 +47705,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -46933,7 +47797,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -47025,7 +47889,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -47117,7 +47981,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -47209,7 +48073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -47301,7 +48165,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -47393,7 +48257,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -47485,7 +48349,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -47577,7 +48441,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -47669,7 +48533,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -47761,7 +48625,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -47853,7 +48717,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -47945,7 +48809,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -48037,7 +48901,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -48129,7 +48993,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -48241,61 +49105,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -48304,15 +49168,18 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -48388,11 +49255,14 @@
       </c>
       <c r="Z2" t="s">
         <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -48468,11 +49338,14 @@
       </c>
       <c r="Z3" t="s">
         <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -48548,11 +49421,14 @@
       </c>
       <c r="Z4" t="s">
         <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -48627,12 +49503,15 @@
         <v>71</v>
       </c>
       <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -48708,11 +49587,14 @@
       </c>
       <c r="Z6" t="s">
         <v>72</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -48787,12 +49669,15 @@
         <v>71</v>
       </c>
       <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -48868,11 +49753,14 @@
       </c>
       <c r="Z8" t="s">
         <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -48948,11 +49836,14 @@
       </c>
       <c r="Z9" t="s">
         <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -49027,12 +49918,15 @@
         <v>71</v>
       </c>
       <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -49107,12 +50001,15 @@
         <v>71</v>
       </c>
       <c r="Z11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -49188,11 +50085,14 @@
       </c>
       <c r="Z12" t="s">
         <v>71</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -49268,11 +50168,14 @@
       </c>
       <c r="Z13" t="s">
         <v>71</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -49347,12 +50250,15 @@
         <v>70</v>
       </c>
       <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -49428,11 +50334,14 @@
       </c>
       <c r="Z15" t="s">
         <v>71</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -49507,12 +50416,15 @@
         <v>71</v>
       </c>
       <c r="Z16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -49588,11 +50500,14 @@
       </c>
       <c r="Z17" t="s">
         <v>71</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -49668,11 +50583,14 @@
       </c>
       <c r="Z18" t="s">
         <v>71</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -49748,11 +50666,14 @@
       </c>
       <c r="Z19" t="s">
         <v>71</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -49828,11 +50749,14 @@
       </c>
       <c r="Z20" t="s">
         <v>71</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -49907,12 +50831,15 @@
         <v>71</v>
       </c>
       <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -49988,11 +50915,14 @@
       </c>
       <c r="Z22" t="s">
         <v>71</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -50068,11 +50998,14 @@
       </c>
       <c r="Z23" t="s">
         <v>71</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -50147,6 +51080,9 @@
         <v>71</v>
       </c>
       <c r="Z24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -50256,7 +51192,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -50293,11 +51229,14 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -50427,11 +51366,14 @@
       </c>
       <c r="AR2" t="s">
         <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -50560,12 +51502,15 @@
         <v>70</v>
       </c>
       <c r="AR3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -50694,12 +51639,15 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -50829,11 +51777,14 @@
       </c>
       <c r="AR5" t="s">
         <v>71</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -50963,11 +51914,14 @@
       </c>
       <c r="AR6" t="s">
         <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -51097,11 +52051,14 @@
       </c>
       <c r="AR7" t="s">
         <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -51230,12 +52187,15 @@
         <v>70</v>
       </c>
       <c r="AR8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -51364,12 +52324,15 @@
         <v>70</v>
       </c>
       <c r="AR9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -51498,12 +52461,15 @@
         <v>70</v>
       </c>
       <c r="AR10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -51633,11 +52599,14 @@
       </c>
       <c r="AR11" t="s">
         <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -51766,12 +52735,15 @@
         <v>70</v>
       </c>
       <c r="AR12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -51900,12 +52872,15 @@
         <v>70</v>
       </c>
       <c r="AR13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -52035,11 +53010,14 @@
       </c>
       <c r="AR14" t="s">
         <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -52169,11 +53147,14 @@
       </c>
       <c r="AR15" t="s">
         <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -52302,12 +53283,15 @@
         <v>70</v>
       </c>
       <c r="AR16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -52436,12 +53420,15 @@
         <v>70</v>
       </c>
       <c r="AR17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -52570,12 +53557,15 @@
         <v>70</v>
       </c>
       <c r="AR18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -52705,11 +53695,14 @@
       </c>
       <c r="AR19" t="s">
         <v>72</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -52838,12 +53831,15 @@
         <v>70</v>
       </c>
       <c r="AR20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -52972,6 +53968,9 @@
         <v>70</v>
       </c>
       <c r="AR21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS21" t="s">
         <v>71</v>
       </c>
     </row>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18155" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="522">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.08</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4890,25 +4896,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>143</v>
@@ -4920,7 +4926,7 @@
         <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4962,7 +4968,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4977,7 +4983,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -4991,7 +4997,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -5205,7 +5211,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -5312,7 +5318,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -5419,7 +5425,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -5526,7 +5532,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -5740,7 +5746,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -5954,7 +5960,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -6168,7 +6174,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6275,7 +6281,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -6382,7 +6388,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -6489,7 +6495,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -6596,7 +6602,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -6703,7 +6709,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -6810,7 +6816,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -6917,7 +6923,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -7024,7 +7030,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -7217,7 +7223,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7237,7 +7243,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -7332,7 +7338,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -7427,7 +7433,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -7522,7 +7528,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -7617,7 +7623,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -7712,7 +7718,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -7807,7 +7813,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -7902,7 +7908,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -8092,7 +8098,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -8187,7 +8193,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -8282,7 +8288,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -8377,7 +8383,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -8617,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
         <v>180</v>
@@ -8668,10 +8674,10 @@
         <v>182</v>
       </c>
       <c r="AE1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8698,7 +8704,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8730,7 +8736,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -8882,7 +8888,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -9034,7 +9040,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -9186,7 +9192,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -9338,7 +9344,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -9490,7 +9496,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -9642,7 +9648,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -9794,7 +9800,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -9946,7 +9952,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -10098,7 +10104,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -10250,7 +10256,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -10402,7 +10408,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -10554,7 +10560,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -10706,7 +10712,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -10858,7 +10864,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -11010,7 +11016,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -11162,7 +11168,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -11314,7 +11320,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -11466,7 +11472,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -11618,7 +11624,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -11820,7 +11826,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
         <v>180</v>
@@ -11859,10 +11865,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AC1" t="s">
         <v>117</v>
@@ -11912,7 +11918,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -12043,7 +12049,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -12174,7 +12180,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -12305,7 +12311,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12436,7 +12442,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -12567,7 +12573,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -12698,7 +12704,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -12829,7 +12835,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -12960,7 +12966,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -13091,7 +13097,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -13222,7 +13228,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -13353,7 +13359,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -13484,7 +13490,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -13615,7 +13621,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -13746,7 +13752,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -13839,7 +13845,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG16" t="s">
         <v>73</v>
@@ -13877,7 +13883,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -14008,7 +14014,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -14139,7 +14145,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -14270,7 +14276,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -14401,7 +14407,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -14674,7 +14680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -14805,7 +14811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -14936,7 +14942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -15067,7 +15073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -15198,7 +15204,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -15329,7 +15335,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -15460,7 +15466,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -15591,7 +15597,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -15722,7 +15728,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -15853,7 +15859,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -15984,7 +15990,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -16115,7 +16121,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -16246,7 +16252,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -16377,7 +16383,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -16508,7 +16514,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -16639,7 +16645,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -16770,7 +16776,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -16901,7 +16907,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -17055,7 +17061,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17067,7 +17073,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -17109,7 +17115,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -17142,7 +17148,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -17192,7 +17198,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -17341,7 +17347,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -17490,7 +17496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -17639,7 +17645,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -17788,7 +17794,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -17937,7 +17943,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -18086,7 +18092,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18235,7 +18241,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -18384,7 +18390,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -18533,7 +18539,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -18682,7 +18688,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -18831,7 +18837,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -18980,7 +18986,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -19129,7 +19135,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -19278,7 +19284,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -19427,7 +19433,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -19576,7 +19582,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -19725,7 +19731,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -19945,7 +19951,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -19985,11 +19991,14 @@
       </c>
       <c r="AH1" t="s">
         <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20088,12 +20097,15 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -20193,11 +20205,14 @@
       </c>
       <c r="AH3" t="s">
         <v>74</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -20296,12 +20311,15 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -20401,11 +20419,14 @@
       </c>
       <c r="AH5" t="s">
         <v>74</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -20505,11 +20526,14 @@
       </c>
       <c r="AH6" t="s">
         <v>74</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20609,11 +20633,14 @@
       </c>
       <c r="AH7" t="s">
         <v>73</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -20712,12 +20739,15 @@
         <v>73</v>
       </c>
       <c r="AH8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -20816,12 +20846,15 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -20920,12 +20953,15 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -21024,12 +21060,15 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -21128,12 +21167,15 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -21232,6 +21274,9 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21254,7 +21299,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -21266,7 +21311,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -21325,7 +21370,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -21402,7 +21447,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21479,7 +21524,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21556,7 +21601,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21633,7 +21678,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -21710,7 +21755,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21787,7 +21832,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -21864,7 +21909,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21941,7 +21986,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -22018,7 +22063,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22165,10 +22210,13 @@
       <c r="T1" t="s">
         <v>53</v>
       </c>
+      <c r="U1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -22226,11 +22274,14 @@
       </c>
       <c r="T2" t="s">
         <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -22288,11 +22339,14 @@
       </c>
       <c r="T3" t="s">
         <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -22350,11 +22404,14 @@
       </c>
       <c r="T4" t="s">
         <v>74</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -22412,11 +22469,14 @@
       </c>
       <c r="T5" t="s">
         <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -22455,7 +22515,7 @@
         <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O6" t="s">
         <v>73</v>
@@ -22474,11 +22534,14 @@
       </c>
       <c r="T6" t="s">
         <v>74</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -22536,11 +22599,14 @@
       </c>
       <c r="T7" t="s">
         <v>74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -22598,11 +22664,14 @@
       </c>
       <c r="T8" t="s">
         <v>74</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -22660,11 +22729,14 @@
       </c>
       <c r="T9" t="s">
         <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -22722,11 +22794,14 @@
       </c>
       <c r="T10" t="s">
         <v>74</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22784,6 +22859,9 @@
       </c>
       <c r="T11" t="s">
         <v>74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22823,7 +22901,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -22859,7 +22937,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
         <v>183</v>
@@ -22882,7 +22960,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -22965,7 +23043,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -23048,7 +23126,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -23131,7 +23209,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -23214,7 +23292,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -23297,7 +23375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -23380,7 +23458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -23463,7 +23541,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -23546,7 +23624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -23629,7 +23707,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -26178,7 +26256,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -26220,7 +26298,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="T1" t="s">
         <v>180</v>
@@ -26268,16 +26346,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ1" t="s">
         <v>182</v>
       </c>
       <c r="AK1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -26307,7 +26385,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -26339,7 +26417,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -26512,7 +26590,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -26685,7 +26763,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -26858,7 +26936,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -27031,7 +27109,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -27204,7 +27282,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -27377,7 +27455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -27550,7 +27628,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -27723,7 +27801,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -27896,7 +27974,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -28069,7 +28147,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -28242,7 +28320,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -28415,7 +28493,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -28588,7 +28666,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -28761,7 +28839,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -28934,7 +29012,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -29107,7 +29185,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -29280,7 +29358,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -29453,7 +29531,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -29626,7 +29704,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -29822,7 +29900,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29846,16 +29924,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O1" t="s">
         <v>178</v>
       </c>
       <c r="P1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q1" t="s">
         <v>179</v>
@@ -29882,7 +29960,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -29906,19 +29984,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AH1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI1" t="s">
         <v>181</v>
       </c>
       <c r="AJ1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AK1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -29936,7 +30014,7 @@
         <v>149</v>
       </c>
       <c r="AQ1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -29948,7 +30026,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -29969,7 +30047,7 @@
         <v>151</v>
       </c>
       <c r="BB1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -29981,7 +30059,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="BG1" t="s">
         <v>183</v>
@@ -29990,10 +30068,10 @@
         <v>184</v>
       </c>
       <c r="BI1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="BJ1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -30005,7 +30083,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -30034,7 +30112,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -30258,7 +30336,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -30482,7 +30560,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -30706,7 +30784,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -30930,7 +31008,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -31154,7 +31232,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -31378,7 +31456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -31602,7 +31680,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -31749,7 +31827,7 @@
         <v>73</v>
       </c>
       <c r="AX9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AY9" t="s">
         <v>73</v>
@@ -31826,7 +31904,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -32050,7 +32128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -32274,7 +32352,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -32498,7 +32576,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -32722,7 +32800,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -32946,7 +33024,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -33170,7 +33248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -33394,7 +33472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -33618,7 +33696,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -33842,7 +33920,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -34066,7 +34144,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -34290,7 +34368,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -34514,7 +34592,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -34738,7 +34816,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -34985,7 +35063,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35078,7 +35156,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -35108,7 +35186,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -35137,7 +35215,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -35301,7 +35379,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -35465,7 +35543,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -35629,7 +35707,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -35793,7 +35871,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -35957,7 +36035,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -36121,7 +36199,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -36285,7 +36363,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -36449,7 +36527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -36613,7 +36691,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -36777,7 +36855,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36941,7 +37019,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -37105,7 +37183,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -37269,7 +37347,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -37433,7 +37511,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -37597,7 +37675,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -37761,7 +37839,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -37925,7 +38003,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -38089,7 +38167,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -38253,7 +38331,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47572,10 +47650,16 @@
       <c r="AE1" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -47666,11 +47750,17 @@
       </c>
       <c r="AE2" t="s">
         <v>74</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -47760,12 +47850,18 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -47855,12 +47951,18 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -47950,12 +48052,18 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -48045,12 +48153,18 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -48140,12 +48254,18 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -48235,12 +48355,18 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -48330,12 +48456,18 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -48425,12 +48557,18 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -48521,11 +48659,17 @@
       </c>
       <c r="AE11" t="s">
         <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48615,12 +48759,18 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -48710,12 +48860,18 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48805,12 +48961,18 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -48901,11 +49063,17 @@
       </c>
       <c r="AE15" t="s">
         <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -48995,12 +49163,18 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49091,11 +49265,17 @@
       </c>
       <c r="AE17" t="s">
         <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -49186,11 +49366,17 @@
       </c>
       <c r="AE18" t="s">
         <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -49280,12 +49466,18 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -49375,12 +49567,18 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -49470,12 +49668,18 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -49566,11 +49770,17 @@
       </c>
       <c r="AE22" t="s">
         <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -49661,11 +49871,17 @@
       </c>
       <c r="AE23" t="s">
         <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -49756,11 +49972,17 @@
       </c>
       <c r="AE24" t="s">
         <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -49850,6 +50072,12 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -49881,7 +50109,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -49917,7 +50145,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S1" t="s">
         <v>181</v>
@@ -49954,11 +50182,17 @@
       </c>
       <c r="AD1" t="s">
         <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -50046,11 +50280,17 @@
       </c>
       <c r="AD2" t="s">
         <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -50137,12 +50377,18 @@
         <v>73</v>
       </c>
       <c r="AD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -50230,11 +50476,17 @@
       </c>
       <c r="AD4" t="s">
         <v>74</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -50322,11 +50574,17 @@
       </c>
       <c r="AD5" t="s">
         <v>74</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -50414,11 +50672,17 @@
       </c>
       <c r="AD6" t="s">
         <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -50506,11 +50770,17 @@
       </c>
       <c r="AD7" t="s">
         <v>74</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -50598,11 +50868,17 @@
       </c>
       <c r="AD8" t="s">
         <v>74</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -50690,11 +50966,17 @@
       </c>
       <c r="AD9" t="s">
         <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -50782,11 +51064,17 @@
       </c>
       <c r="AD10" t="s">
         <v>74</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -50873,12 +51161,18 @@
         <v>73</v>
       </c>
       <c r="AD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -50966,11 +51260,17 @@
       </c>
       <c r="AD12" t="s">
         <v>74</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -51058,11 +51358,17 @@
       </c>
       <c r="AD13" t="s">
         <v>74</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -51149,12 +51455,18 @@
         <v>74</v>
       </c>
       <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -51242,11 +51554,17 @@
       </c>
       <c r="AD15" t="s">
         <v>74</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -51334,11 +51652,17 @@
       </c>
       <c r="AD16" t="s">
         <v>74</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -51426,11 +51750,17 @@
       </c>
       <c r="AD17" t="s">
         <v>74</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -51517,12 +51847,18 @@
         <v>73</v>
       </c>
       <c r="AD18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -51610,11 +51946,17 @@
       </c>
       <c r="AD19" t="s">
         <v>74</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -51702,11 +52044,17 @@
       </c>
       <c r="AD20" t="s">
         <v>74</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -51793,12 +52141,18 @@
         <v>73</v>
       </c>
       <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -51886,11 +52240,17 @@
       </c>
       <c r="AD22" t="s">
         <v>74</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -51978,11 +52338,17 @@
       </c>
       <c r="AD23" t="s">
         <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -52069,12 +52435,18 @@
         <v>73</v>
       </c>
       <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -52162,6 +52534,12 @@
       </c>
       <c r="AD25" t="s">
         <v>74</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52186,10 +52564,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
         <v>178</v>
@@ -52216,13 +52594,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O1" t="s">
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -52237,7 +52615,7 @@
         <v>150</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
         <v>184</v>
@@ -52259,11 +52637,14 @@
       </c>
       <c r="AB1" t="s">
         <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -52345,11 +52726,14 @@
       </c>
       <c r="AB2" t="s">
         <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -52431,11 +52815,14 @@
       </c>
       <c r="AB3" t="s">
         <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -52517,11 +52904,14 @@
       </c>
       <c r="AB4" t="s">
         <v>74</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -52602,12 +52992,15 @@
         <v>73</v>
       </c>
       <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -52689,11 +53082,14 @@
       </c>
       <c r="AB6" t="s">
         <v>74</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -52774,12 +53170,15 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -52861,11 +53260,14 @@
       </c>
       <c r="AB8" t="s">
         <v>74</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -52947,11 +53349,14 @@
       </c>
       <c r="AB9" t="s">
         <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -53032,12 +53437,15 @@
         <v>73</v>
       </c>
       <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -53119,11 +53527,14 @@
       </c>
       <c r="AB11" t="s">
         <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -53204,12 +53615,15 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -53290,12 +53704,15 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -53376,12 +53793,15 @@
         <v>73</v>
       </c>
       <c r="AB14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -53462,12 +53882,15 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -53549,11 +53972,14 @@
       </c>
       <c r="AB16" t="s">
         <v>74</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -53635,11 +54061,14 @@
       </c>
       <c r="AB17" t="s">
         <v>73</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -53720,12 +54149,15 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -53807,11 +54239,14 @@
       </c>
       <c r="AB19" t="s">
         <v>74</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -53893,11 +54328,14 @@
       </c>
       <c r="AB20" t="s">
         <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -53979,11 +54417,14 @@
       </c>
       <c r="AB21" t="s">
         <v>74</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -54065,11 +54506,14 @@
       </c>
       <c r="AB22" t="s">
         <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -54151,11 +54595,14 @@
       </c>
       <c r="AB23" t="s">
         <v>74</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -54236,6 +54683,9 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -54345,7 +54795,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -54395,7 +54845,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -54538,7 +54988,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -54681,7 +55131,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -54824,7 +55274,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -54967,7 +55417,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -55110,7 +55560,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -55253,7 +55703,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -55396,7 +55846,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -55539,7 +55989,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -55682,7 +56132,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -55825,7 +56275,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -55968,7 +56418,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -56111,7 +56561,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -56254,7 +56704,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -56397,7 +56847,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -56540,7 +56990,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -56683,7 +57133,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -56826,7 +57276,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -56969,7 +57419,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -57112,7 +57562,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19255" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19381" uniqueCount="526">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -923,6 +923,9 @@
     <t>X2021.11.22</t>
   </si>
   <si>
+    <t>X2021.12.13</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -5177,10 +5180,13 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
+      <c r="AK1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -5286,11 +5292,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>77</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -5396,11 +5405,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>77</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -5506,11 +5518,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>77</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5616,11 +5631,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>77</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -5726,11 +5744,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>77</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5836,11 +5857,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>77</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -5946,11 +5970,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>77</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -6056,11 +6083,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>77</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -6166,11 +6196,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>79</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -6276,11 +6309,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>77</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -6386,11 +6422,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>78</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6496,11 +6535,14 @@
       </c>
       <c r="AJ13" t="s">
         <v>77</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -6606,11 +6648,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>77</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -6716,11 +6761,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6826,11 +6874,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>77</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -6936,11 +6987,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>77</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -7046,11 +7100,14 @@
       </c>
       <c r="AJ18" t="s">
         <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -7156,11 +7213,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>77</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -7266,11 +7326,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7376,6 +7439,9 @@
       </c>
       <c r="AJ21" t="s">
         <v>77</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7492,7 +7558,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -7593,7 +7659,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -7694,7 +7760,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -7795,7 +7861,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -7896,7 +7962,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -7997,7 +8063,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -8098,7 +8164,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -8199,7 +8265,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -8300,7 +8366,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -8401,7 +8467,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -8502,7 +8568,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -8603,7 +8669,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -8704,7 +8770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -8805,7 +8871,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -8956,7 +9022,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" t="s">
         <v>183</v>
@@ -9010,7 +9076,7 @@
         <v>268</v>
       </c>
       <c r="AF1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9074,11 +9140,14 @@
       </c>
       <c r="BA1" t="s">
         <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -9235,11 +9304,14 @@
       </c>
       <c r="BA2" t="s">
         <v>77</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -9396,11 +9468,14 @@
       </c>
       <c r="BA3" t="s">
         <v>77</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -9557,11 +9632,14 @@
       </c>
       <c r="BA4" t="s">
         <v>77</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -9718,11 +9796,14 @@
       </c>
       <c r="BA5" t="s">
         <v>77</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -9878,12 +9959,15 @@
         <v>77</v>
       </c>
       <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -10039,12 +10123,15 @@
         <v>76</v>
       </c>
       <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -10201,11 +10288,14 @@
       </c>
       <c r="BA8" t="s">
         <v>77</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -10361,12 +10451,15 @@
         <v>77</v>
       </c>
       <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -10523,11 +10616,14 @@
       </c>
       <c r="BA10" t="s">
         <v>77</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -10683,12 +10779,15 @@
         <v>77</v>
       </c>
       <c r="BA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10845,11 +10944,14 @@
       </c>
       <c r="BA12" t="s">
         <v>77</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -11006,11 +11108,14 @@
       </c>
       <c r="BA13" t="s">
         <v>76</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -11166,12 +11271,15 @@
         <v>77</v>
       </c>
       <c r="BA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -11327,12 +11435,15 @@
         <v>76</v>
       </c>
       <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11489,11 +11600,14 @@
       </c>
       <c r="BA16" t="s">
         <v>78</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -11650,11 +11764,14 @@
       </c>
       <c r="BA17" t="s">
         <v>76</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -11811,11 +11928,14 @@
       </c>
       <c r="BA18" t="s">
         <v>77</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11971,12 +12091,15 @@
         <v>78</v>
       </c>
       <c r="BA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -12132,12 +12255,15 @@
         <v>77</v>
       </c>
       <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -12294,6 +12420,9 @@
       </c>
       <c r="BA21" t="s">
         <v>77</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12348,7 +12477,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" t="s">
         <v>183</v>
@@ -12390,7 +12519,7 @@
         <v>268</v>
       </c>
       <c r="AB1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC1" t="s">
         <v>120</v>
@@ -12449,7 +12578,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -12589,7 +12718,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -12729,7 +12858,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -12869,7 +12998,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -13009,7 +13138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -13149,7 +13278,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -13289,7 +13418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -13429,7 +13558,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -13569,7 +13698,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -13709,7 +13838,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -13849,7 +13978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -13989,7 +14118,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -14129,7 +14258,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -14269,7 +14398,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -14409,7 +14538,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -14502,7 +14631,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG16" t="s">
         <v>76</v>
@@ -14549,7 +14678,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -14689,7 +14818,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -14829,7 +14958,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -14969,7 +15098,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -15109,7 +15238,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -15400,7 +15529,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -15540,7 +15669,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -15680,7 +15809,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -15820,7 +15949,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -15960,7 +16089,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -16100,7 +16229,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -16240,7 +16369,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -16380,7 +16509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -16520,7 +16649,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -16660,7 +16789,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -16800,7 +16929,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -16940,7 +17069,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -17080,7 +17209,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -17220,7 +17349,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -17360,7 +17489,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -17500,7 +17629,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -17640,7 +17769,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -17780,7 +17909,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -17943,7 +18072,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17997,7 +18126,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -18085,11 +18214,14 @@
       </c>
       <c r="AZ1" t="s">
         <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -18243,11 +18375,14 @@
       </c>
       <c r="AZ2" t="s">
         <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -18401,11 +18536,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>77</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -18559,11 +18697,14 @@
       </c>
       <c r="AZ4" t="s">
         <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -18716,12 +18857,15 @@
         <v>77</v>
       </c>
       <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -18875,11 +19019,14 @@
       </c>
       <c r="AZ6" t="s">
         <v>77</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -19033,11 +19180,14 @@
       </c>
       <c r="AZ7" t="s">
         <v>77</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -19190,12 +19340,15 @@
         <v>76</v>
       </c>
       <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -19348,12 +19501,15 @@
         <v>77</v>
       </c>
       <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -19506,12 +19662,15 @@
         <v>77</v>
       </c>
       <c r="AZ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -19665,11 +19824,14 @@
       </c>
       <c r="AZ11" t="s">
         <v>77</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -19822,12 +19984,15 @@
         <v>76</v>
       </c>
       <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -19981,11 +20146,14 @@
       </c>
       <c r="AZ13" t="s">
         <v>77</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -20139,11 +20307,14 @@
       </c>
       <c r="AZ14" t="s">
         <v>77</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -20296,12 +20467,15 @@
         <v>77</v>
       </c>
       <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -20455,11 +20629,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>77</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -20612,12 +20789,15 @@
         <v>77</v>
       </c>
       <c r="AZ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -20770,12 +20950,15 @@
         <v>78</v>
       </c>
       <c r="AZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -20929,6 +21112,9 @@
       </c>
       <c r="AZ19" t="s">
         <v>76</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -21057,7 +21243,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21170,7 +21356,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -21283,7 +21469,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -21396,7 +21582,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21509,7 +21695,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -21622,7 +21808,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -21735,7 +21921,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -21848,7 +22034,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -21961,7 +22147,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -22074,7 +22260,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -22187,7 +22373,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -22300,7 +22486,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -22442,7 +22628,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -22507,7 +22693,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -22590,7 +22776,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22673,7 +22859,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -22756,7 +22942,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -22839,7 +23025,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -22922,7 +23108,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -23005,7 +23191,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23088,7 +23274,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -23171,7 +23357,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -23254,7 +23440,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -23416,7 +23602,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -23484,7 +23670,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -23552,7 +23738,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -23620,7 +23806,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -23688,7 +23874,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -23727,7 +23913,7 @@
         <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O6" t="s">
         <v>76</v>
@@ -23756,7 +23942,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -23824,7 +24010,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23892,7 +24078,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -23960,7 +24146,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -24028,7 +24214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -24193,7 +24379,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -24279,7 +24465,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -24365,7 +24551,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -24451,7 +24637,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -24537,7 +24723,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -24623,7 +24809,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -24709,7 +24895,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -24795,7 +24981,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -24881,7 +25067,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24967,7 +25153,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -27732,7 +27918,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T1" t="s">
         <v>183</v>
@@ -27789,7 +27975,7 @@
         <v>268</v>
       </c>
       <c r="AL1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -27856,11 +28042,14 @@
       </c>
       <c r="BH1" t="s">
         <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -28037,12 +28226,15 @@
         <v>78</v>
       </c>
       <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -28219,12 +28411,15 @@
         <v>77</v>
       </c>
       <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -28402,11 +28597,14 @@
       </c>
       <c r="BH4" t="s">
         <v>77</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -28584,11 +28782,14 @@
       </c>
       <c r="BH5" t="s">
         <v>77</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -28766,11 +28967,14 @@
       </c>
       <c r="BH6" t="s">
         <v>77</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -28948,11 +29152,14 @@
       </c>
       <c r="BH7" t="s">
         <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -29129,12 +29336,15 @@
         <v>76</v>
       </c>
       <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -29311,12 +29521,15 @@
         <v>77</v>
       </c>
       <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -29493,12 +29706,15 @@
         <v>77</v>
       </c>
       <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -29675,12 +29891,15 @@
         <v>77</v>
       </c>
       <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -29858,11 +30077,14 @@
       </c>
       <c r="BH12" t="s">
         <v>76</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -30039,12 +30261,15 @@
         <v>78</v>
       </c>
       <c r="BH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -30221,12 +30446,15 @@
         <v>76</v>
       </c>
       <c r="BH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -30404,11 +30632,14 @@
       </c>
       <c r="BH15" t="s">
         <v>77</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -30586,11 +30817,14 @@
       </c>
       <c r="BH16" t="s">
         <v>77</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -30767,12 +31001,15 @@
         <v>77</v>
       </c>
       <c r="BH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -30950,11 +31187,14 @@
       </c>
       <c r="BH18" t="s">
         <v>77</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -31131,12 +31371,15 @@
         <v>77</v>
       </c>
       <c r="BH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -31314,11 +31557,14 @@
       </c>
       <c r="BH20" t="s">
         <v>77</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -31496,6 +31742,9 @@
       </c>
       <c r="BH21" t="s">
         <v>77</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -31550,13 +31799,13 @@
         <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O1" t="s">
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q1" t="s">
         <v>182</v>
@@ -31583,7 +31832,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -31607,7 +31856,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AH1" t="s">
         <v>215</v>
@@ -31616,10 +31865,10 @@
         <v>184</v>
       </c>
       <c r="AJ1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AK1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -31637,7 +31886,7 @@
         <v>152</v>
       </c>
       <c r="AQ1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -31670,7 +31919,7 @@
         <v>154</v>
       </c>
       <c r="BB1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -31682,7 +31931,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BG1" t="s">
         <v>186</v>
@@ -31691,10 +31940,10 @@
         <v>187</v>
       </c>
       <c r="BI1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BJ1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -31740,11 +31989,14 @@
       </c>
       <c r="BY1" t="s">
         <v>57</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -31973,11 +32225,14 @@
       </c>
       <c r="BY2" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -32205,12 +32460,15 @@
         <v>77</v>
       </c>
       <c r="BY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -32439,11 +32697,14 @@
       </c>
       <c r="BY4" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -32671,12 +32932,15 @@
         <v>77</v>
       </c>
       <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -32905,11 +33169,14 @@
       </c>
       <c r="BY6" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -33137,12 +33404,15 @@
         <v>77</v>
       </c>
       <c r="BY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -33370,12 +33640,15 @@
         <v>78</v>
       </c>
       <c r="BY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -33522,7 +33795,7 @@
         <v>76</v>
       </c>
       <c r="AX9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY9" t="s">
         <v>76</v>
@@ -33603,12 +33876,15 @@
         <v>77</v>
       </c>
       <c r="BY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -33836,12 +34112,15 @@
         <v>76</v>
       </c>
       <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -34069,12 +34348,15 @@
         <v>77</v>
       </c>
       <c r="BY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -34303,11 +34585,14 @@
       </c>
       <c r="BY12" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -34536,11 +34821,14 @@
       </c>
       <c r="BY13" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -34768,12 +35056,15 @@
         <v>77</v>
       </c>
       <c r="BY14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -35001,12 +35292,15 @@
         <v>77</v>
       </c>
       <c r="BY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -35235,11 +35529,14 @@
       </c>
       <c r="BY16" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -35468,11 +35765,14 @@
       </c>
       <c r="BY17" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -35701,11 +36001,14 @@
       </c>
       <c r="BY18" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -35934,11 +36237,14 @@
       </c>
       <c r="BY19" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -36166,12 +36472,15 @@
         <v>76</v>
       </c>
       <c r="BY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -36399,12 +36708,15 @@
         <v>78</v>
       </c>
       <c r="BY21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -36633,11 +36945,14 @@
       </c>
       <c r="BY22" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -36865,6 +37180,9 @@
         <v>77</v>
       </c>
       <c r="BY23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37051,10 +37369,13 @@
       <c r="BE1" t="s">
         <v>57</v>
       </c>
+      <c r="BF1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -37223,11 +37544,14 @@
       </c>
       <c r="BE2" t="s">
         <v>77</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -37396,11 +37720,14 @@
       </c>
       <c r="BE3" t="s">
         <v>77</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -37568,12 +37895,15 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -37741,12 +38071,15 @@
         <v>77</v>
       </c>
       <c r="BE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -37915,11 +38248,14 @@
       </c>
       <c r="BE6" t="s">
         <v>77</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -38087,12 +38423,15 @@
         <v>77</v>
       </c>
       <c r="BE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -38261,11 +38600,14 @@
       </c>
       <c r="BE8" t="s">
         <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -38434,11 +38776,14 @@
       </c>
       <c r="BE9" t="s">
         <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -38607,11 +38952,14 @@
       </c>
       <c r="BE10" t="s">
         <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -38780,11 +39128,14 @@
       </c>
       <c r="BE11" t="s">
         <v>77</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -38952,12 +39303,15 @@
         <v>78</v>
       </c>
       <c r="BE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -39125,12 +39479,15 @@
         <v>76</v>
       </c>
       <c r="BE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -39298,12 +39655,15 @@
         <v>78</v>
       </c>
       <c r="BE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -39471,12 +39831,15 @@
         <v>77</v>
       </c>
       <c r="BE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -39645,11 +40008,14 @@
       </c>
       <c r="BE16" t="s">
         <v>77</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -39817,12 +40183,15 @@
         <v>77</v>
       </c>
       <c r="BE17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -39990,12 +40359,15 @@
         <v>77</v>
       </c>
       <c r="BE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -40164,11 +40536,14 @@
       </c>
       <c r="BE19" t="s">
         <v>76</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -40336,12 +40711,15 @@
         <v>77</v>
       </c>
       <c r="BE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -40510,6 +40888,9 @@
       </c>
       <c r="BE21" t="s">
         <v>78</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20429" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20490" uniqueCount="533">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>X2021.11.29</t>
+  </si>
+  <si>
+    <t>X2021.12.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -5439,25 +5442,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J1" t="s">
         <v>152</v>
@@ -5469,7 +5472,7 @@
         <v>123</v>
       </c>
       <c r="M1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5487,7 +5490,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5511,7 +5514,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5526,7 +5529,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5541,12 +5544,12 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -5998,7 +6001,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -6111,7 +6114,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -6450,7 +6453,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -6563,7 +6566,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -6676,7 +6679,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -6902,7 +6905,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -7015,7 +7018,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -7241,7 +7244,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -7354,7 +7357,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -7467,7 +7470,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -7580,7 +7583,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -7693,7 +7696,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -7892,7 +7895,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7929,11 +7932,14 @@
       </c>
       <c r="AL1" t="s">
         <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -8045,11 +8051,14 @@
       </c>
       <c r="AL2" t="s">
         <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -8160,12 +8169,15 @@
         <v>82</v>
       </c>
       <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -8277,11 +8289,14 @@
       </c>
       <c r="AL4" t="s">
         <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -8393,11 +8408,14 @@
       </c>
       <c r="AL5" t="s">
         <v>83</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8508,12 +8526,15 @@
         <v>83</v>
       </c>
       <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -8625,11 +8646,14 @@
       </c>
       <c r="AL7" t="s">
         <v>83</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -8741,11 +8765,14 @@
       </c>
       <c r="AL8" t="s">
         <v>82</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -8857,11 +8884,14 @@
       </c>
       <c r="AL9" t="s">
         <v>83</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -8973,11 +9003,14 @@
       </c>
       <c r="AL10" t="s">
         <v>82</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -9089,11 +9122,14 @@
       </c>
       <c r="AL11" t="s">
         <v>83</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -9205,11 +9241,14 @@
       </c>
       <c r="AL12" t="s">
         <v>83</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -9320,12 +9359,15 @@
         <v>83</v>
       </c>
       <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -9437,11 +9479,14 @@
       </c>
       <c r="AL14" t="s">
         <v>83</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -9552,6 +9597,9 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9607,10 +9655,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9655,13 +9703,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9688,7 +9736,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9727,7 +9775,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9741,7 +9789,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -9914,7 +9962,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -10087,7 +10135,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -10260,7 +10308,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -10433,7 +10481,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10606,7 +10654,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -10779,7 +10827,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -10952,7 +11000,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -11125,7 +11173,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -11298,7 +11346,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -11471,7 +11519,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -11644,7 +11692,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -11817,7 +11865,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -11990,7 +12038,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -12163,7 +12211,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -12336,7 +12384,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -12509,7 +12557,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -12682,7 +12730,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -12855,7 +12903,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -13028,7 +13076,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -13251,10 +13299,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13290,10 +13338,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC1" t="s">
         <v>126</v>
@@ -13358,7 +13406,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -13504,7 +13552,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -13650,7 +13698,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -13796,7 +13844,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -13942,7 +13990,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -14088,7 +14136,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -14234,7 +14282,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -14380,7 +14428,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -14526,7 +14574,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -14672,7 +14720,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -14818,7 +14866,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -14964,7 +15012,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -15110,7 +15158,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -15256,7 +15304,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -15402,7 +15450,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -15495,7 +15543,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG16" t="s">
         <v>82</v>
@@ -15548,7 +15596,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -15694,7 +15742,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -15840,7 +15888,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -15986,7 +16034,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -16132,7 +16180,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -16334,7 +16382,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16435,7 +16483,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -16581,7 +16629,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -16727,7 +16775,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -16873,7 +16921,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -17019,7 +17067,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -17165,7 +17213,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -17311,7 +17359,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -17457,7 +17505,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -17603,7 +17651,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -17749,7 +17797,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -17895,7 +17943,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -18041,7 +18089,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -18187,7 +18235,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -18333,7 +18381,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -18479,7 +18527,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -18625,7 +18673,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -18771,7 +18819,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -18917,7 +18965,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -19086,7 +19134,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19098,7 +19146,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19140,7 +19188,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19173,7 +19221,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19230,7 +19278,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19244,7 +19292,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -19414,7 +19462,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -19584,7 +19632,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -19754,7 +19802,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -19924,7 +19972,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -20094,7 +20142,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -20264,7 +20312,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -20434,7 +20482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -20604,7 +20652,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -20774,7 +20822,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -20944,7 +20992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21114,7 +21162,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21284,7 +21332,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21454,7 +21502,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -21624,7 +21672,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -21794,7 +21842,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -21964,7 +22012,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -22134,7 +22182,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -22375,7 +22423,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22417,7 +22465,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22437,7 +22485,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -22559,7 +22607,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -22681,7 +22729,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -22803,7 +22851,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -22925,7 +22973,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -23047,7 +23095,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -23169,7 +23217,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -23291,7 +23339,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -23413,7 +23461,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -23535,7 +23583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -23657,7 +23705,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -23779,7 +23827,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -23918,7 +23966,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -23930,7 +23978,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -23963,7 +24011,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -23972,7 +24020,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -23998,7 +24046,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -24084,7 +24132,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -24170,7 +24218,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -24256,7 +24304,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -24342,7 +24390,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -24428,7 +24476,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -24514,7 +24562,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -24600,7 +24648,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -24686,7 +24734,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -24772,7 +24820,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -24920,7 +24968,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -24929,7 +24977,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -24940,7 +24988,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -25011,7 +25059,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25082,7 +25130,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -25153,7 +25201,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -25224,7 +25272,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -25263,7 +25311,7 @@
         <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O6" t="s">
         <v>82</v>
@@ -25295,7 +25343,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -25366,7 +25414,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -25437,7 +25485,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -25508,7 +25556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -25579,7 +25627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -25685,7 +25733,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -25721,13 +25769,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -25753,7 +25801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -25845,7 +25893,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25937,7 +25985,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -26029,7 +26077,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -26121,7 +26169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -26213,7 +26261,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -26305,7 +26353,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -26397,7 +26445,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -26489,7 +26537,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -26581,7 +26629,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -29595,7 +29643,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29637,10 +29685,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -29685,16 +29733,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -29724,7 +29772,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -29763,7 +29811,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -29773,11 +29821,14 @@
       </c>
       <c r="BL1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -29966,12 +30017,15 @@
         <v>83</v>
       </c>
       <c r="BL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -30161,11 +30215,14 @@
       </c>
       <c r="BL3" t="s">
         <v>83</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -30354,12 +30411,15 @@
         <v>83</v>
       </c>
       <c r="BL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -30548,12 +30608,15 @@
         <v>83</v>
       </c>
       <c r="BL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -30743,11 +30806,14 @@
       </c>
       <c r="BL6" t="s">
         <v>83</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -30937,11 +31003,14 @@
       </c>
       <c r="BL7" t="s">
         <v>83</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -31130,12 +31199,15 @@
         <v>82</v>
       </c>
       <c r="BL8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -31324,12 +31396,15 @@
         <v>83</v>
       </c>
       <c r="BL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -31518,12 +31593,15 @@
         <v>82</v>
       </c>
       <c r="BL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -31713,11 +31791,14 @@
       </c>
       <c r="BL11" t="s">
         <v>83</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -31907,11 +31988,14 @@
       </c>
       <c r="BL12" t="s">
         <v>83</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -32101,11 +32185,14 @@
       </c>
       <c r="BL13" t="s">
         <v>82</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -32295,11 +32382,14 @@
       </c>
       <c r="BL14" t="s">
         <v>83</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -32489,11 +32579,14 @@
       </c>
       <c r="BL15" t="s">
         <v>83</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -32683,11 +32776,14 @@
       </c>
       <c r="BL16" t="s">
         <v>83</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -32876,12 +32972,15 @@
         <v>83</v>
       </c>
       <c r="BL17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -33070,12 +33169,15 @@
         <v>84</v>
       </c>
       <c r="BL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -33265,11 +33367,14 @@
       </c>
       <c r="BL19" t="s">
         <v>82</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -33458,12 +33563,15 @@
         <v>83</v>
       </c>
       <c r="BL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -33652,6 +33760,9 @@
         <v>83</v>
       </c>
       <c r="BL21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -33680,7 +33791,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -33704,19 +33815,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -33740,7 +33851,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -33764,19 +33875,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AH1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AJ1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -33794,7 +33905,7 @@
         <v>158</v>
       </c>
       <c r="AQ1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -33806,7 +33917,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -33827,7 +33938,7 @@
         <v>160</v>
       </c>
       <c r="BB1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -33839,19 +33950,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BG1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BH1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BI1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BJ1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -33863,7 +33974,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -33899,7 +34010,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -33913,7 +34024,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -34158,7 +34269,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -34403,7 +34514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -34648,7 +34759,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -34893,7 +35004,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -35138,7 +35249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -35383,7 +35494,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -35628,7 +35739,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -35775,7 +35886,7 @@
         <v>82</v>
       </c>
       <c r="AX9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AY9" t="s">
         <v>82</v>
@@ -35873,7 +35984,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -36118,7 +36229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -36363,7 +36474,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -36608,7 +36719,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -36853,7 +36964,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -37098,7 +37209,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -37343,7 +37454,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -37588,7 +37699,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -37833,7 +37944,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -38078,7 +38189,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -38323,7 +38434,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -38568,7 +38679,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -38813,7 +38924,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -39058,7 +39169,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -39326,7 +39437,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -39368,7 +39479,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -39419,7 +39530,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -39449,7 +39560,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -39485,7 +39596,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -39499,7 +39610,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -39684,7 +39795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -39869,7 +39980,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -40054,7 +40165,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -40239,7 +40350,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -40424,7 +40535,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -40609,7 +40720,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -40794,7 +40905,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -40979,7 +41090,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -41164,7 +41275,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -41349,7 +41460,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -41534,7 +41645,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -41719,7 +41830,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -41904,7 +42015,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -42089,7 +42200,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -42274,7 +42385,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -42459,7 +42570,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -42644,7 +42755,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -42829,7 +42940,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -43014,7 +43125,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -49743,10 +49854,13 @@
       <c r="AW1" t="s">
         <v>62</v>
       </c>
+      <c r="AX1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -49890,12 +50004,15 @@
         <v>83</v>
       </c>
       <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -50040,11 +50157,14 @@
       </c>
       <c r="AW3" t="s">
         <v>83</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -50189,11 +50309,14 @@
       </c>
       <c r="AW4" t="s">
         <v>83</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -50338,11 +50461,14 @@
       </c>
       <c r="AW5" t="s">
         <v>83</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -50487,11 +50613,14 @@
       </c>
       <c r="AW6" t="s">
         <v>83</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -50636,11 +50765,14 @@
       </c>
       <c r="AW7" t="s">
         <v>83</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -50784,12 +50916,15 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -50933,12 +51068,15 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -51082,12 +51220,15 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -51232,11 +51373,14 @@
       </c>
       <c r="AW11" t="s">
         <v>82</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -51381,11 +51525,14 @@
       </c>
       <c r="AW12" t="s">
         <v>83</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -51530,11 +51677,14 @@
       </c>
       <c r="AW13" t="s">
         <v>83</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -51678,12 +51828,15 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -51828,11 +51981,14 @@
       </c>
       <c r="AW15" t="s">
         <v>83</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -51976,12 +52132,15 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -52126,11 +52285,14 @@
       </c>
       <c r="AW17" t="s">
         <v>83</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -52275,11 +52437,14 @@
       </c>
       <c r="AW18" t="s">
         <v>83</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -52423,12 +52588,15 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -52572,12 +52740,15 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -52721,12 +52892,15 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -52871,11 +53045,14 @@
       </c>
       <c r="AW22" t="s">
         <v>82</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -53019,12 +53196,15 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -53168,12 +53348,15 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -53317,6 +53500,9 @@
         <v>83</v>
       </c>
       <c r="AW25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -53354,10 +53540,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -53369,7 +53555,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -53381,7 +53567,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -53396,7 +53582,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -53405,10 +53591,10 @@
         <v>159</v>
       </c>
       <c r="Y1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -53426,10 +53612,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -53440,7 +53626,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -53547,7 +53733,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -53654,7 +53840,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -53761,7 +53947,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -53868,7 +54054,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -53975,7 +54161,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -54082,7 +54268,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -54189,7 +54375,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -54296,7 +54482,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -54403,7 +54589,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -54510,7 +54696,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -54617,7 +54803,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -54724,7 +54910,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -54831,7 +55017,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -54938,7 +55124,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -55045,7 +55231,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -55152,7 +55338,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -55259,7 +55445,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -55366,7 +55552,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -55473,7 +55659,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -55580,7 +55766,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -55687,7 +55873,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -55794,7 +55980,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
@@ -55901,7 +56087,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -56034,7 +56220,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -56043,7 +56229,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -56058,7 +56244,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -56070,10 +56256,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -56085,16 +56271,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -56109,10 +56295,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -56123,7 +56309,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -56227,7 +56413,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -56331,7 +56517,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -56435,7 +56621,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -56539,7 +56725,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -56643,7 +56829,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -56747,7 +56933,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -56851,7 +57037,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -56955,7 +57141,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -57059,7 +57245,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -57163,7 +57349,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -57267,7 +57453,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -57371,7 +57557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -57475,7 +57661,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -57579,7 +57765,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -57683,7 +57869,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -57787,7 +57973,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -57891,7 +58077,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -57995,7 +58181,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -58099,7 +58285,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -58203,7 +58389,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -58307,7 +58493,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -58411,7 +58597,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -58515,7 +58701,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -58639,13 +58825,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -58657,7 +58843,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -58669,19 +58855,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -58690,10 +58876,10 @@
         <v>159</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -58714,7 +58900,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -58725,7 +58911,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -58820,7 +59006,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -58915,7 +59101,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -59010,7 +59196,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -59105,7 +59291,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -59200,7 +59386,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -59295,7 +59481,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -59390,7 +59576,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -59485,7 +59671,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -59580,7 +59766,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -59675,7 +59861,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -59770,7 +59956,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -59865,7 +60051,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -59960,7 +60146,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -60055,7 +60241,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -60150,7 +60336,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -60245,7 +60431,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -60340,7 +60526,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -60435,7 +60621,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -60530,7 +60716,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -60625,7 +60811,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -60720,7 +60906,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -60815,7 +61001,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -61014,7 +61200,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -61073,7 +61259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -61225,7 +61411,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -61377,7 +61563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -61529,7 +61715,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -61681,7 +61867,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -61833,7 +62019,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -61985,7 +62171,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -62137,7 +62323,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -62289,7 +62475,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -62441,7 +62627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -62593,7 +62779,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -62745,7 +62931,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -62897,7 +63083,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -63049,7 +63235,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -63201,7 +63387,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -63353,7 +63539,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -63505,7 +63691,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -63657,7 +63843,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -63809,7 +63995,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -63961,7 +64147,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21120" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="542">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>X2021.12.06</t>
+  </si>
+  <si>
+    <t>X2021.12.28</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2021.12.30</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -5574,28 +5583,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5604,7 +5613,7 @@
         <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5616,13 +5625,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5646,7 +5655,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5661,7 +5670,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5676,15 +5685,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -5800,7 +5809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5916,7 +5925,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6032,7 +6041,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6148,7 +6157,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -6264,7 +6273,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6380,7 +6389,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6496,7 +6505,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6612,7 +6621,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6728,7 +6737,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6844,7 +6853,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6960,7 +6969,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7076,7 +7085,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7192,7 +7201,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -7308,7 +7317,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7424,7 +7433,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7540,7 +7549,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7656,7 +7665,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7772,7 +7781,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7888,7 +7897,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8090,7 +8099,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8129,12 +8138,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8253,7 +8262,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -8372,7 +8381,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8491,7 +8500,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8610,7 +8619,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8729,7 +8738,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8848,7 +8857,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8967,7 +8976,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9086,7 +9095,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9205,7 +9214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9324,7 +9333,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -9443,7 +9452,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9562,7 +9571,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9681,7 +9690,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9850,10 +9859,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9898,13 +9907,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AE1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9931,7 +9940,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9970,7 +9979,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9982,15 +9991,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BG1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10169,7 +10178,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10348,7 +10357,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10527,7 +10536,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10706,7 +10715,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10885,7 +10894,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11064,7 +11073,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -11243,7 +11252,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11422,7 +11431,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11601,7 +11610,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11780,7 +11789,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11959,7 +11968,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12138,7 +12147,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12317,7 +12326,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12496,7 +12505,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12675,7 +12684,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12854,7 +12863,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13033,7 +13042,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13212,7 +13221,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13391,7 +13400,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13620,10 +13629,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13659,10 +13668,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
         <v>128</v>
@@ -13692,7 +13701,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AM1" t="s">
         <v>129</v>
@@ -13727,7 +13736,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13873,7 +13882,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14019,7 +14028,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14165,7 +14174,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14311,7 +14320,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14457,7 +14466,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14603,7 +14612,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14749,7 +14758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14895,7 +14904,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15041,7 +15050,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15187,7 +15196,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15333,7 +15342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15479,7 +15488,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15625,7 +15634,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15771,7 +15780,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15864,7 +15873,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG16" t="s">
         <v>84</v>
@@ -15917,7 +15926,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16063,7 +16072,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16209,7 +16218,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16355,7 +16364,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16501,7 +16510,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16703,7 +16712,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16802,18 +16811,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AX1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AY1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16968,7 +16977,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17123,7 +17132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17278,7 +17287,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17433,7 +17442,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17588,7 +17597,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17743,7 +17752,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17898,7 +17907,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -18053,7 +18062,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18208,7 +18217,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18363,7 +18372,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18518,7 +18527,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18673,7 +18682,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18828,7 +18837,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -18983,7 +18992,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19138,7 +19147,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19293,7 +19302,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19448,7 +19457,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19626,7 +19635,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19638,7 +19647,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19680,7 +19689,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19713,7 +19722,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19746,7 +19755,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AT1" t="s">
         <v>129</v>
@@ -19770,7 +19779,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19780,11 +19789,20 @@
       </c>
       <c r="BD1" t="s">
         <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19950,11 +19968,20 @@
       </c>
       <c r="BD2" t="s">
         <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20120,11 +20147,20 @@
       </c>
       <c r="BD3" t="s">
         <v>85</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20290,11 +20326,20 @@
       </c>
       <c r="BD4" t="s">
         <v>85</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20460,11 +20505,20 @@
       </c>
       <c r="BD5" t="s">
         <v>86</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20629,12 +20683,21 @@
         <v>84</v>
       </c>
       <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20799,12 +20862,21 @@
         <v>84</v>
       </c>
       <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -20969,12 +21041,21 @@
         <v>86</v>
       </c>
       <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21139,12 +21220,21 @@
         <v>84</v>
       </c>
       <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21310,11 +21400,20 @@
       </c>
       <c r="BD10" t="s">
         <v>85</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21480,11 +21579,20 @@
       </c>
       <c r="BD11" t="s">
         <v>85</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21650,11 +21758,20 @@
       </c>
       <c r="BD12" t="s">
         <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21819,12 +21936,21 @@
         <v>85</v>
       </c>
       <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -21989,12 +22115,21 @@
         <v>84</v>
       </c>
       <c r="BD14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22160,11 +22295,20 @@
       </c>
       <c r="BD15" t="s">
         <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22329,12 +22473,21 @@
         <v>84</v>
       </c>
       <c r="BD16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -22499,12 +22652,21 @@
         <v>86</v>
       </c>
       <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22669,12 +22831,21 @@
         <v>85</v>
       </c>
       <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -22840,6 +23011,15 @@
       </c>
       <c r="BD19" t="s">
         <v>86</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22915,7 +23095,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22957,7 +23137,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22975,7 +23155,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -22983,7 +23163,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23111,7 +23291,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -23239,7 +23419,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -23367,7 +23547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23495,7 +23675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23623,7 +23803,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23751,7 +23931,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -23879,7 +24059,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24007,7 +24187,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -24135,7 +24315,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24263,7 +24443,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24391,7 +24571,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24536,7 +24716,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24548,7 +24728,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24566,7 +24746,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24581,7 +24761,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24590,7 +24770,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24615,11 +24795,14 @@
       </c>
       <c r="AC1" t="s">
         <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24704,11 +24887,14 @@
       </c>
       <c r="AC2" t="s">
         <v>85</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24793,11 +24979,14 @@
       </c>
       <c r="AC3" t="s">
         <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -24882,11 +25071,14 @@
       </c>
       <c r="AC4" t="s">
         <v>85</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -24971,11 +25163,14 @@
       </c>
       <c r="AC5" t="s">
         <v>85</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25059,12 +25254,15 @@
         <v>85</v>
       </c>
       <c r="AC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25148,12 +25346,15 @@
         <v>84</v>
       </c>
       <c r="AC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25238,11 +25439,14 @@
       </c>
       <c r="AC8" t="s">
         <v>84</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25326,12 +25530,15 @@
         <v>85</v>
       </c>
       <c r="AC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -25415,12 +25622,15 @@
         <v>85</v>
       </c>
       <c r="AC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25505,6 +25715,9 @@
       </c>
       <c r="AC11" t="s">
         <v>85</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -25541,7 +25754,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25571,7 +25784,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25580,7 +25793,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25589,15 +25802,18 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25669,12 +25885,15 @@
         <v>84</v>
       </c>
       <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25747,11 +25966,14 @@
       </c>
       <c r="Y3" t="s">
         <v>85</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25824,11 +26046,14 @@
       </c>
       <c r="Y4" t="s">
         <v>85</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25901,11 +26126,14 @@
       </c>
       <c r="Y5" t="s">
         <v>85</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25944,7 +26172,7 @@
         <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O6" t="s">
         <v>84</v>
@@ -25977,12 +26205,15 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26055,11 +26286,14 @@
       </c>
       <c r="Y7" t="s">
         <v>85</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26132,11 +26366,14 @@
       </c>
       <c r="Y8" t="s">
         <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -26208,12 +26445,15 @@
         <v>86</v>
       </c>
       <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26285,12 +26525,15 @@
         <v>85</v>
       </c>
       <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26363,6 +26606,9 @@
       </c>
       <c r="Y11" t="s">
         <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -26402,7 +26648,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26438,19 +26684,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="W1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26468,10 +26714,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -26479,7 +26725,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -26580,7 +26826,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26681,7 +26927,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26782,7 +27028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26883,7 +27129,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -26984,7 +27230,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27085,7 +27331,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27186,7 +27432,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27287,7 +27533,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27388,7 +27634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -30411,7 +30657,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30453,10 +30699,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="T1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30501,16 +30747,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AK1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30540,7 +30786,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30552,7 +30798,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BA1" t="s">
         <v>130</v>
@@ -30579,7 +30825,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30591,18 +30837,18 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BN1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BO1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -30805,7 +31051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31008,7 +31254,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31211,7 +31457,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31414,7 +31660,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31617,7 +31863,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -31820,7 +32066,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32023,7 +32269,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32226,7 +32472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32429,7 +32675,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -32632,7 +32878,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -32835,7 +33081,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33038,7 +33284,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33241,7 +33487,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33444,7 +33690,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33647,7 +33893,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -33850,7 +34096,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34053,7 +34299,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34256,7 +34502,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34459,7 +34705,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34685,7 +34931,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34709,19 +34955,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34745,7 +34991,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -34769,19 +35015,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AH1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AK1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -34793,13 +35039,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AP1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AQ1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -34811,7 +35057,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -34826,13 +35072,13 @@
         <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BA1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BB1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -34844,19 +35090,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BG1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BH1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BI1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BJ1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -34868,7 +35114,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -34880,7 +35126,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -34904,7 +35150,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -34918,7 +35164,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35163,7 +35409,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35408,7 +35654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35653,7 +35899,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -35898,7 +36144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36143,7 +36389,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -36388,7 +36634,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36633,7 +36879,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -36780,7 +37026,7 @@
         <v>84</v>
       </c>
       <c r="AX9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AY9" t="s">
         <v>84</v>
@@ -36878,7 +37124,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37123,7 +37369,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37368,7 +37614,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37613,7 +37859,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -37858,7 +38104,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38103,7 +38349,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38348,7 +38594,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38593,7 +38839,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -38838,7 +39084,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39083,7 +39329,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39328,7 +39574,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39573,7 +39819,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -39818,7 +40064,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40063,7 +40309,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40331,7 +40577,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40373,7 +40619,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40424,7 +40670,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40454,7 +40700,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40466,7 +40712,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40490,7 +40736,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40502,16 +40748,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BK1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="BL1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="BM1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40522,7 +40768,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40725,7 +40971,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -40928,7 +41174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41131,7 +41377,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41334,7 +41580,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -41537,7 +41783,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41740,7 +41986,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -41943,7 +42189,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42146,7 +42392,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42349,7 +42595,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42552,7 +42798,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42755,7 +43001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -42958,7 +43204,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43161,7 +43407,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43364,7 +43610,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43567,7 +43813,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -43770,7 +44016,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -43973,7 +44219,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44176,7 +44422,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44379,7 +44625,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -47932,10 +48178,19 @@
       <c r="AZ1" t="s">
         <v>65</v>
       </c>
+      <c r="BA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -48088,12 +48343,21 @@
         <v>85</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48246,12 +48510,21 @@
         <v>85</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -48404,12 +48677,21 @@
         <v>85</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48562,12 +48844,21 @@
         <v>85</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -48721,11 +49012,20 @@
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -48878,12 +49178,21 @@
         <v>85</v>
       </c>
       <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49036,12 +49345,21 @@
         <v>86</v>
       </c>
       <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49194,12 +49512,21 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49352,12 +49679,21 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49510,12 +49846,21 @@
         <v>85</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -49668,12 +50013,21 @@
         <v>84</v>
       </c>
       <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -49826,12 +50180,21 @@
         <v>85</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -49984,12 +50347,21 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50143,11 +50515,20 @@
       </c>
       <c r="AZ15" t="s">
         <v>85</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50300,12 +50681,21 @@
         <v>85</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50458,12 +50848,21 @@
         <v>85</v>
       </c>
       <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -50616,12 +51015,21 @@
         <v>85</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -50774,12 +51182,21 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -50932,12 +51349,21 @@
         <v>85</v>
       </c>
       <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51090,6 +51516,15 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51121,10 +51556,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51145,10 +51580,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51160,10 +51595,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51181,10 +51616,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51199,10 +51634,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51217,7 +51652,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM1" t="s">
         <v>106</v>
@@ -51232,7 +51667,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51253,18 +51688,24 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
       </c>
       <c r="AZ1" t="s">
         <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51417,12 +51858,18 @@
         <v>84</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -51575,12 +52022,18 @@
         <v>84</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -51733,12 +52186,18 @@
         <v>84</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -51891,12 +52350,18 @@
         <v>86</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -52049,12 +52514,18 @@
         <v>84</v>
       </c>
       <c r="AZ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52208,11 +52679,17 @@
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52366,11 +52843,17 @@
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -52523,12 +53006,18 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -52681,12 +53170,18 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -52839,12 +53334,18 @@
         <v>84</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -52998,11 +53499,17 @@
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53155,12 +53662,18 @@
         <v>84</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53313,12 +53826,18 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53471,12 +53990,18 @@
         <v>85</v>
       </c>
       <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -53629,12 +54154,18 @@
         <v>84</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -53788,11 +54319,17 @@
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -53945,12 +54482,18 @@
         <v>84</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54103,12 +54646,18 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54262,11 +54811,17 @@
       </c>
       <c r="AZ20" t="s">
         <v>86</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54419,12 +54974,18 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -54577,12 +55138,18 @@
         <v>84</v>
       </c>
       <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -54736,11 +55303,17 @@
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -54893,12 +55466,18 @@
         <v>84</v>
       </c>
       <c r="AZ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -55052,6 +55631,12 @@
       </c>
       <c r="AZ25" t="s">
         <v>85</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55076,7 +55661,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55088,34 +55673,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55124,31 +55709,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55160,10 +55745,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55176,11 +55761,17 @@
       </c>
       <c r="AK1" t="s">
         <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -55288,12 +55879,18 @@
         <v>85</v>
       </c>
       <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -55401,12 +55998,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -55514,12 +56117,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -55627,12 +56236,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -55740,12 +56355,18 @@
         <v>84</v>
       </c>
       <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -55853,12 +56474,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -55966,12 +56593,18 @@
         <v>85</v>
       </c>
       <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56079,12 +56712,18 @@
         <v>84</v>
       </c>
       <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -56193,11 +56832,17 @@
       </c>
       <c r="AK10" t="s">
         <v>85</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -56305,12 +56950,18 @@
         <v>85</v>
       </c>
       <c r="AK11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -56418,12 +57069,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -56531,12 +57188,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -56644,12 +57307,18 @@
         <v>85</v>
       </c>
       <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -56757,12 +57426,18 @@
         <v>85</v>
       </c>
       <c r="AK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -56870,12 +57545,18 @@
         <v>84</v>
       </c>
       <c r="AK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -56983,12 +57664,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57096,12 +57783,18 @@
         <v>85</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -57209,12 +57902,18 @@
         <v>84</v>
       </c>
       <c r="AK19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -57322,12 +58021,18 @@
         <v>85</v>
       </c>
       <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -57436,11 +58141,17 @@
       </c>
       <c r="AK21" t="s">
         <v>84</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -57548,12 +58259,18 @@
         <v>85</v>
       </c>
       <c r="AK22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -57661,12 +58378,18 @@
         <v>84</v>
       </c>
       <c r="AK23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -57774,12 +58497,18 @@
         <v>84</v>
       </c>
       <c r="AK24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -57887,6 +58616,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -57912,13 +58647,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -57927,7 +58662,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -57936,13 +58671,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -57954,37 +58689,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -57993,10 +58728,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58006,11 +58741,14 @@
       </c>
       <c r="AI1" t="s">
         <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -58112,12 +58850,15 @@
         <v>84</v>
       </c>
       <c r="AI2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -58219,12 +58960,15 @@
         <v>84</v>
       </c>
       <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -58326,12 +59070,15 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -58433,12 +59180,15 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -58540,12 +59290,15 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -58647,12 +59400,15 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -58754,12 +59510,15 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -58861,12 +59620,15 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -58968,12 +59730,15 @@
         <v>85</v>
       </c>
       <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -59076,11 +59841,14 @@
       </c>
       <c r="AI11" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59182,12 +59950,15 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -59290,11 +60061,14 @@
       </c>
       <c r="AI13" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -59396,12 +60170,15 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -59503,12 +60280,15 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -59610,12 +60390,15 @@
         <v>84</v>
       </c>
       <c r="AI16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -59717,12 +60500,15 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -59824,12 +60610,15 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -59931,12 +60720,15 @@
         <v>85</v>
       </c>
       <c r="AI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -60039,11 +60831,14 @@
       </c>
       <c r="AI20" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -60146,11 +60941,14 @@
       </c>
       <c r="AI21" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -60252,12 +61050,15 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -60360,11 +61161,14 @@
       </c>
       <c r="AI23" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -60467,11 +61271,14 @@
       </c>
       <c r="AI24" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -60573,6 +61380,9 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -60598,61 +61408,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -60661,7 +61471,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -60673,7 +61483,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -60683,11 +61493,14 @@
       </c>
       <c r="AF1" t="s">
         <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -60781,11 +61594,14 @@
       </c>
       <c r="AF2" t="s">
         <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -60878,12 +61694,15 @@
         <v>84</v>
       </c>
       <c r="AF3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -60976,12 +61795,15 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -61074,12 +61896,15 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61172,12 +61997,15 @@
         <v>84</v>
       </c>
       <c r="AF6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -61271,11 +62099,14 @@
       </c>
       <c r="AF7" t="s">
         <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -61368,12 +62199,15 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -61466,12 +62300,15 @@
         <v>84</v>
       </c>
       <c r="AF9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -61565,11 +62402,14 @@
       </c>
       <c r="AF10" t="s">
         <v>84</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -61662,12 +62502,15 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -61761,11 +62604,14 @@
       </c>
       <c r="AF12" t="s">
         <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -61858,12 +62704,15 @@
         <v>85</v>
       </c>
       <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -61957,11 +62806,14 @@
       </c>
       <c r="AF14" t="s">
         <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -62054,12 +62906,15 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -62153,11 +63008,14 @@
       </c>
       <c r="AF16" t="s">
         <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -62251,11 +63109,14 @@
       </c>
       <c r="AF17" t="s">
         <v>85</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -62348,12 +63209,15 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -62446,12 +63310,15 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -62544,12 +63411,15 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -62642,12 +63512,15 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -62740,12 +63613,15 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -62839,11 +63715,14 @@
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -62937,6 +63816,9 @@
       </c>
       <c r="AF24" t="s">
         <v>87</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -63045,7 +63927,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63102,12 +63984,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -63262,7 +64144,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -63417,7 +64299,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -63572,7 +64454,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -63727,7 +64609,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63882,7 +64764,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64037,7 +64919,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -64192,7 +65074,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -64347,7 +65229,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -64502,7 +65384,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -64657,7 +65539,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -64812,7 +65694,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -64967,7 +65849,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -65122,7 +66004,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -65277,7 +66159,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -65432,7 +66314,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -65587,7 +66469,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -65742,7 +66624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -65897,7 +66779,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66052,7 +66934,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="546">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>X2021.12.30</t>
+  </si>
+  <si>
+    <t>X2022.01.01</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.03</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1442,6 +1451,9 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>X2021.12.31</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -5583,28 +5595,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5613,7 +5625,7 @@
         <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5625,13 +5637,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5655,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5670,7 +5682,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5685,15 +5697,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -5809,7 +5821,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5925,7 +5937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6041,7 +6053,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6157,7 +6169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -6273,7 +6285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6389,7 +6401,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6505,7 +6517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6621,7 +6633,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6737,7 +6749,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6853,7 +6865,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6969,7 +6981,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7085,7 +7097,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7201,7 +7213,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -7317,7 +7329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7433,7 +7445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7549,7 +7561,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7665,7 +7677,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7781,7 +7793,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7897,7 +7909,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8099,7 +8111,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8138,12 +8150,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8262,7 +8274,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -8381,7 +8393,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8500,7 +8512,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8619,7 +8631,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8738,7 +8750,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8857,7 +8869,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8976,7 +8988,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9095,7 +9107,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9214,7 +9226,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9333,7 +9345,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -9452,7 +9464,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9571,7 +9583,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9690,7 +9702,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9859,10 +9871,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9907,13 +9919,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AE1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9940,7 +9952,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9979,7 +9991,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9991,15 +10003,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BG1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10178,7 +10190,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10357,7 +10369,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10536,7 +10548,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10715,7 +10727,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10894,7 +10906,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11073,7 +11085,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -11252,7 +11264,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11431,7 +11443,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11610,7 +11622,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11789,7 +11801,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11968,7 +11980,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12147,7 +12159,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12326,7 +12338,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12505,7 +12517,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12684,7 +12696,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12863,7 +12875,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13042,7 +13054,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13221,7 +13233,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13400,7 +13412,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13629,10 +13641,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13668,10 +13680,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AC1" t="s">
         <v>128</v>
@@ -13701,7 +13713,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM1" t="s">
         <v>129</v>
@@ -13736,7 +13748,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13882,7 +13894,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14028,7 +14040,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14174,7 +14186,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14320,7 +14332,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14466,7 +14478,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14612,7 +14624,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14758,7 +14770,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14904,7 +14916,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15050,7 +15062,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15196,7 +15208,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15342,7 +15354,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15488,7 +15500,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15634,7 +15646,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15780,7 +15792,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15873,7 +15885,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG16" t="s">
         <v>84</v>
@@ -15926,7 +15938,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16072,7 +16084,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16218,7 +16230,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16364,7 +16376,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16510,7 +16522,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16712,7 +16724,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16811,18 +16823,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AX1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AY1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16977,7 +16989,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17132,7 +17144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17287,7 +17299,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17442,7 +17454,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17597,7 +17609,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17752,7 +17764,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17907,7 +17919,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -18062,7 +18074,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18217,7 +18229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18372,7 +18384,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18527,7 +18539,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18682,7 +18694,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18837,7 +18849,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -18992,7 +19004,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19147,7 +19159,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19302,7 +19314,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19457,7 +19469,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19635,7 +19647,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19647,7 +19659,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19689,7 +19701,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19722,7 +19734,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19755,7 +19767,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT1" t="s">
         <v>129</v>
@@ -19779,7 +19791,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19798,11 +19810,17 @@
       </c>
       <c r="BG1" t="s">
         <v>135</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19977,11 +19995,17 @@
       </c>
       <c r="BG2" t="s">
         <v>85</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20155,12 +20179,18 @@
         <v>84</v>
       </c>
       <c r="BG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20335,11 +20365,17 @@
       </c>
       <c r="BG4" t="s">
         <v>86</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20513,12 +20549,18 @@
         <v>85</v>
       </c>
       <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20692,12 +20734,18 @@
         <v>84</v>
       </c>
       <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20871,12 +20919,18 @@
         <v>84</v>
       </c>
       <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21050,12 +21104,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21229,12 +21289,18 @@
         <v>85</v>
       </c>
       <c r="BG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21408,12 +21474,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21588,11 +21660,17 @@
       </c>
       <c r="BG11" t="s">
         <v>84</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21767,11 +21845,17 @@
       </c>
       <c r="BG12" t="s">
         <v>85</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21945,12 +22029,18 @@
         <v>86</v>
       </c>
       <c r="BG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22125,11 +22215,17 @@
       </c>
       <c r="BG14" t="s">
         <v>85</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22304,11 +22400,17 @@
       </c>
       <c r="BG15" t="s">
         <v>86</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22483,11 +22585,17 @@
       </c>
       <c r="BG16" t="s">
         <v>85</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -22661,12 +22769,18 @@
         <v>85</v>
       </c>
       <c r="BG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22841,11 +22955,17 @@
       </c>
       <c r="BG18" t="s">
         <v>84</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -23019,6 +23139,12 @@
         <v>84</v>
       </c>
       <c r="BG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23095,7 +23221,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23137,7 +23263,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23155,7 +23281,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23163,7 +23289,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23291,7 +23417,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -23419,7 +23545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -23547,7 +23673,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23675,7 +23801,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23803,7 +23929,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23931,7 +24057,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -24059,7 +24185,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24187,7 +24313,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -24315,7 +24441,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24443,7 +24569,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24571,7 +24697,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24716,7 +24842,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24728,7 +24854,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24746,7 +24872,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24761,7 +24887,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24770,7 +24896,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24798,11 +24924,14 @@
       </c>
       <c r="AD1" t="s">
         <v>134</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24890,11 +25019,14 @@
       </c>
       <c r="AD2" t="s">
         <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24981,12 +25113,15 @@
         <v>85</v>
       </c>
       <c r="AD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25074,11 +25209,14 @@
       </c>
       <c r="AD4" t="s">
         <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25166,11 +25304,14 @@
       </c>
       <c r="AD5" t="s">
         <v>84</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25258,11 +25399,14 @@
       </c>
       <c r="AD6" t="s">
         <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25350,11 +25494,14 @@
       </c>
       <c r="AD7" t="s">
         <v>86</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25442,11 +25589,14 @@
       </c>
       <c r="AD8" t="s">
         <v>85</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25533,12 +25683,15 @@
         <v>84</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -25626,11 +25779,14 @@
       </c>
       <c r="AD10" t="s">
         <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25718,6 +25874,9 @@
       </c>
       <c r="AD11" t="s">
         <v>84</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -25754,7 +25913,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25784,7 +25943,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25793,7 +25952,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25802,18 +25961,21 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
         <v>134</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25888,12 +26050,15 @@
         <v>85</v>
       </c>
       <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25968,12 +26133,15 @@
         <v>85</v>
       </c>
       <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26048,12 +26216,15 @@
         <v>85</v>
       </c>
       <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26129,11 +26300,14 @@
       </c>
       <c r="Z5" t="s">
         <v>84</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -26172,7 +26346,7 @@
         <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O6" t="s">
         <v>84</v>
@@ -26209,11 +26383,14 @@
       </c>
       <c r="Z6" t="s">
         <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26289,11 +26466,14 @@
       </c>
       <c r="Z7" t="s">
         <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26368,12 +26548,15 @@
         <v>85</v>
       </c>
       <c r="Z8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -26449,11 +26632,14 @@
       </c>
       <c r="Z9" t="s">
         <v>84</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26529,11 +26715,14 @@
       </c>
       <c r="Z10" t="s">
         <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26609,6 +26798,9 @@
       </c>
       <c r="Z11" t="s">
         <v>86</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -26648,7 +26840,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26684,19 +26876,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="W1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26714,18 +26906,21 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AF1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -26822,11 +27017,14 @@
       </c>
       <c r="AG2" t="s">
         <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26923,11 +27121,14 @@
       </c>
       <c r="AG3" t="s">
         <v>85</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -27023,12 +27224,15 @@
         <v>85</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -27124,12 +27328,15 @@
         <v>85</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27226,11 +27433,14 @@
       </c>
       <c r="AG6" t="s">
         <v>84</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27326,12 +27536,15 @@
         <v>84</v>
       </c>
       <c r="AG7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27428,11 +27641,14 @@
       </c>
       <c r="AG8" t="s">
         <v>86</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27529,11 +27745,14 @@
       </c>
       <c r="AG9" t="s">
         <v>85</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27630,11 +27849,14 @@
       </c>
       <c r="AG10" t="s">
         <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27731,6 +27953,9 @@
       </c>
       <c r="AG11" t="s">
         <v>86</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30657,7 +30882,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30699,10 +30924,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="T1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30747,16 +30972,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AJ1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AK1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30786,7 +31011,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30798,7 +31023,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA1" t="s">
         <v>130</v>
@@ -30825,7 +31050,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30837,18 +31062,27 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BN1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BO1" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>472</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31046,12 +31280,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31249,12 +31492,21 @@
         <v>84</v>
       </c>
       <c r="BO3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31453,11 +31705,20 @@
       </c>
       <c r="BO4" t="s">
         <v>85</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31655,12 +31916,21 @@
         <v>85</v>
       </c>
       <c r="BO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31858,12 +32128,21 @@
         <v>84</v>
       </c>
       <c r="BO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32062,11 +32341,20 @@
       </c>
       <c r="BO7" t="s">
         <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32264,12 +32552,21 @@
         <v>84</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32467,12 +32764,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32670,12 +32976,21 @@
         <v>84</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -32873,12 +33188,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33077,11 +33401,20 @@
       </c>
       <c r="BO12" t="s">
         <v>85</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33280,11 +33613,20 @@
       </c>
       <c r="BO13" t="s">
         <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33482,12 +33824,21 @@
         <v>84</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33686,11 +34037,20 @@
       </c>
       <c r="BO15" t="s">
         <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33889,11 +34249,20 @@
       </c>
       <c r="BO16" t="s">
         <v>85</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34092,11 +34461,20 @@
       </c>
       <c r="BO17" t="s">
         <v>84</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34294,12 +34672,21 @@
         <v>84</v>
       </c>
       <c r="BO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34497,12 +34884,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34700,12 +35096,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34904,6 +35309,15 @@
       </c>
       <c r="BO21" t="s">
         <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -34931,7 +35345,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34955,19 +35369,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34991,7 +35405,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35015,19 +35429,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AH1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AI1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AJ1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AK1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35039,13 +35453,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AP1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AQ1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35057,7 +35471,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35072,13 +35486,13 @@
         <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BA1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BB1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35090,19 +35504,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="BG1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BH1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BI1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="BJ1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35114,7 +35528,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35126,7 +35540,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35150,7 +35564,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35160,11 +35574,20 @@
       </c>
       <c r="CC1" t="s">
         <v>63</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>472</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35404,12 +35827,21 @@
         <v>84</v>
       </c>
       <c r="CC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35649,12 +36081,21 @@
         <v>84</v>
       </c>
       <c r="CC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35895,11 +36336,20 @@
       </c>
       <c r="CC4" t="s">
         <v>85</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36139,12 +36589,21 @@
         <v>84</v>
       </c>
       <c r="CC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36385,11 +36844,20 @@
       </c>
       <c r="CC6" t="s">
         <v>85</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -36629,12 +37097,21 @@
         <v>85</v>
       </c>
       <c r="CC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36875,11 +37352,20 @@
       </c>
       <c r="CC8" t="s">
         <v>85</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37026,7 +37512,7 @@
         <v>84</v>
       </c>
       <c r="AX9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AY9" t="s">
         <v>84</v>
@@ -37119,12 +37605,21 @@
         <v>84</v>
       </c>
       <c r="CC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37365,11 +37860,20 @@
       </c>
       <c r="CC10" t="s">
         <v>85</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37609,12 +38113,21 @@
         <v>85</v>
       </c>
       <c r="CC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37854,12 +38367,21 @@
         <v>85</v>
       </c>
       <c r="CC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38099,12 +38621,21 @@
         <v>85</v>
       </c>
       <c r="CC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38344,12 +38875,21 @@
         <v>84</v>
       </c>
       <c r="CC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38590,11 +39130,20 @@
       </c>
       <c r="CC15" t="s">
         <v>84</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38835,11 +39384,20 @@
       </c>
       <c r="CC16" t="s">
         <v>85</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39080,11 +39638,20 @@
       </c>
       <c r="CC17" t="s">
         <v>85</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39325,11 +39892,20 @@
       </c>
       <c r="CC18" t="s">
         <v>85</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39570,11 +40146,20 @@
       </c>
       <c r="CC19" t="s">
         <v>85</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39814,12 +40399,21 @@
         <v>85</v>
       </c>
       <c r="CC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40060,11 +40654,20 @@
       </c>
       <c r="CC21" t="s">
         <v>85</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40305,11 +40908,20 @@
       </c>
       <c r="CC22" t="s">
         <v>85</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40550,6 +41162,15 @@
       </c>
       <c r="CC23" t="s">
         <v>85</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -40577,7 +41198,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40619,7 +41240,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40670,7 +41291,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40700,7 +41321,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40712,7 +41333,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40736,7 +41357,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40748,16 +41369,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BK1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="BL1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="BM1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40768,7 +41389,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40971,7 +41592,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41174,7 +41795,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41377,7 +41998,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41580,7 +42201,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -41783,7 +42404,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41986,7 +42607,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42189,7 +42810,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42392,7 +43013,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42595,7 +43216,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42798,7 +43419,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43001,7 +43622,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43204,7 +43825,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43407,7 +44028,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43610,7 +44231,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43813,7 +44434,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44016,7 +44637,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -44219,7 +44840,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44422,7 +45043,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44625,7 +45246,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -48187,10 +48808,19 @@
       <c r="BC1" t="s">
         <v>135</v>
       </c>
+      <c r="BD1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -48352,12 +48982,21 @@
         <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48519,12 +49158,21 @@
         <v>84</v>
       </c>
       <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -48686,12 +49334,21 @@
         <v>85</v>
       </c>
       <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48853,12 +49510,21 @@
         <v>85</v>
       </c>
       <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49021,11 +49687,20 @@
       </c>
       <c r="BC6" t="s">
         <v>85</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49187,12 +49862,21 @@
         <v>85</v>
       </c>
       <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49354,12 +50038,21 @@
         <v>84</v>
       </c>
       <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49521,12 +50214,21 @@
         <v>84</v>
       </c>
       <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49688,12 +50390,21 @@
         <v>84</v>
       </c>
       <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49855,12 +50566,21 @@
         <v>84</v>
       </c>
       <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50022,12 +50742,21 @@
         <v>84</v>
       </c>
       <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50189,12 +50918,21 @@
         <v>85</v>
       </c>
       <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50356,12 +51094,21 @@
         <v>84</v>
       </c>
       <c r="BC14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50523,12 +51270,21 @@
         <v>84</v>
       </c>
       <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50690,12 +51446,21 @@
         <v>84</v>
       </c>
       <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50857,12 +51622,21 @@
         <v>84</v>
       </c>
       <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51024,12 +51798,21 @@
         <v>84</v>
       </c>
       <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51191,12 +51974,21 @@
         <v>84</v>
       </c>
       <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -51358,12 +52150,21 @@
         <v>84</v>
       </c>
       <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51526,6 +52327,15 @@
       </c>
       <c r="BC21" t="s">
         <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -51556,10 +52366,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51580,10 +52390,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51595,10 +52405,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51616,10 +52426,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AA1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51634,10 +52444,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51652,7 +52462,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AM1" t="s">
         <v>106</v>
@@ -51667,7 +52477,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51688,7 +52498,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -51701,11 +52511,20 @@
       </c>
       <c r="BB1" t="s">
         <v>135</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51864,12 +52683,21 @@
         <v>85</v>
       </c>
       <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52028,12 +52856,21 @@
         <v>84</v>
       </c>
       <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -52192,12 +53029,21 @@
         <v>85</v>
       </c>
       <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -52356,12 +53202,21 @@
         <v>85</v>
       </c>
       <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -52521,11 +53376,20 @@
       </c>
       <c r="BB6" t="s">
         <v>85</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52685,11 +53549,20 @@
       </c>
       <c r="BB7" t="s">
         <v>86</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52849,11 +53722,20 @@
       </c>
       <c r="BB8" t="s">
         <v>86</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53012,12 +53894,21 @@
         <v>85</v>
       </c>
       <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -53176,12 +54067,21 @@
         <v>84</v>
       </c>
       <c r="BB10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -53340,12 +54240,21 @@
         <v>84</v>
       </c>
       <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53505,11 +54414,20 @@
       </c>
       <c r="BB12" t="s">
         <v>85</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53668,12 +54586,21 @@
         <v>84</v>
       </c>
       <c r="BB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53832,12 +54759,21 @@
         <v>84</v>
       </c>
       <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53996,12 +54932,21 @@
         <v>85</v>
       </c>
       <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -54160,12 +55105,21 @@
         <v>85</v>
       </c>
       <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -54325,11 +55279,20 @@
       </c>
       <c r="BB17" t="s">
         <v>85</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -54488,12 +55451,21 @@
         <v>84</v>
       </c>
       <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54653,11 +55625,20 @@
       </c>
       <c r="BB19" t="s">
         <v>84</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54817,11 +55798,20 @@
       </c>
       <c r="BB20" t="s">
         <v>85</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54981,11 +55971,20 @@
       </c>
       <c r="BB21" t="s">
         <v>84</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55144,12 +56143,21 @@
         <v>84</v>
       </c>
       <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55308,12 +56316,21 @@
         <v>84</v>
       </c>
       <c r="BB23" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55472,12 +56489,21 @@
         <v>84</v>
       </c>
       <c r="BB24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -55636,6 +56662,15 @@
         <v>84</v>
       </c>
       <c r="BB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -55661,7 +56696,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55673,34 +56708,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55709,31 +56744,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55745,10 +56780,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55767,11 +56802,20 @@
       </c>
       <c r="AM1" t="s">
         <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -55885,12 +56929,21 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -56004,12 +57057,21 @@
         <v>85</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -56123,12 +57185,21 @@
         <v>84</v>
       </c>
       <c r="AM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -56242,12 +57313,21 @@
         <v>84</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -56362,11 +57442,20 @@
       </c>
       <c r="AM6" t="s">
         <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -56480,12 +57569,21 @@
         <v>84</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -56599,12 +57697,21 @@
         <v>84</v>
       </c>
       <c r="AM8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56718,12 +57825,21 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -56837,12 +57953,21 @@
         <v>84</v>
       </c>
       <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -56956,12 +58081,21 @@
         <v>84</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -57075,12 +58209,21 @@
         <v>84</v>
       </c>
       <c r="AM12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -57194,12 +58337,21 @@
         <v>85</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -57313,12 +58465,21 @@
         <v>84</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -57432,12 +58593,21 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -57551,12 +58721,21 @@
         <v>85</v>
       </c>
       <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57670,12 +58849,21 @@
         <v>85</v>
       </c>
       <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57789,12 +58977,21 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -57909,11 +59106,20 @@
       </c>
       <c r="AM19" t="s">
         <v>84</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58027,12 +59233,21 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -58147,11 +59362,20 @@
       </c>
       <c r="AM21" t="s">
         <v>85</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -58265,12 +59489,21 @@
         <v>85</v>
       </c>
       <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -58385,11 +59618,20 @@
       </c>
       <c r="AM23" t="s">
         <v>85</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -58503,12 +59745,21 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -58622,6 +59873,15 @@
         <v>85</v>
       </c>
       <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -58647,13 +59907,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -58662,7 +59922,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -58671,13 +59931,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -58689,37 +59949,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58728,10 +59988,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58744,11 +60004,14 @@
       </c>
       <c r="AJ1" t="s">
         <v>134</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -58853,12 +60116,15 @@
         <v>85</v>
       </c>
       <c r="AJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -58964,11 +60230,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -59073,12 +60342,15 @@
         <v>84</v>
       </c>
       <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -59184,11 +60456,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -59294,11 +60569,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -59404,11 +60682,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>84</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -59514,11 +60795,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -59624,11 +60908,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -59733,12 +61020,15 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -59844,11 +61134,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>84</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59953,12 +61246,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -60063,12 +61359,15 @@
         <v>85</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -60174,11 +61473,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -60284,11 +61586,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>84</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -60393,12 +61698,15 @@
         <v>85</v>
       </c>
       <c r="AJ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -60503,12 +61811,15 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -60613,12 +61924,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60723,12 +62037,15 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -60834,11 +62151,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>84</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -60943,12 +62263,15 @@
         <v>84</v>
       </c>
       <c r="AJ21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -61054,11 +62377,14 @@
       </c>
       <c r="AJ22" t="s">
         <v>84</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -61163,12 +62489,15 @@
         <v>84</v>
       </c>
       <c r="AJ23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -61273,12 +62602,15 @@
         <v>85</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -61384,6 +62716,9 @@
       </c>
       <c r="AJ25" t="s">
         <v>84</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -61408,61 +62743,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -61471,7 +62806,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -61483,7 +62818,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -61496,11 +62831,20 @@
       </c>
       <c r="AG1" t="s">
         <v>133</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -61597,11 +62941,20 @@
       </c>
       <c r="AG2" t="s">
         <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -61698,11 +63051,20 @@
       </c>
       <c r="AG3" t="s">
         <v>85</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -61798,12 +63160,21 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -61899,12 +63270,21 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -62001,11 +63381,20 @@
       </c>
       <c r="AG6" t="s">
         <v>85</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -62102,11 +63491,20 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -62203,11 +63601,20 @@
       </c>
       <c r="AG8" t="s">
         <v>85</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -62304,11 +63711,20 @@
       </c>
       <c r="AG9" t="s">
         <v>85</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -62405,11 +63821,20 @@
       </c>
       <c r="AG10" t="s">
         <v>85</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -62506,11 +63931,20 @@
       </c>
       <c r="AG11" t="s">
         <v>84</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -62606,12 +64040,21 @@
         <v>84</v>
       </c>
       <c r="AG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -62707,12 +64150,21 @@
         <v>84</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -62809,11 +64261,20 @@
       </c>
       <c r="AG14" t="s">
         <v>85</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -62909,12 +64370,21 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -63011,11 +64481,20 @@
       </c>
       <c r="AG16" t="s">
         <v>85</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -63111,12 +64590,21 @@
         <v>85</v>
       </c>
       <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -63213,11 +64701,20 @@
       </c>
       <c r="AG18" t="s">
         <v>85</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -63314,11 +64811,20 @@
       </c>
       <c r="AG19" t="s">
         <v>85</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -63414,12 +64920,21 @@
         <v>84</v>
       </c>
       <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -63515,12 +65030,21 @@
         <v>84</v>
       </c>
       <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -63617,11 +65141,20 @@
       </c>
       <c r="AG22" t="s">
         <v>85</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -63718,11 +65251,20 @@
       </c>
       <c r="AG23" t="s">
         <v>85</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -63818,6 +65360,15 @@
         <v>87</v>
       </c>
       <c r="AG24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -63927,7 +65478,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63984,12 +65535,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -64144,7 +65695,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -64299,7 +65850,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -64454,7 +66005,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -64609,7 +66160,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -64764,7 +66315,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64919,7 +66470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -65074,7 +66625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -65229,7 +66780,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -65384,7 +66935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -65539,7 +67090,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -65694,7 +67245,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -65849,7 +67400,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -66004,7 +67555,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -66159,7 +67710,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -66314,7 +67865,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -66469,7 +68020,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -66624,7 +68175,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -66779,7 +68330,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66934,7 +68485,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/RCmatrix.xlsx
+++ b/RCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22541" uniqueCount="552">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.09</t>
   </si>
   <si>
     <t>Augsburg</t>
@@ -728,6 +737,9 @@
     <t>X2021.10.08</t>
   </si>
   <si>
+    <t>X2022.01.04</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1037,6 +1049,9 @@
     <t>Valenciennes</t>
   </si>
   <si>
+    <t>X2022.01.05</t>
+  </si>
+  <si>
     <t>AEK</t>
   </si>
   <si>
@@ -1083,6 +1098,9 @@
   </si>
   <si>
     <t>X2021.10.28</t>
+  </si>
+  <si>
+    <t>X2022.01.06</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -5595,37 +5613,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5637,13 +5655,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5652,7 +5670,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -5661,19 +5679,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -5682,7 +5700,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5691,21 +5709,24 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -5817,11 +5838,14 @@
       </c>
       <c r="AL2" t="s">
         <v>85</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5933,11 +5957,14 @@
       </c>
       <c r="AL3" t="s">
         <v>85</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6049,11 +6076,14 @@
       </c>
       <c r="AL4" t="s">
         <v>86</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6164,12 +6194,15 @@
         <v>84</v>
       </c>
       <c r="AL5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -6281,11 +6314,14 @@
       </c>
       <c r="AL6" t="s">
         <v>86</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6396,12 +6432,15 @@
         <v>84</v>
       </c>
       <c r="AL7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6513,11 +6552,14 @@
       </c>
       <c r="AL8" t="s">
         <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6628,12 +6670,15 @@
         <v>84</v>
       </c>
       <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6744,12 +6789,15 @@
         <v>84</v>
       </c>
       <c r="AL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -6861,11 +6909,14 @@
       </c>
       <c r="AL11" t="s">
         <v>86</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6977,11 +7028,14 @@
       </c>
       <c r="AL12" t="s">
         <v>85</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7093,11 +7147,14 @@
       </c>
       <c r="AL13" t="s">
         <v>85</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -7209,11 +7266,14 @@
       </c>
       <c r="AL14" t="s">
         <v>85</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -7325,11 +7385,14 @@
       </c>
       <c r="AL15" t="s">
         <v>85</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7440,12 +7503,15 @@
         <v>84</v>
       </c>
       <c r="AL16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7556,12 +7622,15 @@
         <v>84</v>
       </c>
       <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7672,12 +7741,15 @@
         <v>85</v>
       </c>
       <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7788,12 +7860,15 @@
         <v>84</v>
       </c>
       <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7905,11 +7980,14 @@
       </c>
       <c r="AL20" t="s">
         <v>85</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8020,6 +8098,9 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8066,7 +8147,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -8081,7 +8162,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -8096,7 +8177,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -8111,7 +8192,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8126,7 +8207,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -8150,12 +8231,24 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8270,11 +8363,23 @@
       </c>
       <c r="AM2" t="s">
         <v>85</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -8388,12 +8493,24 @@
         <v>84</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8508,11 +8625,23 @@
       </c>
       <c r="AM4" t="s">
         <v>85</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -8626,12 +8755,24 @@
         <v>85</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8745,12 +8886,24 @@
         <v>84</v>
       </c>
       <c r="AM6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8864,12 +9017,24 @@
         <v>85</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8984,11 +9149,23 @@
       </c>
       <c r="AM8" t="s">
         <v>85</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9102,12 +9279,24 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9222,11 +9411,23 @@
       </c>
       <c r="AM10" t="s">
         <v>85</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9340,12 +9541,24 @@
         <v>85</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -9460,11 +9673,23 @@
       </c>
       <c r="AM12" t="s">
         <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -9578,12 +9803,24 @@
         <v>84</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9697,12 +9934,24 @@
         <v>85</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9817,6 +10066,18 @@
       </c>
       <c r="AM15" t="s">
         <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -9841,7 +10102,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -9871,10 +10132,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9889,7 +10150,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -9907,7 +10168,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -9919,13 +10180,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AE1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9934,7 +10195,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9952,7 +10213,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9964,13 +10225,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AT1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AU1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -9979,7 +10240,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -9991,7 +10252,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10003,15 +10264,21 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BG1" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10186,11 +10453,17 @@
       </c>
       <c r="BG2" t="s">
         <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10365,11 +10638,17 @@
       </c>
       <c r="BG3" t="s">
         <v>85</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10543,12 +10822,18 @@
         <v>85</v>
       </c>
       <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10723,11 +11008,17 @@
       </c>
       <c r="BG5" t="s">
         <v>85</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10902,11 +11193,17 @@
       </c>
       <c r="BG6" t="s">
         <v>85</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11081,11 +11378,17 @@
       </c>
       <c r="BG7" t="s">
         <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -11259,12 +11562,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11439,11 +11748,17 @@
       </c>
       <c r="BG9" t="s">
         <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11617,12 +11932,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11796,12 +12117,18 @@
         <v>84</v>
       </c>
       <c r="BG11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11975,12 +12302,18 @@
         <v>84</v>
       </c>
       <c r="BG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12154,12 +12487,18 @@
         <v>84</v>
       </c>
       <c r="BG13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12334,11 +12673,17 @@
       </c>
       <c r="BG14" t="s">
         <v>84</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12512,12 +12857,18 @@
         <v>84</v>
       </c>
       <c r="BG15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12691,12 +13042,18 @@
         <v>84</v>
       </c>
       <c r="BG16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12870,12 +13227,18 @@
         <v>84</v>
       </c>
       <c r="BG17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13050,11 +13413,17 @@
       </c>
       <c r="BG18" t="s">
         <v>85</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13229,11 +13598,17 @@
       </c>
       <c r="BG19" t="s">
         <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13407,12 +13782,18 @@
         <v>84</v>
       </c>
       <c r="BG20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13587,6 +13968,12 @@
       </c>
       <c r="BG21" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13641,10 +14028,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13680,13 +14067,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AB1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -13713,13 +14100,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AM1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -13748,7 +14135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13894,7 +14281,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14040,7 +14427,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14186,7 +14573,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14332,7 +14719,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14478,7 +14865,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14624,7 +15011,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14770,7 +15157,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14916,7 +15303,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15062,7 +15449,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -15208,7 +15595,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15354,7 +15741,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15500,7 +15887,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15646,7 +16033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15792,7 +16179,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15885,7 +16272,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AG16" t="s">
         <v>84</v>
@@ -15938,7 +16325,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16084,7 +16471,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16230,7 +16617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16376,7 +16763,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16522,7 +16909,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16724,7 +17111,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16793,10 +17180,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -16823,18 +17210,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AX1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AY1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16989,7 +17376,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17144,7 +17531,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17299,7 +17686,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17454,7 +17841,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17609,7 +17996,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17764,7 +18151,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17919,7 +18306,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -18074,7 +18461,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18229,7 +18616,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18384,7 +18771,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18539,7 +18926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18694,7 +19081,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18849,7 +19236,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19004,7 +19391,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19159,7 +19546,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19314,7 +19701,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19469,7 +19856,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19647,7 +20034,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19659,7 +20046,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19671,7 +20058,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -19701,7 +20088,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19713,7 +20100,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -19734,7 +20121,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19746,7 +20133,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -19767,10 +20154,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AT1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -19791,7 +20178,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19803,24 +20190,33 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BF1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BG1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BH1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BI1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -20001,11 +20397,20 @@
       </c>
       <c r="BI2" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20186,11 +20591,20 @@
       </c>
       <c r="BI3" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20371,11 +20785,20 @@
       </c>
       <c r="BI4" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20555,12 +20978,21 @@
         <v>84</v>
       </c>
       <c r="BI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20740,12 +21172,21 @@
         <v>84</v>
       </c>
       <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20926,11 +21367,20 @@
       </c>
       <c r="BI7" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21110,12 +21560,21 @@
         <v>84</v>
       </c>
       <c r="BI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21295,12 +21754,21 @@
         <v>84</v>
       </c>
       <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21481,11 +21949,20 @@
       </c>
       <c r="BI10" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21666,11 +22143,20 @@
       </c>
       <c r="BI11" t="s">
         <v>85</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21851,11 +22337,20 @@
       </c>
       <c r="BI12" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -22036,11 +22531,20 @@
       </c>
       <c r="BI13" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22220,12 +22724,21 @@
         <v>84</v>
       </c>
       <c r="BI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22405,12 +22918,21 @@
         <v>84</v>
       </c>
       <c r="BI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22591,11 +23113,20 @@
       </c>
       <c r="BI16" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -22775,12 +23306,21 @@
         <v>84</v>
       </c>
       <c r="BI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22961,11 +23501,20 @@
       </c>
       <c r="BI18" t="s">
         <v>85</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -23145,6 +23694,15 @@
         <v>85</v>
       </c>
       <c r="BI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23221,7 +23779,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23239,7 +23797,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -23248,13 +23806,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AE1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -23263,7 +23821,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23281,7 +23839,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23289,7 +23847,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23417,7 +23975,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -23545,7 +24103,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -23673,7 +24231,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23801,7 +24359,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23929,7 +24487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -24057,7 +24615,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -24185,7 +24743,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24313,7 +24871,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -24441,7 +24999,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -24569,7 +25127,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -24697,7 +25255,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24842,7 +25400,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24854,7 +25412,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24872,7 +25430,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24887,7 +25445,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24896,7 +25454,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24923,15 +25481,18 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25021,12 +25582,15 @@
         <v>84</v>
       </c>
       <c r="AE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25117,11 +25681,14 @@
       </c>
       <c r="AE3" t="s">
         <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25211,12 +25778,15 @@
         <v>84</v>
       </c>
       <c r="AE4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25306,12 +25876,15 @@
         <v>84</v>
       </c>
       <c r="AE5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25401,12 +25974,15 @@
         <v>84</v>
       </c>
       <c r="AE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25497,11 +26073,14 @@
       </c>
       <c r="AE7" t="s">
         <v>84</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -25592,11 +26171,14 @@
       </c>
       <c r="AE8" t="s">
         <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25687,11 +26269,14 @@
       </c>
       <c r="AE9" t="s">
         <v>84</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -25782,11 +26367,14 @@
       </c>
       <c r="AE10" t="s">
         <v>86</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25876,6 +26464,9 @@
         <v>84</v>
       </c>
       <c r="AE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -25913,7 +26504,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25943,7 +26534,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25952,7 +26543,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25961,21 +26552,24 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AA1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -26053,12 +26647,15 @@
         <v>85</v>
       </c>
       <c r="AA2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26137,11 +26734,14 @@
       </c>
       <c r="AA3" t="s">
         <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26220,11 +26820,14 @@
       </c>
       <c r="AA4" t="s">
         <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26302,12 +26905,15 @@
         <v>84</v>
       </c>
       <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -26346,7 +26952,7 @@
         <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="O6" t="s">
         <v>84</v>
@@ -26385,12 +26991,15 @@
         <v>84</v>
       </c>
       <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26469,11 +27078,14 @@
       </c>
       <c r="AA7" t="s">
         <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26552,11 +27164,14 @@
       </c>
       <c r="AA8" t="s">
         <v>84</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -26634,12 +27249,15 @@
         <v>84</v>
       </c>
       <c r="AA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26718,11 +27336,14 @@
       </c>
       <c r="AA10" t="s">
         <v>86</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26800,6 +27421,9 @@
         <v>86</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26840,7 +27464,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26876,19 +27500,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26906,21 +27530,27 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -27020,11 +27650,17 @@
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -27124,11 +27760,17 @@
       </c>
       <c r="AH3" t="s">
         <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -27228,11 +27870,17 @@
       </c>
       <c r="AH4" t="s">
         <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -27331,12 +27979,18 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27436,11 +28090,17 @@
       </c>
       <c r="AH6" t="s">
         <v>85</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27539,12 +28199,18 @@
         <v>85</v>
       </c>
       <c r="AH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27644,11 +28310,17 @@
       </c>
       <c r="AH8" t="s">
         <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27748,11 +28420,17 @@
       </c>
       <c r="AH9" t="s">
         <v>86</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27851,12 +28529,18 @@
         <v>84</v>
       </c>
       <c r="AH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27955,6 +28639,12 @@
         <v>86</v>
       </c>
       <c r="AH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -28120,10 +28810,19 @@
       <c r="AX1" t="s">
         <v>63</v>
       </c>
+      <c r="AY1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -28270,12 +28969,21 @@
         <v>85</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -28422,12 +29130,21 @@
         <v>84</v>
       </c>
       <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -28574,12 +29291,21 @@
         <v>86</v>
       </c>
       <c r="AX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -28727,11 +29453,20 @@
       </c>
       <c r="AX5" t="s">
         <v>84</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -28878,12 +29613,21 @@
         <v>85</v>
       </c>
       <c r="AX6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -29030,12 +29774,21 @@
         <v>85</v>
       </c>
       <c r="AX7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -29182,12 +29935,21 @@
         <v>84</v>
       </c>
       <c r="AX8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -29335,11 +30097,20 @@
       </c>
       <c r="AX9" t="s">
         <v>85</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -29486,12 +30257,21 @@
         <v>85</v>
       </c>
       <c r="AX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -29639,11 +30419,20 @@
       </c>
       <c r="AX11" t="s">
         <v>84</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -29790,12 +30579,21 @@
         <v>85</v>
       </c>
       <c r="AX12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -29943,11 +30741,20 @@
       </c>
       <c r="AX13" t="s">
         <v>85</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -30094,12 +30901,21 @@
         <v>85</v>
       </c>
       <c r="AX14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -30246,12 +31062,21 @@
         <v>85</v>
       </c>
       <c r="AX15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -30398,12 +31223,21 @@
         <v>85</v>
       </c>
       <c r="AX16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -30551,11 +31385,20 @@
       </c>
       <c r="AX17" t="s">
         <v>85</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -30702,12 +31545,21 @@
         <v>85</v>
       </c>
       <c r="AX18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -30855,6 +31707,15 @@
       </c>
       <c r="AX19" t="s">
         <v>84</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30882,7 +31743,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30894,7 +31755,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30924,10 +31785,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="T1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30942,7 +31803,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30960,7 +31821,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -30972,16 +31833,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AJ1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AK1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30990,7 +31851,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -31011,7 +31872,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -31023,10 +31884,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BA1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -31038,7 +31899,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -31050,7 +31911,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -31062,27 +31923,33 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BN1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BO1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="BP1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="BQ1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BR1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31290,11 +32157,17 @@
       </c>
       <c r="BR2" t="s">
         <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31501,12 +32374,18 @@
         <v>84</v>
       </c>
       <c r="BR3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31714,11 +32593,17 @@
       </c>
       <c r="BR4" t="s">
         <v>84</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31925,12 +32810,18 @@
         <v>85</v>
       </c>
       <c r="BR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -32138,11 +33029,17 @@
       </c>
       <c r="BR6" t="s">
         <v>84</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32349,12 +33246,18 @@
         <v>84</v>
       </c>
       <c r="BR7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32561,12 +33464,18 @@
         <v>85</v>
       </c>
       <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32773,12 +33682,18 @@
         <v>86</v>
       </c>
       <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32985,12 +33900,18 @@
         <v>84</v>
       </c>
       <c r="BR10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -33198,11 +34119,17 @@
       </c>
       <c r="BR11" t="s">
         <v>84</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33409,12 +34336,18 @@
         <v>85</v>
       </c>
       <c r="BR12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33622,11 +34555,17 @@
       </c>
       <c r="BR13" t="s">
         <v>85</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33833,12 +34772,18 @@
         <v>85</v>
       </c>
       <c r="BR14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -34046,11 +34991,17 @@
       </c>
       <c r="BR15" t="s">
         <v>86</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -34257,12 +35208,18 @@
         <v>85</v>
       </c>
       <c r="BR16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34469,12 +35426,18 @@
         <v>84</v>
       </c>
       <c r="BR17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34681,12 +35644,18 @@
         <v>85</v>
       </c>
       <c r="BR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34893,12 +35862,18 @@
         <v>84</v>
       </c>
       <c r="BR19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -35106,11 +36081,17 @@
       </c>
       <c r="BR20" t="s">
         <v>84</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -35317,6 +36298,12 @@
         <v>84</v>
       </c>
       <c r="BR21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -35345,7 +36332,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35357,7 +36344,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -35369,19 +36356,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35405,7 +36392,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35417,7 +36404,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -35429,19 +36416,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AH1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AJ1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AK1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35453,13 +36440,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AQ1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35471,7 +36458,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35483,16 +36470,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AZ1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BB1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35504,19 +36491,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="BG1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BH1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BI1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="BJ1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35528,7 +36515,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35540,7 +36527,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35552,7 +36539,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -35564,7 +36551,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35576,18 +36563,27 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="CE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="CF1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35837,11 +36833,20 @@
       </c>
       <c r="CF2" t="s">
         <v>85</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -36091,11 +37096,20 @@
       </c>
       <c r="CF3" t="s">
         <v>84</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -36344,12 +37358,21 @@
         <v>84</v>
       </c>
       <c r="CF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36598,12 +37621,21 @@
         <v>84</v>
       </c>
       <c r="CF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36852,12 +37884,21 @@
         <v>86</v>
       </c>
       <c r="CF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -37106,12 +38147,21 @@
         <v>84</v>
       </c>
       <c r="CF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -37361,11 +38411,20 @@
       </c>
       <c r="CF8" t="s">
         <v>84</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37512,7 +38571,7 @@
         <v>84</v>
       </c>
       <c r="AX9" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AY9" t="s">
         <v>84</v>
@@ -37615,11 +38674,20 @@
       </c>
       <c r="CF9" t="s">
         <v>84</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37868,12 +38936,21 @@
         <v>85</v>
       </c>
       <c r="CF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -38122,12 +39199,21 @@
         <v>85</v>
       </c>
       <c r="CF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -38377,11 +39463,20 @@
       </c>
       <c r="CF12" t="s">
         <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38630,12 +39725,21 @@
         <v>85</v>
       </c>
       <c r="CF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38885,11 +39989,20 @@
       </c>
       <c r="CF14" t="s">
         <v>84</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -39138,12 +40251,21 @@
         <v>84</v>
       </c>
       <c r="CF15" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -39393,11 +40515,20 @@
       </c>
       <c r="CF16" t="s">
         <v>84</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39646,12 +40777,21 @@
         <v>84</v>
       </c>
       <c r="CF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39894,18 +41034,27 @@
         <v>85</v>
       </c>
       <c r="CD18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="CE18" t="s">
         <v>84</v>
       </c>
       <c r="CF18" t="s">
         <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -40154,12 +41303,21 @@
         <v>84</v>
       </c>
       <c r="CF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -40409,11 +41567,20 @@
       </c>
       <c r="CF20" t="s">
         <v>84</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40662,12 +41829,21 @@
         <v>85</v>
       </c>
       <c r="CF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40916,12 +42092,21 @@
         <v>85</v>
       </c>
       <c r="CF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -41171,6 +42356,15 @@
       </c>
       <c r="CF23" t="s">
         <v>84</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -41198,7 +42392,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -41210,7 +42404,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -41240,7 +42434,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -41258,7 +42452,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -41279,7 +42473,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -41291,7 +42485,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -41303,7 +42497,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -41321,7 +42515,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -41333,7 +42527,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -41345,7 +42539,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -41357,7 +42551,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -41369,27 +42563,36 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="BK1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="BL1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="BM1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
       </c>
       <c r="BO1" t="s">
         <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -41587,12 +42790,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41790,12 +43002,21 @@
         <v>85</v>
       </c>
       <c r="BO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41994,11 +43215,20 @@
       </c>
       <c r="BO4" t="s">
         <v>84</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -42197,11 +43427,20 @@
       </c>
       <c r="BO5" t="s">
         <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -42400,11 +43639,20 @@
       </c>
       <c r="BO6" t="s">
         <v>85</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42602,12 +43850,21 @@
         <v>84</v>
       </c>
       <c r="BO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42805,12 +44062,21 @@
         <v>85</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -43008,12 +44274,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -43211,12 +44486,21 @@
         <v>85</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -43414,12 +44698,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43618,11 +44911,20 @@
       </c>
       <c r="BO12" t="s">
         <v>84</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43820,12 +45122,21 @@
         <v>84</v>
       </c>
       <c r="BO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -44023,12 +45334,21 @@
         <v>85</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -44226,12 +45546,21 @@
         <v>84</v>
       </c>
       <c r="BO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -44429,12 +45758,21 @@
         <v>84</v>
       </c>
       <c r="BO16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44632,12 +45970,21 @@
         <v>84</v>
       </c>
       <c r="BO17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -44836,11 +46183,20 @@
       </c>
       <c r="BO18" t="s">
         <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -45038,12 +46394,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -45241,12 +46606,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -45444,6 +46818,15 @@
         <v>85</v>
       </c>
       <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45586,7 +46969,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -45627,7 +47010,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -45794,7 +47177,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -45961,7 +47344,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -46128,7 +47511,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -46295,7 +47678,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -46462,7 +47845,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -46629,7 +48012,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -46796,7 +48179,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -46963,7 +48346,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -47130,7 +48513,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -47297,7 +48680,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -47464,7 +48847,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -47631,7 +49014,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -47798,7 +49181,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -47965,7 +49348,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -48132,7 +49515,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -48299,7 +49682,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -48466,7 +49849,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -48662,7 +50045,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -48695,7 +50078,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -48710,7 +50093,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -48728,7 +50111,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -48752,13 +50135,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AL1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -48767,7 +50150,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -48800,27 +50183,27 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BB1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BC1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BD1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BF1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -48996,7 +50379,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -49172,7 +50555,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -49348,7 +50731,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -49524,7 +50907,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49700,7 +51083,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49876,7 +51259,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -50052,7 +51435,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -50228,7 +51611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -50404,7 +51787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -50580,7 +51963,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50756,7 +52139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50932,7 +52315,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -51108,7 +52491,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -51284,7 +52667,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -51460,7 +52843,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -51636,7 +53019,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51812,7 +53195,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51988,7 +53371,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -52164,7 +53547,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -52366,10 +53749,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -52390,10 +53773,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -52405,10 +53788,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -52426,10 +53809,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AA1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -52444,10 +53827,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -52462,10 +53845,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AM1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -52477,7 +53860,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -52498,7 +53881,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -52507,24 +53890,24 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BB1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BC1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BD1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BE1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -52697,7 +54080,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52870,7 +54253,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53043,7 +54426,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53216,7 +54599,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -53389,7 +54772,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -53562,7 +54945,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -53735,7 +55118,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53908,7 +55291,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54081,7 +55464,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -54254,7 +55637,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -54427,7 +55810,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -54600,7 +55983,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -54773,7 +56156,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54946,7 +56329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -55119,7 +56502,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -55292,7 +56675,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -55465,7 +56848,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55638,7 +57021,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55811,7 +57194,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -55984,7 +57367,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -56157,7 +57540,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -56330,7 +57713,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -56503,7 +57886,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -56696,7 +58079,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -56708,34 +58091,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -56744,31 +58127,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -56780,10 +58163,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -56798,24 +58181,27 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AP1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -56939,11 +58325,14 @@
       </c>
       <c r="AP2" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -57066,12 +58455,15 @@
         <v>84</v>
       </c>
       <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -57194,12 +58586,15 @@
         <v>84</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -57323,11 +58718,14 @@
       </c>
       <c r="AP5" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -57451,11 +58849,14 @@
       </c>
       <c r="AP6" t="s">
         <v>86</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -57578,12 +58979,15 @@
         <v>84</v>
       </c>
       <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -57707,11 +59111,14 @@
       </c>
       <c r="AP8" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -57834,12 +59241,15 @@
         <v>84</v>
       </c>
       <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -57963,11 +59373,14 @@
       </c>
       <c r="AP10" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -58091,11 +59504,14 @@
       </c>
       <c r="AP11" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -58219,11 +59635,14 @@
       </c>
       <c r="AP12" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -58347,11 +59766,14 @@
       </c>
       <c r="AP13" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -58475,11 +59897,14 @@
       </c>
       <c r="AP14" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -58603,11 +60028,14 @@
       </c>
       <c r="AP15" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -58730,12 +60158,15 @@
         <v>85</v>
       </c>
       <c r="AP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -58859,11 +60290,14 @@
       </c>
       <c r="AP17" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -58986,12 +60420,15 @@
         <v>84</v>
       </c>
       <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -59115,11 +60552,14 @@
       </c>
       <c r="AP19" t="s">
         <v>85</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -59242,12 +60682,15 @@
         <v>84</v>
       </c>
       <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -59370,12 +60813,15 @@
         <v>85</v>
       </c>
       <c r="AP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -59498,12 +60944,15 @@
         <v>85</v>
       </c>
       <c r="AP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -59627,11 +61076,14 @@
       </c>
       <c r="AP23" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -59754,12 +61206,15 @@
         <v>84</v>
       </c>
       <c r="AP24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -59883,6 +61338,9 @@
       </c>
       <c r="AP25" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -59907,13 +61365,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -59922,7 +61380,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -59931,13 +61389,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -59949,37 +61407,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -59988,10 +61446,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -60003,15 +61461,21 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK1" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -60120,11 +61584,17 @@
       </c>
       <c r="AK2" t="s">
         <v>85</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -60232,12 +61702,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -60345,12 +61821,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -60458,12 +61940,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -60572,11 +62060,17 @@
       </c>
       <c r="AK6" t="s">
         <v>85</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -60684,12 +62178,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -60798,11 +62298,17 @@
       </c>
       <c r="AK8" t="s">
         <v>85</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -60911,11 +62417,17 @@
       </c>
       <c r="AK9" t="s">
         <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -61023,12 +62535,18 @@
         <v>84</v>
       </c>
       <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -61137,11 +62655,17 @@
       </c>
       <c r="AK11" t="s">
         <v>85</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -61249,12 +62773,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -61362,12 +62892,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -61475,12 +63011,18 @@
         <v>84</v>
       </c>
       <c r="AK14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -61588,12 +63130,18 @@
         <v>84</v>
       </c>
       <c r="AK15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -61702,11 +63250,17 @@
       </c>
       <c r="AK16" t="s">
         <v>85</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -61814,12 +63368,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -61927,12 +63487,18 @@
         <v>84</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -62041,11 +63607,17 @@
       </c>
       <c r="AK19" t="s">
         <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -62153,12 +63725,18 @@
         <v>84</v>
       </c>
       <c r="AK20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -62266,12 +63844,18 @@
         <v>85</v>
       </c>
       <c r="AK21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -62380,11 +63964,17 @@
       </c>
       <c r="AK22" t="s">
         <v>85</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -62493,11 +64083,17 @@
       </c>
       <c r="AK23" t="s">
         <v>85</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -62606,11 +64202,17 @@
       </c>
       <c r="AK24" t="s">
         <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -62718,6 +64320,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -62743,61 +64351,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="V1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -62806,19 +64414,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -62830,21 +64438,24 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AJ1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -62950,11 +64561,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -63060,11 +64674,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -63170,11 +64787,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -63279,12 +64899,15 @@
         <v>85</v>
       </c>
       <c r="AJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63390,11 +65013,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -63499,12 +65125,15 @@
         <v>84</v>
       </c>
       <c r="AJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -63610,11 +65239,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -63719,12 +65351,15 @@
         <v>85</v>
       </c>
       <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -63830,11 +65465,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -63940,11 +65578,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -64049,12 +65690,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -64159,12 +65803,15 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -64270,11 +65917,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -64379,12 +66029,15 @@
         <v>85</v>
       </c>
       <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -64490,11 +66143,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -64600,11 +66256,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>84</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -64709,12 +66368,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -64820,11 +66482,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>84</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -64929,12 +66594,15 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -65040,11 +66708,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>84</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -65149,12 +66820,15 @@
         <v>85</v>
       </c>
       <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -65259,12 +66933,15 @@
         <v>86</v>
       </c>
       <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -65369,6 +67046,9 @@
         <v>85</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -65478,7 +67158,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -65517,7 +67197,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -65535,12 +67215,21 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -65691,11 +67380,20 @@
       </c>
       <c r="AY2" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -65846,11 +67544,20 @@
       </c>
       <c r="AY3" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -66000,12 +67707,21 @@
         <v>84</v>
       </c>
       <c r="AY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -66156,11 +67872,20 @@
       </c>
       <c r="AY5" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -66311,11 +68036,20 @@
       </c>
       <c r="AY6" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -66466,11 +68200,20 @@
       </c>
       <c r="AY7" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -66621,11 +68364,20 @@
       </c>
       <c r="AY8" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -66775,12 +68527,21 @@
         <v>85</v>
       </c>
       <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -66931,11 +68692,20 @@
       </c>
       <c r="AY10" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -67085,12 +68855,21 @@
         <v>85</v>
       </c>
       <c r="AY11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -67240,12 +69019,21 @@
         <v>85</v>
       </c>
       <c r="AY12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -67396,11 +69184,20 @@
       </c>
       <c r="AY13" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -67550,12 +69347,21 @@
         <v>84</v>
       </c>
       <c r="AY14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -67706,11 +69512,20 @@
       </c>
       <c r="AY15" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -67861,11 +69676,20 @@
       </c>
       <c r="AY16" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -68016,11 +69840,20 @@
       </c>
       <c r="AY17" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -68171,11 +70004,20 @@
       </c>
       <c r="AY18" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -68326,11 +70168,20 @@
       </c>
       <c r="AY19" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -68481,11 +70332,20 @@
       </c>
       <c r="AY20" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -68636,6 +70496,15 @@
       </c>
       <c r="AY21" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
